--- a/企画書・設計書/データベース設計書 .xlsx
+++ b/企画書・設計書/データベース設計書 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asojukustudent.sharepoint.com/sites/SD3D_abcc23227/Shared Documents/【Time3】PL酒見/02_DB設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{993D5F97-D6EF-42A0-B163-B33B4EA5E908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59246F92-4ABE-4A6D-AFD6-0C9EFD246A38}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="13_ncr:1_{993D5F97-D6EF-42A0-B163-B33B4EA5E908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3416067-7F17-412E-8F6C-BA12CED4AA0E}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="153">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -364,19 +364,11 @@
     <t>schedule</t>
   </si>
   <si>
-    <t>マスター</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>カレンダー</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>calendar</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>イベント</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -660,10 +652,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>NN</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -705,10 +693,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>national holiday</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>mailaddress</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -722,22 +706,6 @@
   </si>
   <si>
     <t>あいことば</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>account_mail</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>account_pass</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>account_mei</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>account_secret</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -815,14 +783,6 @@
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>予定削除機能（カレンダー）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>D</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -863,10 +823,62 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>CHAR(20)</t>
+  </si>
+  <si>
+    <t>PK A_I</t>
+  </si>
+  <si>
+    <t>マスター</t>
+  </si>
+  <si>
+    <t>イベント</t>
+  </si>
+  <si>
+    <t>予定管理</t>
+  </si>
+  <si>
+    <t>祝日情報</t>
+  </si>
+  <si>
+    <t>ユーザー情報</t>
+  </si>
+  <si>
+    <t>予定統合管理</t>
+  </si>
+  <si>
     <t>予定確認機能（カレンダー）</t>
-    <rPh sb="2" eb="4">
-      <t>カクニン</t>
-    </rPh>
+  </si>
+  <si>
+    <t>予定削除機能（カレンダー）</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>holiday_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>word</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2235,13 +2247,106 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2254,24 +2359,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2280,89 +2367,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2382,10 +2400,76 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2394,6 +2478,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2403,9 +2493,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2415,81 +2502,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2497,6 +2509,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2516,15 +2537,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2592,22 +2604,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>269184</xdr:colOff>
+      <xdr:colOff>324402</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>103531</xdr:rowOff>
+      <xdr:rowOff>20707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1360280</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>63088</xdr:rowOff>
+      <xdr:colOff>1415498</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>88749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9552F7D2-7231-A5CA-7922-F06559BA4D85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A368CD31-397A-93BC-DBAE-BF507DF750E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,8 +2635,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269184" y="6557064"/>
-          <a:ext cx="7772400" cy="4376948"/>
+          <a:off x="324402" y="6474240"/>
+          <a:ext cx="7772400" cy="4347389"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2634,6 +2646,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3396,19 +3412,19 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="128" t="s">
+      <c r="U3" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="130"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="130"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="147"/>
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="147"/>
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="147"/>
+      <c r="AC3" s="147"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="145"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -3520,20 +3536,20 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="145" t="s">
+      <c r="F7" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="147"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="131"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -3551,86 +3567,86 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="154" t="s">
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="156"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="140"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="144" t="s">
+      <c r="W8" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="144"/>
-      <c r="Z8" s="144" t="s">
+      <c r="X8" s="128"/>
+      <c r="Y8" s="128"/>
+      <c r="Z8" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="144"/>
-      <c r="AB8" s="144"/>
-      <c r="AC8" s="144" t="s">
+      <c r="AA8" s="128"/>
+      <c r="AB8" s="128"/>
+      <c r="AC8" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="144"/>
-      <c r="AE8" s="144"/>
+      <c r="AD8" s="128"/>
+      <c r="AE8" s="128"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="159"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="143"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="170" t="s">
+      <c r="W9" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="162"/>
-      <c r="Y9" s="163"/>
-      <c r="Z9" s="170" t="s">
+      <c r="X9" s="149"/>
+      <c r="Y9" s="150"/>
+      <c r="Z9" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="AA9" s="162"/>
-      <c r="AB9" s="163"/>
-      <c r="AC9" s="161" t="s">
+      <c r="AA9" s="149"/>
+      <c r="AB9" s="150"/>
+      <c r="AC9" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="AD9" s="162"/>
-      <c r="AE9" s="163"/>
+      <c r="AD9" s="149"/>
+      <c r="AE9" s="150"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -3656,15 +3672,15 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="165"/>
-      <c r="Y10" s="166"/>
-      <c r="Z10" s="164"/>
-      <c r="AA10" s="165"/>
-      <c r="AB10" s="166"/>
-      <c r="AC10" s="164"/>
-      <c r="AD10" s="165"/>
-      <c r="AE10" s="166"/>
+      <c r="W10" s="151"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="153"/>
+      <c r="Z10" s="151"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="153"/>
+      <c r="AC10" s="151"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="153"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -3690,15 +3706,15 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="164"/>
-      <c r="X11" s="165"/>
-      <c r="Y11" s="166"/>
-      <c r="Z11" s="164"/>
-      <c r="AA11" s="165"/>
-      <c r="AB11" s="166"/>
-      <c r="AC11" s="164"/>
-      <c r="AD11" s="165"/>
-      <c r="AE11" s="166"/>
+      <c r="W11" s="151"/>
+      <c r="X11" s="152"/>
+      <c r="Y11" s="153"/>
+      <c r="Z11" s="151"/>
+      <c r="AA11" s="152"/>
+      <c r="AB11" s="153"/>
+      <c r="AC11" s="151"/>
+      <c r="AD11" s="152"/>
+      <c r="AE11" s="153"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -3724,15 +3740,15 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="167"/>
-      <c r="X12" s="168"/>
-      <c r="Y12" s="169"/>
-      <c r="Z12" s="167"/>
-      <c r="AA12" s="168"/>
-      <c r="AB12" s="169"/>
-      <c r="AC12" s="167"/>
-      <c r="AD12" s="168"/>
-      <c r="AE12" s="169"/>
+      <c r="W12" s="154"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="156"/>
+      <c r="Z12" s="154"/>
+      <c r="AA12" s="155"/>
+      <c r="AB12" s="156"/>
+      <c r="AC12" s="154"/>
+      <c r="AD12" s="155"/>
+      <c r="AE12" s="156"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -3827,106 +3843,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="143"/>
-      <c r="N16" s="143"/>
-      <c r="O16" s="143"/>
-      <c r="P16" s="143"/>
-      <c r="Q16" s="143"/>
-      <c r="R16" s="143"/>
-      <c r="S16" s="143"/>
-      <c r="T16" s="143"/>
-      <c r="U16" s="143"/>
-      <c r="V16" s="143"/>
-      <c r="W16" s="143"/>
-      <c r="X16" s="143"/>
-      <c r="Y16" s="143"/>
-      <c r="Z16" s="143"/>
-      <c r="AA16" s="143"/>
-      <c r="AB16" s="143"/>
-      <c r="AC16" s="143"/>
-      <c r="AD16" s="143"/>
-      <c r="AE16" s="143"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="158"/>
+      <c r="R16" s="158"/>
+      <c r="S16" s="158"/>
+      <c r="T16" s="158"/>
+      <c r="U16" s="158"/>
+      <c r="V16" s="158"/>
+      <c r="W16" s="158"/>
+      <c r="X16" s="158"/>
+      <c r="Y16" s="158"/>
+      <c r="Z16" s="158"/>
+      <c r="AA16" s="158"/>
+      <c r="AB16" s="158"/>
+      <c r="AC16" s="158"/>
+      <c r="AD16" s="158"/>
+      <c r="AE16" s="158"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="143"/>
-      <c r="O17" s="143"/>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="143"/>
-      <c r="S17" s="143"/>
-      <c r="T17" s="143"/>
-      <c r="U17" s="143"/>
-      <c r="V17" s="143"/>
-      <c r="W17" s="143"/>
-      <c r="X17" s="143"/>
-      <c r="Y17" s="143"/>
-      <c r="Z17" s="143"/>
-      <c r="AA17" s="143"/>
-      <c r="AB17" s="143"/>
-      <c r="AC17" s="143"/>
-      <c r="AD17" s="143"/>
-      <c r="AE17" s="143"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="158"/>
+      <c r="N17" s="158"/>
+      <c r="O17" s="158"/>
+      <c r="P17" s="158"/>
+      <c r="Q17" s="158"/>
+      <c r="R17" s="158"/>
+      <c r="S17" s="158"/>
+      <c r="T17" s="158"/>
+      <c r="U17" s="158"/>
+      <c r="V17" s="158"/>
+      <c r="W17" s="158"/>
+      <c r="X17" s="158"/>
+      <c r="Y17" s="158"/>
+      <c r="Z17" s="158"/>
+      <c r="AA17" s="158"/>
+      <c r="AB17" s="158"/>
+      <c r="AC17" s="158"/>
+      <c r="AD17" s="158"/>
+      <c r="AE17" s="158"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="143"/>
-      <c r="R18" s="143"/>
-      <c r="S18" s="143"/>
-      <c r="T18" s="143"/>
-      <c r="U18" s="143"/>
-      <c r="V18" s="143"/>
-      <c r="W18" s="143"/>
-      <c r="X18" s="143"/>
-      <c r="Y18" s="143"/>
-      <c r="Z18" s="143"/>
-      <c r="AA18" s="143"/>
-      <c r="AB18" s="143"/>
-      <c r="AC18" s="143"/>
-      <c r="AD18" s="143"/>
-      <c r="AE18" s="143"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="158"/>
+      <c r="N18" s="158"/>
+      <c r="O18" s="158"/>
+      <c r="P18" s="158"/>
+      <c r="Q18" s="158"/>
+      <c r="R18" s="158"/>
+      <c r="S18" s="158"/>
+      <c r="T18" s="158"/>
+      <c r="U18" s="158"/>
+      <c r="V18" s="158"/>
+      <c r="W18" s="158"/>
+      <c r="X18" s="158"/>
+      <c r="Y18" s="158"/>
+      <c r="Z18" s="158"/>
+      <c r="AA18" s="158"/>
+      <c r="AB18" s="158"/>
+      <c r="AC18" s="158"/>
+      <c r="AD18" s="158"/>
+      <c r="AE18" s="158"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4065,390 +4081,390 @@
     </row>
     <row r="23" spans="1:32" s="39" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="128" t="s">
+      <c r="C23" s="147"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="128" t="s">
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="129"/>
-      <c r="R23" s="129"/>
-      <c r="S23" s="129"/>
-      <c r="T23" s="129"/>
-      <c r="U23" s="129"/>
-      <c r="V23" s="129"/>
-      <c r="W23" s="129"/>
-      <c r="X23" s="129"/>
-      <c r="Y23" s="129"/>
-      <c r="Z23" s="129"/>
-      <c r="AA23" s="129"/>
-      <c r="AB23" s="130"/>
-      <c r="AC23" s="128" t="s">
+      <c r="K23" s="147"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="147"/>
+      <c r="O23" s="147"/>
+      <c r="P23" s="147"/>
+      <c r="Q23" s="147"/>
+      <c r="R23" s="147"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="147"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="147"/>
+      <c r="W23" s="147"/>
+      <c r="X23" s="147"/>
+      <c r="Y23" s="147"/>
+      <c r="Z23" s="147"/>
+      <c r="AA23" s="147"/>
+      <c r="AB23" s="145"/>
+      <c r="AC23" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="129"/>
-      <c r="AE23" s="130"/>
+      <c r="AD23" s="147"/>
+      <c r="AE23" s="145"/>
       <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="137">
+      <c r="B24" s="159">
         <v>1</v>
       </c>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="128" t="s">
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="129"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="129"/>
-      <c r="Q24" s="129"/>
-      <c r="R24" s="129"/>
-      <c r="S24" s="129"/>
-      <c r="T24" s="129"/>
-      <c r="U24" s="129"/>
-      <c r="V24" s="129"/>
-      <c r="W24" s="129"/>
-      <c r="X24" s="129"/>
-      <c r="Y24" s="129"/>
-      <c r="Z24" s="129"/>
-      <c r="AA24" s="129"/>
-      <c r="AB24" s="130"/>
-      <c r="AC24" s="140" t="s">
+      <c r="K24" s="147"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="147"/>
+      <c r="O24" s="147"/>
+      <c r="P24" s="147"/>
+      <c r="Q24" s="147"/>
+      <c r="R24" s="147"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="147"/>
+      <c r="W24" s="147"/>
+      <c r="X24" s="147"/>
+      <c r="Y24" s="147"/>
+      <c r="Z24" s="147"/>
+      <c r="AA24" s="147"/>
+      <c r="AB24" s="145"/>
+      <c r="AC24" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="AD24" s="141"/>
-      <c r="AE24" s="142"/>
+      <c r="AD24" s="166"/>
+      <c r="AE24" s="167"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
-      <c r="P25" s="135"/>
-      <c r="Q25" s="135"/>
-      <c r="R25" s="135"/>
-      <c r="S25" s="135"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="135"/>
-      <c r="W25" s="135"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="135"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="136"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="129"/>
-      <c r="AE25" s="130"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="168"/>
+      <c r="K25" s="169"/>
+      <c r="L25" s="169"/>
+      <c r="M25" s="169"/>
+      <c r="N25" s="169"/>
+      <c r="O25" s="169"/>
+      <c r="P25" s="169"/>
+      <c r="Q25" s="169"/>
+      <c r="R25" s="169"/>
+      <c r="S25" s="169"/>
+      <c r="T25" s="169"/>
+      <c r="U25" s="169"/>
+      <c r="V25" s="169"/>
+      <c r="W25" s="169"/>
+      <c r="X25" s="169"/>
+      <c r="Y25" s="169"/>
+      <c r="Z25" s="169"/>
+      <c r="AA25" s="169"/>
+      <c r="AB25" s="170"/>
+      <c r="AC25" s="144"/>
+      <c r="AD25" s="147"/>
+      <c r="AE25" s="145"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="135"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="135"/>
-      <c r="AB26" s="136"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="129"/>
-      <c r="AE26" s="130"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="169"/>
+      <c r="L26" s="169"/>
+      <c r="M26" s="169"/>
+      <c r="N26" s="169"/>
+      <c r="O26" s="169"/>
+      <c r="P26" s="169"/>
+      <c r="Q26" s="169"/>
+      <c r="R26" s="169"/>
+      <c r="S26" s="169"/>
+      <c r="T26" s="169"/>
+      <c r="U26" s="169"/>
+      <c r="V26" s="169"/>
+      <c r="W26" s="169"/>
+      <c r="X26" s="169"/>
+      <c r="Y26" s="169"/>
+      <c r="Z26" s="169"/>
+      <c r="AA26" s="169"/>
+      <c r="AB26" s="170"/>
+      <c r="AC26" s="144"/>
+      <c r="AD26" s="147"/>
+      <c r="AE26" s="145"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="135"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="135"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="135"/>
-      <c r="W27" s="135"/>
-      <c r="X27" s="135"/>
-      <c r="Y27" s="135"/>
-      <c r="Z27" s="135"/>
-      <c r="AA27" s="135"/>
-      <c r="AB27" s="136"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="129"/>
-      <c r="AE27" s="130"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="168"/>
+      <c r="K27" s="169"/>
+      <c r="L27" s="169"/>
+      <c r="M27" s="169"/>
+      <c r="N27" s="169"/>
+      <c r="O27" s="169"/>
+      <c r="P27" s="169"/>
+      <c r="Q27" s="169"/>
+      <c r="R27" s="169"/>
+      <c r="S27" s="169"/>
+      <c r="T27" s="169"/>
+      <c r="U27" s="169"/>
+      <c r="V27" s="169"/>
+      <c r="W27" s="169"/>
+      <c r="X27" s="169"/>
+      <c r="Y27" s="169"/>
+      <c r="Z27" s="169"/>
+      <c r="AA27" s="169"/>
+      <c r="AB27" s="170"/>
+      <c r="AC27" s="144"/>
+      <c r="AD27" s="147"/>
+      <c r="AE27" s="145"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="135"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="135"/>
-      <c r="AB28" s="136"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="129"/>
-      <c r="AE28" s="130"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="168"/>
+      <c r="K28" s="169"/>
+      <c r="L28" s="169"/>
+      <c r="M28" s="169"/>
+      <c r="N28" s="169"/>
+      <c r="O28" s="169"/>
+      <c r="P28" s="169"/>
+      <c r="Q28" s="169"/>
+      <c r="R28" s="169"/>
+      <c r="S28" s="169"/>
+      <c r="T28" s="169"/>
+      <c r="U28" s="169"/>
+      <c r="V28" s="169"/>
+      <c r="W28" s="169"/>
+      <c r="X28" s="169"/>
+      <c r="Y28" s="169"/>
+      <c r="Z28" s="169"/>
+      <c r="AA28" s="169"/>
+      <c r="AB28" s="170"/>
+      <c r="AC28" s="144"/>
+      <c r="AD28" s="147"/>
+      <c r="AE28" s="145"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="135"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="135"/>
-      <c r="W29" s="135"/>
-      <c r="X29" s="135"/>
-      <c r="Y29" s="135"/>
-      <c r="Z29" s="135"/>
-      <c r="AA29" s="135"/>
-      <c r="AB29" s="136"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="129"/>
-      <c r="AE29" s="130"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="168"/>
+      <c r="K29" s="169"/>
+      <c r="L29" s="169"/>
+      <c r="M29" s="169"/>
+      <c r="N29" s="169"/>
+      <c r="O29" s="169"/>
+      <c r="P29" s="169"/>
+      <c r="Q29" s="169"/>
+      <c r="R29" s="169"/>
+      <c r="S29" s="169"/>
+      <c r="T29" s="169"/>
+      <c r="U29" s="169"/>
+      <c r="V29" s="169"/>
+      <c r="W29" s="169"/>
+      <c r="X29" s="169"/>
+      <c r="Y29" s="169"/>
+      <c r="Z29" s="169"/>
+      <c r="AA29" s="169"/>
+      <c r="AB29" s="170"/>
+      <c r="AC29" s="144"/>
+      <c r="AD29" s="147"/>
+      <c r="AE29" s="145"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="135"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
-      <c r="N30" s="135"/>
-      <c r="O30" s="135"/>
-      <c r="P30" s="135"/>
-      <c r="Q30" s="135"/>
-      <c r="R30" s="135"/>
-      <c r="S30" s="135"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="135"/>
-      <c r="V30" s="135"/>
-      <c r="W30" s="135"/>
-      <c r="X30" s="135"/>
-      <c r="Y30" s="135"/>
-      <c r="Z30" s="135"/>
-      <c r="AA30" s="135"/>
-      <c r="AB30" s="136"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="129"/>
-      <c r="AE30" s="130"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="169"/>
+      <c r="L30" s="169"/>
+      <c r="M30" s="169"/>
+      <c r="N30" s="169"/>
+      <c r="O30" s="169"/>
+      <c r="P30" s="169"/>
+      <c r="Q30" s="169"/>
+      <c r="R30" s="169"/>
+      <c r="S30" s="169"/>
+      <c r="T30" s="169"/>
+      <c r="U30" s="169"/>
+      <c r="V30" s="169"/>
+      <c r="W30" s="169"/>
+      <c r="X30" s="169"/>
+      <c r="Y30" s="169"/>
+      <c r="Z30" s="169"/>
+      <c r="AA30" s="169"/>
+      <c r="AB30" s="170"/>
+      <c r="AC30" s="144"/>
+      <c r="AD30" s="147"/>
+      <c r="AE30" s="145"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
-      <c r="N31" s="135"/>
-      <c r="O31" s="135"/>
-      <c r="P31" s="135"/>
-      <c r="Q31" s="135"/>
-      <c r="R31" s="135"/>
-      <c r="S31" s="135"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="135"/>
-      <c r="V31" s="135"/>
-      <c r="W31" s="135"/>
-      <c r="X31" s="135"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="135"/>
-      <c r="AA31" s="135"/>
-      <c r="AB31" s="136"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="129"/>
-      <c r="AE31" s="130"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="169"/>
+      <c r="L31" s="169"/>
+      <c r="M31" s="169"/>
+      <c r="N31" s="169"/>
+      <c r="O31" s="169"/>
+      <c r="P31" s="169"/>
+      <c r="Q31" s="169"/>
+      <c r="R31" s="169"/>
+      <c r="S31" s="169"/>
+      <c r="T31" s="169"/>
+      <c r="U31" s="169"/>
+      <c r="V31" s="169"/>
+      <c r="W31" s="169"/>
+      <c r="X31" s="169"/>
+      <c r="Y31" s="169"/>
+      <c r="Z31" s="169"/>
+      <c r="AA31" s="169"/>
+      <c r="AB31" s="170"/>
+      <c r="AC31" s="144"/>
+      <c r="AD31" s="147"/>
+      <c r="AE31" s="145"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
-      <c r="N32" s="135"/>
-      <c r="O32" s="135"/>
-      <c r="P32" s="135"/>
-      <c r="Q32" s="135"/>
-      <c r="R32" s="135"/>
-      <c r="S32" s="135"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="135"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="135"/>
-      <c r="AA32" s="135"/>
-      <c r="AB32" s="136"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="129"/>
-      <c r="AE32" s="130"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="168"/>
+      <c r="K32" s="169"/>
+      <c r="L32" s="169"/>
+      <c r="M32" s="169"/>
+      <c r="N32" s="169"/>
+      <c r="O32" s="169"/>
+      <c r="P32" s="169"/>
+      <c r="Q32" s="169"/>
+      <c r="R32" s="169"/>
+      <c r="S32" s="169"/>
+      <c r="T32" s="169"/>
+      <c r="U32" s="169"/>
+      <c r="V32" s="169"/>
+      <c r="W32" s="169"/>
+      <c r="X32" s="169"/>
+      <c r="Y32" s="169"/>
+      <c r="Z32" s="169"/>
+      <c r="AA32" s="169"/>
+      <c r="AB32" s="170"/>
+      <c r="AC32" s="144"/>
+      <c r="AD32" s="147"/>
+      <c r="AE32" s="145"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="135"/>
-      <c r="N33" s="135"/>
-      <c r="O33" s="135"/>
-      <c r="P33" s="135"/>
-      <c r="Q33" s="135"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="135"/>
-      <c r="T33" s="135"/>
-      <c r="U33" s="135"/>
-      <c r="V33" s="135"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="135"/>
-      <c r="Y33" s="135"/>
-      <c r="Z33" s="135"/>
-      <c r="AA33" s="135"/>
-      <c r="AB33" s="136"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="129"/>
-      <c r="AE33" s="130"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="168"/>
+      <c r="K33" s="169"/>
+      <c r="L33" s="169"/>
+      <c r="M33" s="169"/>
+      <c r="N33" s="169"/>
+      <c r="O33" s="169"/>
+      <c r="P33" s="169"/>
+      <c r="Q33" s="169"/>
+      <c r="R33" s="169"/>
+      <c r="S33" s="169"/>
+      <c r="T33" s="169"/>
+      <c r="U33" s="169"/>
+      <c r="V33" s="169"/>
+      <c r="W33" s="169"/>
+      <c r="X33" s="169"/>
+      <c r="Y33" s="169"/>
+      <c r="Z33" s="169"/>
+      <c r="AA33" s="169"/>
+      <c r="AB33" s="170"/>
+      <c r="AC33" s="144"/>
+      <c r="AD33" s="147"/>
+      <c r="AE33" s="145"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4486,6 +4502,51 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -4497,51 +4558,6 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -4565,8 +4581,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A21" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11"/>
@@ -4591,10 +4607,10 @@
       <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="178"/>
+      <c r="B2" s="172"/>
       <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
@@ -4605,10 +4621,10 @@
       <c r="F2" s="91"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="178"/>
+      <c r="B3" s="172"/>
       <c r="C3" s="30" t="s">
         <v>23</v>
       </c>
@@ -4619,10 +4635,10 @@
       <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="178"/>
+      <c r="B4" s="172"/>
       <c r="C4" s="30" t="s">
         <v>26</v>
       </c>
@@ -4633,10 +4649,10 @@
       <c r="F4" s="91"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="178"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="30"/>
       <c r="D5" s="31"/>
       <c r="E5" s="32" t="s">
@@ -4645,10 +4661,10 @@
       <c r="F5" s="91"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="177" t="s">
+      <c r="A6" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="178"/>
+      <c r="B6" s="172"/>
       <c r="C6" s="30" t="s">
         <v>30</v>
       </c>
@@ -4689,10 +4705,10 @@
       <c r="D9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="175" t="s">
+      <c r="E9" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="176"/>
+      <c r="F9" s="178"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="59">
@@ -4705,94 +4721,102 @@
         <v>39</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="171"/>
-      <c r="F10" s="172"/>
+        <v>139</v>
+      </c>
+      <c r="E10" s="173" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="174"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="59">
         <v>2</v>
       </c>
       <c r="B11" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="60" t="s">
-        <v>42</v>
-      </c>
       <c r="D11" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="171"/>
-      <c r="F11" s="172"/>
+        <v>138</v>
+      </c>
+      <c r="E11" s="173" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="174"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="59">
         <v>3</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="171"/>
-      <c r="F12" s="172"/>
+        <v>138</v>
+      </c>
+      <c r="E12" s="173" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="174"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="59">
         <v>4</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="171"/>
-      <c r="F13" s="172"/>
+        <v>139</v>
+      </c>
+      <c r="E13" s="173" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="174"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="59"/>
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="172"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="174"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="174"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="176"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="174"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="176"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="174"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="176"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -5030,11 +5054,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -5044,6 +5063,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5064,7 +5088,7 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -5080,7 +5104,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14">
       <c r="A1" s="109" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -5118,7 +5142,7 @@
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="122" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="43" t="s">
@@ -5136,7 +5160,7 @@
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="121" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="41"/>
@@ -5158,17 +5182,17 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="183"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="209"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
@@ -5176,57 +5200,57 @@
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="124" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="181" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="183"/>
+      <c r="C8" s="207" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="209"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="46"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="183"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="208"/>
+      <c r="E9" s="208"/>
+      <c r="F9" s="208"/>
+      <c r="G9" s="208"/>
+      <c r="H9" s="209"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="193" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="D10" s="210"/>
+      <c r="E10" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="F10" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="185"/>
-      <c r="E10" s="48" t="s">
+      <c r="G10" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="H10" s="49" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -5234,21 +5258,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="186" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="187"/>
+        <v>81</v>
+      </c>
+      <c r="C11" s="211" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="212"/>
       <c r="E11" s="63" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="65" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -5256,17 +5280,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="179" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="180"/>
+        <v>89</v>
+      </c>
+      <c r="C12" s="203" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="204"/>
       <c r="E12" s="68" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G12" s="69"/>
       <c r="H12" s="70"/>
@@ -5276,17 +5300,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="180"/>
+        <v>90</v>
+      </c>
+      <c r="C13" s="203" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="204"/>
       <c r="E13" s="68" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G13" s="69"/>
       <c r="H13" s="70"/>
@@ -5296,17 +5320,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="179" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="180"/>
+        <v>91</v>
+      </c>
+      <c r="C14" s="203" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="204"/>
       <c r="E14" s="68" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F14" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G14" s="74"/>
       <c r="H14" s="75"/>
@@ -5316,17 +5340,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="179" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="180"/>
+        <v>92</v>
+      </c>
+      <c r="C15" s="203" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="204"/>
       <c r="E15" s="68" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G15" s="74"/>
       <c r="H15" s="75"/>
@@ -5336,17 +5360,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="179" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="203" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="204"/>
+      <c r="E16" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="63" t="s">
         <v>101</v>
-      </c>
-      <c r="D16" s="180"/>
-      <c r="E16" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>104</v>
       </c>
       <c r="G16" s="74"/>
       <c r="H16" s="75"/>
@@ -5356,17 +5380,17 @@
         <v>7</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="179" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="180"/>
+        <v>94</v>
+      </c>
+      <c r="C17" s="203" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="204"/>
       <c r="E17" s="68" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F17" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G17" s="74"/>
       <c r="H17" s="75"/>
@@ -5376,8 +5400,8 @@
         <v>8</v>
       </c>
       <c r="B18" s="72"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="180"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="204"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -5386,8 +5410,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="180"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="204"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -5396,8 +5420,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="180"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="204"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -5406,8 +5430,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="180"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="204"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -5416,8 +5440,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="180"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="204"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -5426,8 +5450,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="180"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="204"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -5436,8 +5460,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="180"/>
+      <c r="C24" s="203"/>
+      <c r="D24" s="204"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -5446,8 +5470,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="180"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="204"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -5456,8 +5480,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="180"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="204"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -5466,8 +5490,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="180"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="204"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -5476,8 +5500,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="180"/>
+      <c r="C28" s="203"/>
+      <c r="D28" s="204"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -5486,8 +5510,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="180"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="204"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -5496,8 +5520,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="194"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="184"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -5515,7 +5539,7 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="52"/>
@@ -5527,71 +5551,71 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="195" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="196"/>
+        <v>55</v>
+      </c>
+      <c r="B33" s="190" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="192"/>
       <c r="D33" s="54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="56"/>
       <c r="G33" s="57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H33" s="58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="197"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="201"/>
+      <c r="B34" s="205"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="197"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="192"/>
+      <c r="B35" s="198"/>
+      <c r="C35" s="199"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="181"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="191"/>
-      <c r="F36" s="192"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="181"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="190"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="192"/>
+      <c r="B37" s="198"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="181"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="193"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="194"/>
+      <c r="B38" s="200"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="182"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="184"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -5607,7 +5631,7 @@
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="52"/>
@@ -5619,72 +5643,72 @@
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="191"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="190" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="202"/>
+      <c r="H41" s="58" t="s">
         <v>69</v>
-      </c>
-      <c r="C41" s="195" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="205"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="195" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="206"/>
-      <c r="H41" s="58" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="199"/>
-      <c r="D42" s="200"/>
-      <c r="E42" s="201"/>
-      <c r="F42" s="199"/>
-      <c r="G42" s="201"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="197"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="190"/>
-      <c r="G43" s="192"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="181"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="181"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="191"/>
-      <c r="E44" s="192"/>
-      <c r="F44" s="190"/>
-      <c r="G44" s="192"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="180"/>
+      <c r="E44" s="181"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="181"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="192"/>
-      <c r="F45" s="190"/>
-      <c r="G45" s="192"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="180"/>
+      <c r="E45" s="181"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="181"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="204"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="207"/>
-      <c r="G46" s="208"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="184"/>
+      <c r="F46" s="185"/>
+      <c r="G46" s="186"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -5699,7 +5723,7 @@
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B48" s="46"/>
       <c r="C48" s="52"/>
@@ -5711,104 +5735,94 @@
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="195" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="205"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="184" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="209"/>
+        <v>67</v>
+      </c>
+      <c r="C49" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="191"/>
+      <c r="E49" s="192"/>
+      <c r="F49" s="193" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" s="194"/>
       <c r="H49" s="49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="210"/>
-      <c r="D50" s="211"/>
-      <c r="E50" s="212"/>
-      <c r="F50" s="210"/>
-      <c r="G50" s="212"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="188"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="189"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="190"/>
-      <c r="D51" s="191"/>
-      <c r="E51" s="192"/>
-      <c r="F51" s="190"/>
-      <c r="G51" s="192"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="180"/>
+      <c r="E51" s="181"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="181"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="190"/>
-      <c r="D52" s="191"/>
-      <c r="E52" s="192"/>
-      <c r="F52" s="190"/>
-      <c r="G52" s="192"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="180"/>
+      <c r="E52" s="181"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="181"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="190"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="192"/>
-      <c r="F53" s="190"/>
-      <c r="G53" s="192"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="180"/>
+      <c r="E53" s="181"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="181"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="193"/>
-      <c r="D54" s="204"/>
-      <c r="E54" s="194"/>
-      <c r="F54" s="207"/>
-      <c r="G54" s="208"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="183"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="185"/>
+      <c r="G54" s="186"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -5822,24 +5836,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5854,7 +5878,7 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
@@ -5870,7 +5894,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14">
       <c r="A1" s="109" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -5893,7 +5917,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>24</v>
@@ -5908,7 +5932,7 @@
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="43" t="s">
@@ -5948,11 +5972,11 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
@@ -5965,32 +5989,32 @@
         <v>35</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="181" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="183"/>
+      <c r="C7" s="207" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="209"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="181" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="183"/>
+      <c r="C8" s="207" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="209"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -6002,26 +6026,26 @@
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="193" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="D10" s="210"/>
+      <c r="E10" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="F10" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="185"/>
-      <c r="E10" s="48" t="s">
+      <c r="G10" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="H10" s="49" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -6029,17 +6053,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="186" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="187"/>
+        <v>83</v>
+      </c>
+      <c r="C11" s="211" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="212"/>
       <c r="E11" s="63" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="65"/>
@@ -6049,21 +6073,21 @@
         <v>2</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="179" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="180"/>
+        <v>115</v>
+      </c>
+      <c r="C12" s="203" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="204"/>
       <c r="E12" s="68" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F12" s="68" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G12" s="69"/>
       <c r="H12" s="70" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -6071,28 +6095,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="203" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="204"/>
+      <c r="E13" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="179" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="180"/>
-      <c r="E13" s="68" t="s">
-        <v>132</v>
-      </c>
       <c r="F13" s="68" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G13" s="69"/>
       <c r="H13" s="70" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="180"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="204"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -6101,8 +6125,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="180"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="204"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -6111,8 +6135,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="180"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="204"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -6121,8 +6145,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="180"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="204"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -6131,8 +6155,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="180"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="204"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -6141,8 +6165,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="180"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="204"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -6151,8 +6175,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="180"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="204"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -6161,8 +6185,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="180"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="204"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -6171,8 +6195,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="180"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="204"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -6181,8 +6205,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="180"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="204"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -6191,8 +6215,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="180"/>
+      <c r="C24" s="203"/>
+      <c r="D24" s="204"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -6201,8 +6225,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="180"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="204"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -6211,8 +6235,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="180"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="204"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -6221,8 +6245,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="180"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="204"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -6231,8 +6255,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="180"/>
+      <c r="C28" s="203"/>
+      <c r="D28" s="204"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -6241,8 +6265,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="180"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="204"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -6251,8 +6275,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="194"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="184"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -6270,7 +6294,7 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="52"/>
@@ -6282,71 +6306,71 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="195" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="196"/>
+        <v>55</v>
+      </c>
+      <c r="B33" s="190" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="192"/>
       <c r="D33" s="54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="56"/>
       <c r="G33" s="57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H33" s="58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="197"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="201"/>
+      <c r="B34" s="205"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="197"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="192"/>
+      <c r="B35" s="198"/>
+      <c r="C35" s="199"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="181"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="191"/>
-      <c r="F36" s="192"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="181"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="190"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="192"/>
+      <c r="B37" s="198"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="181"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="193"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="194"/>
+      <c r="B38" s="200"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="182"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="184"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -6362,7 +6386,7 @@
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="52"/>
@@ -6374,22 +6398,22 @@
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="191"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="190" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="202"/>
+      <c r="H41" s="58" t="s">
         <v>69</v>
-      </c>
-      <c r="C41" s="195" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="205"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="195" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="206"/>
-      <c r="H41" s="58" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
@@ -6397,17 +6421,17 @@
         <v>1</v>
       </c>
       <c r="B42" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="210"/>
-      <c r="D42" s="211"/>
-      <c r="E42" s="212"/>
-      <c r="F42" s="210" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="187"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="212"/>
+      <c r="G42" s="189"/>
       <c r="H42" s="96" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -6415,47 +6439,47 @@
         <v>2</v>
       </c>
       <c r="B43" s="126" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C43" s="213"/>
       <c r="D43" s="214"/>
       <c r="E43" s="215"/>
       <c r="F43" s="213" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G43" s="215"/>
       <c r="H43" s="127" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="191"/>
-      <c r="E44" s="192"/>
-      <c r="F44" s="190"/>
-      <c r="G44" s="192"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="180"/>
+      <c r="E44" s="181"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="181"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="192"/>
-      <c r="F45" s="190"/>
-      <c r="G45" s="192"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="180"/>
+      <c r="E45" s="181"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="181"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="204"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="207"/>
-      <c r="G46" s="208"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="184"/>
+      <c r="F46" s="185"/>
+      <c r="G46" s="186"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -6470,7 +6494,7 @@
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B48" s="46"/>
       <c r="C48" s="52"/>
@@ -6482,104 +6506,93 @@
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="195" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="205"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="184" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="209"/>
+        <v>67</v>
+      </c>
+      <c r="C49" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="191"/>
+      <c r="E49" s="192"/>
+      <c r="F49" s="193" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" s="194"/>
       <c r="H49" s="49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="210"/>
-      <c r="D50" s="211"/>
-      <c r="E50" s="212"/>
-      <c r="F50" s="210"/>
-      <c r="G50" s="212"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="188"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="189"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="190"/>
-      <c r="D51" s="191"/>
-      <c r="E51" s="192"/>
-      <c r="F51" s="190"/>
-      <c r="G51" s="192"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="180"/>
+      <c r="E51" s="181"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="181"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="190"/>
-      <c r="D52" s="191"/>
-      <c r="E52" s="192"/>
-      <c r="F52" s="190"/>
-      <c r="G52" s="192"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="180"/>
+      <c r="E52" s="181"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="181"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="190"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="192"/>
-      <c r="F53" s="190"/>
-      <c r="G53" s="192"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="180"/>
+      <c r="E53" s="181"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="181"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="193"/>
-      <c r="D54" s="204"/>
-      <c r="E54" s="194"/>
-      <c r="F54" s="207"/>
-      <c r="G54" s="208"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="183"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="185"/>
+      <c r="G54" s="186"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -6593,23 +6606,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6624,8 +6648,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
@@ -6640,7 +6664,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14">
       <c r="A1" s="109" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -6676,7 +6700,7 @@
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="43" t="s">
@@ -6716,49 +6740,49 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="181" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="183"/>
+      <c r="C6" s="207" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="209"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="181" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="183"/>
+      <c r="C7" s="207" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="209"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="181" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="183"/>
+      <c r="C8" s="207" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="209"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -6770,26 +6794,26 @@
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="193" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="D10" s="210"/>
+      <c r="E10" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="F10" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="185"/>
-      <c r="E10" s="48" t="s">
+      <c r="G10" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="H10" s="49" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -6797,21 +6821,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="186" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="187"/>
+        <v>84</v>
+      </c>
+      <c r="C11" s="211" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="212"/>
       <c r="E11" s="63" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="65" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -6819,17 +6843,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="179" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="180"/>
+        <v>106</v>
+      </c>
+      <c r="C12" s="203" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="204"/>
       <c r="E12" s="68" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G12" s="69"/>
       <c r="H12" s="70"/>
@@ -6839,17 +6863,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="179" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="180"/>
+        <v>107</v>
+      </c>
+      <c r="C13" s="203" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="204"/>
       <c r="E13" s="68" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G13" s="69"/>
       <c r="H13" s="70"/>
@@ -6857,8 +6881,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="180"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="204"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -6867,8 +6891,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="180"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="204"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -6877,8 +6901,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="180"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="204"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -6887,8 +6911,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="180"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="204"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -6897,8 +6921,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="180"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="204"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -6907,8 +6931,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="180"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="204"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -6917,8 +6941,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="180"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="204"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -6927,8 +6951,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="180"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="204"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -6937,8 +6961,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="180"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="204"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -6947,8 +6971,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="180"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="204"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -6957,8 +6981,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="180"/>
+      <c r="C24" s="203"/>
+      <c r="D24" s="204"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -6967,8 +6991,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="180"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="204"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -6977,8 +7001,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="180"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="204"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -6987,8 +7011,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="180"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="204"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -6997,8 +7021,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="180"/>
+      <c r="C28" s="203"/>
+      <c r="D28" s="204"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -7007,8 +7031,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="180"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="204"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -7017,8 +7041,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="194"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="184"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -7036,7 +7060,7 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="52"/>
@@ -7048,71 +7072,71 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="195" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="196"/>
+        <v>55</v>
+      </c>
+      <c r="B33" s="190" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="192"/>
       <c r="D33" s="54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="56"/>
       <c r="G33" s="57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H33" s="58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="197"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="201"/>
+      <c r="B34" s="205"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="197"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="192"/>
+      <c r="B35" s="198"/>
+      <c r="C35" s="199"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="181"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="191"/>
-      <c r="F36" s="192"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="181"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="190"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="192"/>
+      <c r="B37" s="198"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="181"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="193"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="194"/>
+      <c r="B38" s="200"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="182"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="184"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -7128,7 +7152,7 @@
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="52"/>
@@ -7140,72 +7164,72 @@
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="191"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="190" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="202"/>
+      <c r="H41" s="58" t="s">
         <v>69</v>
-      </c>
-      <c r="C41" s="195" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="205"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="195" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="206"/>
-      <c r="H41" s="58" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="199"/>
-      <c r="D42" s="200"/>
-      <c r="E42" s="201"/>
-      <c r="F42" s="199"/>
-      <c r="G42" s="201"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="197"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="190"/>
-      <c r="G43" s="192"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="181"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="181"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="191"/>
-      <c r="E44" s="192"/>
-      <c r="F44" s="190"/>
-      <c r="G44" s="192"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="180"/>
+      <c r="E44" s="181"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="181"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="192"/>
-      <c r="F45" s="190"/>
-      <c r="G45" s="192"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="180"/>
+      <c r="E45" s="181"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="181"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="204"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="207"/>
-      <c r="G46" s="208"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="184"/>
+      <c r="F46" s="185"/>
+      <c r="G46" s="186"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7220,7 +7244,7 @@
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B48" s="46"/>
       <c r="C48" s="52"/>
@@ -7232,104 +7256,94 @@
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="195" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="205"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="184" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="209"/>
+        <v>67</v>
+      </c>
+      <c r="C49" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="191"/>
+      <c r="E49" s="192"/>
+      <c r="F49" s="193" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" s="194"/>
       <c r="H49" s="49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="210"/>
-      <c r="D50" s="211"/>
-      <c r="E50" s="212"/>
-      <c r="F50" s="210"/>
-      <c r="G50" s="212"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="188"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="189"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="190"/>
-      <c r="D51" s="191"/>
-      <c r="E51" s="192"/>
-      <c r="F51" s="190"/>
-      <c r="G51" s="192"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="180"/>
+      <c r="E51" s="181"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="181"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="190"/>
-      <c r="D52" s="191"/>
-      <c r="E52" s="192"/>
-      <c r="F52" s="190"/>
-      <c r="G52" s="192"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="180"/>
+      <c r="E52" s="181"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="181"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="190"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="192"/>
-      <c r="F53" s="190"/>
-      <c r="G53" s="192"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="180"/>
+      <c r="E53" s="181"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="181"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="193"/>
-      <c r="D54" s="204"/>
-      <c r="E54" s="194"/>
-      <c r="F54" s="207"/>
-      <c r="G54" s="208"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="183"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="185"/>
+      <c r="G54" s="186"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -7343,24 +7357,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7376,7 +7400,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
@@ -7391,7 +7415,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14">
       <c r="A1" s="109" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -7414,7 +7438,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>24</v>
@@ -7429,7 +7453,7 @@
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="43" t="s">
@@ -7469,49 +7493,49 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="181" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="183"/>
+      <c r="C6" s="207" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="209"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="181" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="183"/>
+      <c r="C7" s="207" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="209"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="181" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="183"/>
+      <c r="C8" s="207" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="209"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -7523,26 +7547,26 @@
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="193" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="D10" s="210"/>
+      <c r="E10" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="F10" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="185"/>
-      <c r="E10" s="48" t="s">
+      <c r="G10" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="H10" s="49" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -7550,21 +7574,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="186" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="187"/>
+        <v>86</v>
+      </c>
+      <c r="C11" s="211" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="212"/>
       <c r="E11" s="63" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="65" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -7572,17 +7596,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="179" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="180"/>
+        <v>109</v>
+      </c>
+      <c r="C12" s="203" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="204"/>
       <c r="E12" s="68" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G12" s="69"/>
       <c r="H12" s="70"/>
@@ -7592,17 +7616,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="179" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="180"/>
+        <v>110</v>
+      </c>
+      <c r="C13" s="203" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="204"/>
       <c r="E13" s="68" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G13" s="69"/>
       <c r="H13" s="70"/>
@@ -7612,17 +7636,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="179" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="180"/>
+        <v>111</v>
+      </c>
+      <c r="C14" s="203" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="204"/>
       <c r="E14" s="73" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F14" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G14" s="74"/>
       <c r="H14" s="75"/>
@@ -7632,17 +7656,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="179" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="180"/>
+        <v>112</v>
+      </c>
+      <c r="C15" s="203" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="204"/>
       <c r="E15" s="73" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G15" s="74"/>
       <c r="H15" s="75"/>
@@ -7650,8 +7674,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="180"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="204"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -7660,8 +7684,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="180"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="204"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -7670,8 +7694,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="180"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="204"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -7680,8 +7704,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="180"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="204"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -7690,8 +7714,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="180"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="204"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -7700,8 +7724,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="180"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="204"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -7710,8 +7734,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="180"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="204"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -7720,8 +7744,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="180"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="204"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -7730,8 +7754,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="180"/>
+      <c r="C24" s="203"/>
+      <c r="D24" s="204"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -7740,8 +7764,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="180"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="204"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -7750,8 +7774,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="180"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="204"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -7760,8 +7784,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="180"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="204"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -7770,8 +7794,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="180"/>
+      <c r="C28" s="203"/>
+      <c r="D28" s="204"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -7780,8 +7804,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="180"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="204"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -7790,8 +7814,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="194"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="184"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -7809,7 +7833,7 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="52"/>
@@ -7821,71 +7845,71 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="195" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="196"/>
+        <v>55</v>
+      </c>
+      <c r="B33" s="190" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="192"/>
       <c r="D33" s="54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="56"/>
       <c r="G33" s="57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H33" s="58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="197"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="201"/>
+      <c r="B34" s="205"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="197"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="192"/>
+      <c r="B35" s="198"/>
+      <c r="C35" s="199"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="181"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="191"/>
-      <c r="F36" s="192"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="181"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="190"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="192"/>
+      <c r="B37" s="198"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="181"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="193"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="194"/>
+      <c r="B38" s="200"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="182"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="184"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -7901,7 +7925,7 @@
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="52"/>
@@ -7913,72 +7937,72 @@
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="191"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="190" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="202"/>
+      <c r="H41" s="58" t="s">
         <v>69</v>
-      </c>
-      <c r="C41" s="195" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="205"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="195" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="206"/>
-      <c r="H41" s="58" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="199"/>
-      <c r="D42" s="200"/>
-      <c r="E42" s="201"/>
-      <c r="F42" s="199"/>
-      <c r="G42" s="201"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="197"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="190"/>
-      <c r="G43" s="192"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="181"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="181"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="191"/>
-      <c r="E44" s="192"/>
-      <c r="F44" s="190"/>
-      <c r="G44" s="192"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="180"/>
+      <c r="E44" s="181"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="181"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="192"/>
-      <c r="F45" s="190"/>
-      <c r="G45" s="192"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="180"/>
+      <c r="E45" s="181"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="181"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="204"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="207"/>
-      <c r="G46" s="208"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="184"/>
+      <c r="F46" s="185"/>
+      <c r="G46" s="186"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7993,7 +8017,7 @@
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B48" s="46"/>
       <c r="C48" s="52"/>
@@ -8005,92 +8029,103 @@
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="195" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="205"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="184" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="209"/>
+        <v>67</v>
+      </c>
+      <c r="C49" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="191"/>
+      <c r="E49" s="192"/>
+      <c r="F49" s="193" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" s="194"/>
       <c r="H49" s="49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="210"/>
-      <c r="D50" s="211"/>
-      <c r="E50" s="212"/>
-      <c r="F50" s="210"/>
-      <c r="G50" s="212"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="188"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="189"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="190"/>
-      <c r="D51" s="191"/>
-      <c r="E51" s="192"/>
-      <c r="F51" s="190"/>
-      <c r="G51" s="192"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="180"/>
+      <c r="E51" s="181"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="181"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="190"/>
-      <c r="D52" s="191"/>
-      <c r="E52" s="192"/>
-      <c r="F52" s="190"/>
-      <c r="G52" s="192"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="180"/>
+      <c r="E52" s="181"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="181"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="190"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="192"/>
-      <c r="F53" s="190"/>
-      <c r="G53" s="192"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="180"/>
+      <c r="E53" s="181"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="181"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="193"/>
-      <c r="D54" s="204"/>
-      <c r="E54" s="194"/>
-      <c r="F54" s="207"/>
-      <c r="G54" s="208"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="183"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="185"/>
+      <c r="G54" s="186"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
@@ -8107,33 +8142,22 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8153,7 +8177,7 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:F17"/>
     </sheetView>
   </sheetViews>
@@ -8166,7 +8190,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -8185,41 +8209,41 @@
       <c r="A2" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="218" t="s">
+      <c r="B2" s="221" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="225"/>
       <c r="D2" s="225"/>
       <c r="E2" s="225"/>
       <c r="F2" s="225"/>
-      <c r="G2" s="217"/>
+      <c r="G2" s="220"/>
       <c r="H2" s="32" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="116" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J2" s="116"/>
       <c r="K2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="216">
+      <c r="L2" s="219">
         <v>45061</v>
       </c>
-      <c r="M2" s="217"/>
+      <c r="M2" s="220"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1">
       <c r="A3" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="221" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="225"/>
       <c r="E3" s="225"/>
       <c r="F3" s="225"/>
-      <c r="G3" s="217"/>
+      <c r="G3" s="220"/>
       <c r="H3" s="32" t="s">
         <v>28</v>
       </c>
@@ -8228,8 +8252,8 @@
       <c r="K3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="218"/>
-      <c r="M3" s="217"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="220"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1">
       <c r="A4" s="115" t="s">
@@ -8237,7 +8261,7 @@
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="226" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D4" s="226"/>
       <c r="E4" s="226"/>
@@ -8249,15 +8273,15 @@
       <c r="K4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="218"/>
-      <c r="M4" s="217"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="220"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1">
       <c r="A5" s="118" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="228" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C5" s="226"/>
       <c r="D5" s="226"/>
@@ -8273,10 +8297,10 @@
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1">
       <c r="A6" s="119" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="228" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C6" s="226"/>
       <c r="D6" s="226"/>
@@ -8297,14 +8321,14 @@
     <row r="8" spans="1:13" ht="21.75" customHeight="1">
       <c r="A8" s="97"/>
       <c r="F8" s="98"/>
-      <c r="G8" s="219" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="220"/>
-      <c r="I8" s="220"/>
-      <c r="J8" s="220"/>
-      <c r="K8" s="220"/>
-      <c r="L8" s="221"/>
+      <c r="G8" s="222" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="223"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="223"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="224"/>
       <c r="M8" s="98"/>
     </row>
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
@@ -8318,13 +8342,13 @@
         <v>38</v>
       </c>
       <c r="H9" s="102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="102" t="s">
         <v>44</v>
-      </c>
-      <c r="J9" s="102" t="s">
-        <v>46</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="102"/>
@@ -8333,25 +8357,25 @@
     <row r="10" spans="1:13" ht="22.5" customHeight="1">
       <c r="A10" s="97"/>
       <c r="B10" s="229" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="222" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="224"/>
+        <v>80</v>
+      </c>
+      <c r="C10" s="216" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="218"/>
       <c r="G10" s="102" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H10" s="102" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I10" s="102" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J10" s="102" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K10" s="102"/>
       <c r="L10" s="102"/>
@@ -8360,23 +8384,23 @@
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="97"/>
       <c r="B11" s="230"/>
-      <c r="C11" s="222" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="224"/>
+      <c r="C11" s="216" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="218"/>
       <c r="G11" s="102" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H11" s="102" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I11" s="102" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J11" s="102" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K11" s="102"/>
       <c r="L11" s="102"/>
@@ -8385,23 +8409,23 @@
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="97"/>
       <c r="B12" s="230"/>
-      <c r="C12" s="222" t="s">
+      <c r="C12" s="216" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="217"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="218"/>
+      <c r="G12" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="102" t="s">
         <v>134</v>
-      </c>
-      <c r="D12" s="223"/>
-      <c r="E12" s="223"/>
-      <c r="F12" s="224"/>
-      <c r="G12" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="I12" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="J12" s="102" t="s">
-        <v>144</v>
       </c>
       <c r="K12" s="102"/>
       <c r="L12" s="102"/>
@@ -8410,23 +8434,23 @@
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="97"/>
       <c r="B13" s="230"/>
-      <c r="C13" s="222" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="223"/>
-      <c r="E13" s="223"/>
-      <c r="F13" s="224"/>
+      <c r="C13" s="216" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="217"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="218"/>
       <c r="G13" s="102" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H13" s="102" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I13" s="102" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J13" s="102" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K13" s="102"/>
       <c r="L13" s="102"/>
@@ -8435,23 +8459,23 @@
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="97"/>
       <c r="B14" s="230"/>
-      <c r="C14" s="222" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="223"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="224"/>
+      <c r="C14" s="216" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="217"/>
+      <c r="E14" s="217"/>
+      <c r="F14" s="218"/>
       <c r="G14" s="102" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H14" s="102" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I14" s="102" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J14" s="102" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K14" s="102"/>
       <c r="L14" s="102"/>
@@ -8460,23 +8484,23 @@
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="97"/>
       <c r="B15" s="230"/>
-      <c r="C15" s="222" t="s">
+      <c r="C15" s="216" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="223"/>
-      <c r="E15" s="223"/>
-      <c r="F15" s="224"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="218"/>
       <c r="G15" s="102" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H15" s="102" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I15" s="102" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J15" s="102" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K15" s="102"/>
       <c r="L15" s="102"/>
@@ -8485,10 +8509,10 @@
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="97"/>
       <c r="B16" s="230"/>
-      <c r="C16" s="222"/>
-      <c r="D16" s="223"/>
-      <c r="E16" s="223"/>
-      <c r="F16" s="224"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="217"/>
+      <c r="F16" s="218"/>
       <c r="G16" s="102"/>
       <c r="H16" s="102"/>
       <c r="I16" s="102"/>
@@ -8500,10 +8524,10 @@
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="97"/>
       <c r="B17" s="230"/>
-      <c r="C17" s="222"/>
-      <c r="D17" s="223"/>
-      <c r="E17" s="223"/>
-      <c r="F17" s="224"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="217"/>
+      <c r="F17" s="218"/>
       <c r="G17" s="102"/>
       <c r="H17" s="102"/>
       <c r="I17" s="102"/>
@@ -8515,10 +8539,10 @@
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="97"/>
       <c r="B18" s="230"/>
-      <c r="C18" s="222"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="224"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="217"/>
+      <c r="F18" s="218"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
       <c r="I18" s="102"/>
@@ -8530,10 +8554,10 @@
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="97"/>
       <c r="B19" s="230"/>
-      <c r="C19" s="222"/>
-      <c r="D19" s="223"/>
-      <c r="E19" s="223"/>
-      <c r="F19" s="224"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="217"/>
+      <c r="F19" s="218"/>
       <c r="G19" s="102"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
@@ -8545,10 +8569,10 @@
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="97"/>
       <c r="B20" s="230"/>
-      <c r="C20" s="222"/>
-      <c r="D20" s="223"/>
-      <c r="E20" s="223"/>
-      <c r="F20" s="224"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="217"/>
+      <c r="F20" s="218"/>
       <c r="G20" s="102"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
@@ -8560,10 +8584,10 @@
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="97"/>
       <c r="B21" s="230"/>
-      <c r="C21" s="222"/>
-      <c r="D21" s="223"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="224"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="217"/>
+      <c r="F21" s="218"/>
       <c r="G21" s="102"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
@@ -8575,10 +8599,10 @@
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="97"/>
       <c r="B22" s="230"/>
-      <c r="C22" s="222"/>
-      <c r="D22" s="223"/>
-      <c r="E22" s="223"/>
-      <c r="F22" s="224"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="217"/>
+      <c r="E22" s="217"/>
+      <c r="F22" s="218"/>
       <c r="G22" s="102"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
@@ -8590,10 +8614,10 @@
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="97"/>
       <c r="B23" s="230"/>
-      <c r="C23" s="222"/>
-      <c r="D23" s="223"/>
-      <c r="E23" s="223"/>
-      <c r="F23" s="224"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="218"/>
       <c r="G23" s="102"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
@@ -8605,10 +8629,10 @@
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="97"/>
       <c r="B24" s="230"/>
-      <c r="C24" s="222"/>
-      <c r="D24" s="223"/>
-      <c r="E24" s="223"/>
-      <c r="F24" s="224"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="217"/>
+      <c r="F24" s="218"/>
       <c r="G24" s="102"/>
       <c r="H24" s="102"/>
       <c r="I24" s="102"/>
@@ -8620,10 +8644,10 @@
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="97"/>
       <c r="B25" s="230"/>
-      <c r="C25" s="222"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="223"/>
-      <c r="F25" s="224"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="217"/>
+      <c r="E25" s="217"/>
+      <c r="F25" s="218"/>
       <c r="G25" s="102"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
@@ -8635,10 +8659,10 @@
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="97"/>
       <c r="B26" s="230"/>
-      <c r="C26" s="222"/>
-      <c r="D26" s="223"/>
-      <c r="E26" s="223"/>
-      <c r="F26" s="224"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="217"/>
+      <c r="E26" s="217"/>
+      <c r="F26" s="218"/>
       <c r="G26" s="102"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
@@ -8650,10 +8674,10 @@
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="97"/>
       <c r="B27" s="230"/>
-      <c r="C27" s="222"/>
-      <c r="D27" s="223"/>
-      <c r="E27" s="223"/>
-      <c r="F27" s="224"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="217"/>
+      <c r="E27" s="217"/>
+      <c r="F27" s="218"/>
       <c r="G27" s="102"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
@@ -8665,10 +8689,10 @@
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="97"/>
       <c r="B28" s="230"/>
-      <c r="C28" s="222"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="224"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="217"/>
+      <c r="E28" s="217"/>
+      <c r="F28" s="218"/>
       <c r="G28" s="102"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
@@ -8680,10 +8704,10 @@
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="97"/>
       <c r="B29" s="230"/>
-      <c r="C29" s="222"/>
-      <c r="D29" s="223"/>
-      <c r="E29" s="223"/>
-      <c r="F29" s="224"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="217"/>
+      <c r="E29" s="217"/>
+      <c r="F29" s="218"/>
       <c r="G29" s="102"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
@@ -8695,10 +8719,10 @@
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="97"/>
       <c r="B30" s="230"/>
-      <c r="C30" s="222"/>
-      <c r="D30" s="223"/>
-      <c r="E30" s="223"/>
-      <c r="F30" s="224"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="217"/>
+      <c r="E30" s="217"/>
+      <c r="F30" s="218"/>
       <c r="G30" s="102"/>
       <c r="H30" s="102"/>
       <c r="I30" s="102"/>
@@ -8710,10 +8734,10 @@
     <row r="31" spans="1:13" ht="23.25" customHeight="1">
       <c r="A31" s="97"/>
       <c r="B31" s="230"/>
-      <c r="C31" s="222"/>
-      <c r="D31" s="223"/>
-      <c r="E31" s="223"/>
-      <c r="F31" s="224"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="217"/>
+      <c r="E31" s="217"/>
+      <c r="F31" s="218"/>
       <c r="G31" s="102"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
@@ -8725,10 +8749,10 @@
     <row r="32" spans="1:13" ht="23.25" customHeight="1">
       <c r="A32" s="97"/>
       <c r="B32" s="230"/>
-      <c r="C32" s="222"/>
-      <c r="D32" s="223"/>
-      <c r="E32" s="223"/>
-      <c r="F32" s="224"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="217"/>
+      <c r="E32" s="217"/>
+      <c r="F32" s="218"/>
       <c r="G32" s="102"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
@@ -8740,10 +8764,10 @@
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="97"/>
       <c r="B33" s="231"/>
-      <c r="C33" s="222"/>
-      <c r="D33" s="223"/>
-      <c r="E33" s="223"/>
-      <c r="F33" s="224"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="217"/>
+      <c r="E33" s="217"/>
+      <c r="F33" s="218"/>
       <c r="G33" s="102"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
@@ -8773,24 +8797,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
@@ -8807,6 +8813,24 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8815,26 +8839,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E0A7EB1C84FE4E48B42E395C0170D4D9" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9386bc045b67cafa3351525efa2003fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="540e6531-8795-4248-80ce-25efd73518ad" xmlns:ns3="d4884cc8-da59-4935-9350-efc2119afb64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7588742304aade531307f5737b871ff4" ns2:_="" ns3:_="">
     <xsd:import namespace="540e6531-8795-4248-80ce-25efd73518ad"/>
@@ -9023,32 +9027,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{670F2671-A5CC-40C5-9AA5-7CEAEBE0993C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A122AB63-FCCF-47AE-BB8B-E30B0667C4FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFB1EC35-BB46-46C0-8CE0-C8D244B27AA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9065,4 +9064,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A122AB63-FCCF-47AE-BB8B-E30B0667C4FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{670F2671-A5CC-40C5-9AA5-7CEAEBE0993C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/企画書・設計書/データベース設計書 .xlsx
+++ b/企画書・設計書/データベース設計書 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asojukustudent.sharepoint.com/sites/SD3D_abcc23227/Shared Documents/【Time3】PL酒見/02_DB設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="13_ncr:1_{993D5F97-D6EF-42A0-B163-B33B4EA5E908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3416067-7F17-412E-8F6C-BA12CED4AA0E}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="13_ncr:1_{993D5F97-D6EF-42A0-B163-B33B4EA5E908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{463BBDAF-C1DC-4FF7-A1AD-A8EEFD768053}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20160" windowHeight="17840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'CRUD図 '!$A$1:$M$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-Rモデル　　エンティティ一覧'!$A$1:$F$74</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">アカウント!$A$1:$H$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">カレンダー!$A$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">カレンダー!$A$1:$H$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">祝日!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">予定!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,8 +52,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4673EF27-2373-4416-B876-E9BF33FABC20}</author>
+  </authors>
+  <commentList>
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{4673EF27-2373-4416-B876-E9BF33FABC20}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    A_I(オートインクリメント)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="164">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -372,6 +391,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>イベント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>祝日</t>
     <rPh sb="0" eb="2">
       <t>シュクジツ</t>
@@ -656,10 +679,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>VARCHAR(8)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CHAR(8)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -755,16 +774,6 @@
       <t>シンキトウロク</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>group作成機能</t>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
       <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -880,6 +889,69 @@
   <si>
     <t>word</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カレンダーID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>calendar_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PK A_I</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループ作成機能</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WANG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>藤井</t>
+    <rPh sb="0" eb="2">
+      <t>フジイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中村・酒見</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サケミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>酒見・中村</t>
+    <rPh sb="3" eb="5">
+      <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NUMBER(8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NUMBER(9)</t>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+  </si>
+  <si>
+    <t>NUMBER(11)</t>
   </si>
 </sst>
 </file>
@@ -2247,6 +2319,54 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2295,18 +2415,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2337,51 +2448,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2400,6 +2466,45 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2412,10 +2517,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2424,6 +2562,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2433,75 +2574,6 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2509,15 +2581,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2537,6 +2600,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2603,23 +2675,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>324402</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27609</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>20707</xdr:rowOff>
+      <xdr:rowOff>69022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1415498</xdr:colOff>
+      <xdr:colOff>1470716</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>88749</xdr:rowOff>
+      <xdr:rowOff>84397</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A368CD31-397A-93BC-DBAE-BF507DF750E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C283544A-03A7-9098-07A9-DD15E526F546}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,8 +2707,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="324402" y="6474240"/>
-          <a:ext cx="7772400" cy="4347389"/>
+          <a:off x="379620" y="6522555"/>
+          <a:ext cx="7772400" cy="4294722"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2649,7 +2721,9 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="中村 遥陽" id="{783BCE5F-39F0-4200-BFA1-91D5E68520AD}" userId="S::2101187@s.asojuku.ac.jp::5169e5c6-e9b1-41cb-b02e-6d3c7ef9600e" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2971,6 +3045,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H17" dT="2023-05-15T01:47:35.96" personId="{783BCE5F-39F0-4200-BFA1-91D5E68520AD}" id="{4673EF27-2373-4416-B876-E9BF33FABC20}">
+    <text>A_I(オートインクリメント)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
@@ -2978,204 +3060,204 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:AE3"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9:AB12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1796875" style="11" customWidth="1"/>
-    <col min="5" max="6" width="4.1796875" style="17" customWidth="1"/>
-    <col min="7" max="32" width="4.1796875" style="11" customWidth="1"/>
+    <col min="1" max="4" width="4.1640625" style="11" customWidth="1"/>
+    <col min="5" max="6" width="4.1640625" style="17" customWidth="1"/>
+    <col min="7" max="32" width="4.1640625" style="11" customWidth="1"/>
     <col min="33" max="36" width="4" style="11" customWidth="1"/>
     <col min="37" max="256" width="9" style="11"/>
-    <col min="257" max="288" width="4.1796875" style="11" customWidth="1"/>
+    <col min="257" max="288" width="4.1640625" style="11" customWidth="1"/>
     <col min="289" max="292" width="4" style="11" customWidth="1"/>
     <col min="293" max="512" width="9" style="11"/>
-    <col min="513" max="544" width="4.1796875" style="11" customWidth="1"/>
+    <col min="513" max="544" width="4.1640625" style="11" customWidth="1"/>
     <col min="545" max="548" width="4" style="11" customWidth="1"/>
     <col min="549" max="768" width="9" style="11"/>
-    <col min="769" max="800" width="4.1796875" style="11" customWidth="1"/>
+    <col min="769" max="800" width="4.1640625" style="11" customWidth="1"/>
     <col min="801" max="804" width="4" style="11" customWidth="1"/>
     <col min="805" max="1024" width="9" style="11"/>
-    <col min="1025" max="1056" width="4.1796875" style="11" customWidth="1"/>
+    <col min="1025" max="1056" width="4.1640625" style="11" customWidth="1"/>
     <col min="1057" max="1060" width="4" style="11" customWidth="1"/>
     <col min="1061" max="1280" width="9" style="11"/>
-    <col min="1281" max="1312" width="4.1796875" style="11" customWidth="1"/>
+    <col min="1281" max="1312" width="4.1640625" style="11" customWidth="1"/>
     <col min="1313" max="1316" width="4" style="11" customWidth="1"/>
     <col min="1317" max="1536" width="9" style="11"/>
-    <col min="1537" max="1568" width="4.1796875" style="11" customWidth="1"/>
+    <col min="1537" max="1568" width="4.1640625" style="11" customWidth="1"/>
     <col min="1569" max="1572" width="4" style="11" customWidth="1"/>
     <col min="1573" max="1792" width="9" style="11"/>
-    <col min="1793" max="1824" width="4.1796875" style="11" customWidth="1"/>
+    <col min="1793" max="1824" width="4.1640625" style="11" customWidth="1"/>
     <col min="1825" max="1828" width="4" style="11" customWidth="1"/>
     <col min="1829" max="2048" width="9" style="11"/>
-    <col min="2049" max="2080" width="4.1796875" style="11" customWidth="1"/>
+    <col min="2049" max="2080" width="4.1640625" style="11" customWidth="1"/>
     <col min="2081" max="2084" width="4" style="11" customWidth="1"/>
     <col min="2085" max="2304" width="9" style="11"/>
-    <col min="2305" max="2336" width="4.1796875" style="11" customWidth="1"/>
+    <col min="2305" max="2336" width="4.1640625" style="11" customWidth="1"/>
     <col min="2337" max="2340" width="4" style="11" customWidth="1"/>
     <col min="2341" max="2560" width="9" style="11"/>
-    <col min="2561" max="2592" width="4.1796875" style="11" customWidth="1"/>
+    <col min="2561" max="2592" width="4.1640625" style="11" customWidth="1"/>
     <col min="2593" max="2596" width="4" style="11" customWidth="1"/>
     <col min="2597" max="2816" width="9" style="11"/>
-    <col min="2817" max="2848" width="4.1796875" style="11" customWidth="1"/>
+    <col min="2817" max="2848" width="4.1640625" style="11" customWidth="1"/>
     <col min="2849" max="2852" width="4" style="11" customWidth="1"/>
     <col min="2853" max="3072" width="9" style="11"/>
-    <col min="3073" max="3104" width="4.1796875" style="11" customWidth="1"/>
+    <col min="3073" max="3104" width="4.1640625" style="11" customWidth="1"/>
     <col min="3105" max="3108" width="4" style="11" customWidth="1"/>
     <col min="3109" max="3328" width="9" style="11"/>
-    <col min="3329" max="3360" width="4.1796875" style="11" customWidth="1"/>
+    <col min="3329" max="3360" width="4.1640625" style="11" customWidth="1"/>
     <col min="3361" max="3364" width="4" style="11" customWidth="1"/>
     <col min="3365" max="3584" width="9" style="11"/>
-    <col min="3585" max="3616" width="4.1796875" style="11" customWidth="1"/>
+    <col min="3585" max="3616" width="4.1640625" style="11" customWidth="1"/>
     <col min="3617" max="3620" width="4" style="11" customWidth="1"/>
     <col min="3621" max="3840" width="9" style="11"/>
-    <col min="3841" max="3872" width="4.1796875" style="11" customWidth="1"/>
+    <col min="3841" max="3872" width="4.1640625" style="11" customWidth="1"/>
     <col min="3873" max="3876" width="4" style="11" customWidth="1"/>
     <col min="3877" max="4096" width="9" style="11"/>
-    <col min="4097" max="4128" width="4.1796875" style="11" customWidth="1"/>
+    <col min="4097" max="4128" width="4.1640625" style="11" customWidth="1"/>
     <col min="4129" max="4132" width="4" style="11" customWidth="1"/>
     <col min="4133" max="4352" width="9" style="11"/>
-    <col min="4353" max="4384" width="4.1796875" style="11" customWidth="1"/>
+    <col min="4353" max="4384" width="4.1640625" style="11" customWidth="1"/>
     <col min="4385" max="4388" width="4" style="11" customWidth="1"/>
     <col min="4389" max="4608" width="9" style="11"/>
-    <col min="4609" max="4640" width="4.1796875" style="11" customWidth="1"/>
+    <col min="4609" max="4640" width="4.1640625" style="11" customWidth="1"/>
     <col min="4641" max="4644" width="4" style="11" customWidth="1"/>
     <col min="4645" max="4864" width="9" style="11"/>
-    <col min="4865" max="4896" width="4.1796875" style="11" customWidth="1"/>
+    <col min="4865" max="4896" width="4.1640625" style="11" customWidth="1"/>
     <col min="4897" max="4900" width="4" style="11" customWidth="1"/>
     <col min="4901" max="5120" width="9" style="11"/>
-    <col min="5121" max="5152" width="4.1796875" style="11" customWidth="1"/>
+    <col min="5121" max="5152" width="4.1640625" style="11" customWidth="1"/>
     <col min="5153" max="5156" width="4" style="11" customWidth="1"/>
     <col min="5157" max="5376" width="9" style="11"/>
-    <col min="5377" max="5408" width="4.1796875" style="11" customWidth="1"/>
+    <col min="5377" max="5408" width="4.1640625" style="11" customWidth="1"/>
     <col min="5409" max="5412" width="4" style="11" customWidth="1"/>
     <col min="5413" max="5632" width="9" style="11"/>
-    <col min="5633" max="5664" width="4.1796875" style="11" customWidth="1"/>
+    <col min="5633" max="5664" width="4.1640625" style="11" customWidth="1"/>
     <col min="5665" max="5668" width="4" style="11" customWidth="1"/>
     <col min="5669" max="5888" width="9" style="11"/>
-    <col min="5889" max="5920" width="4.1796875" style="11" customWidth="1"/>
+    <col min="5889" max="5920" width="4.1640625" style="11" customWidth="1"/>
     <col min="5921" max="5924" width="4" style="11" customWidth="1"/>
     <col min="5925" max="6144" width="9" style="11"/>
-    <col min="6145" max="6176" width="4.1796875" style="11" customWidth="1"/>
+    <col min="6145" max="6176" width="4.1640625" style="11" customWidth="1"/>
     <col min="6177" max="6180" width="4" style="11" customWidth="1"/>
     <col min="6181" max="6400" width="9" style="11"/>
-    <col min="6401" max="6432" width="4.1796875" style="11" customWidth="1"/>
+    <col min="6401" max="6432" width="4.1640625" style="11" customWidth="1"/>
     <col min="6433" max="6436" width="4" style="11" customWidth="1"/>
     <col min="6437" max="6656" width="9" style="11"/>
-    <col min="6657" max="6688" width="4.1796875" style="11" customWidth="1"/>
+    <col min="6657" max="6688" width="4.1640625" style="11" customWidth="1"/>
     <col min="6689" max="6692" width="4" style="11" customWidth="1"/>
     <col min="6693" max="6912" width="9" style="11"/>
-    <col min="6913" max="6944" width="4.1796875" style="11" customWidth="1"/>
+    <col min="6913" max="6944" width="4.1640625" style="11" customWidth="1"/>
     <col min="6945" max="6948" width="4" style="11" customWidth="1"/>
     <col min="6949" max="7168" width="9" style="11"/>
-    <col min="7169" max="7200" width="4.1796875" style="11" customWidth="1"/>
+    <col min="7169" max="7200" width="4.1640625" style="11" customWidth="1"/>
     <col min="7201" max="7204" width="4" style="11" customWidth="1"/>
     <col min="7205" max="7424" width="9" style="11"/>
-    <col min="7425" max="7456" width="4.1796875" style="11" customWidth="1"/>
+    <col min="7425" max="7456" width="4.1640625" style="11" customWidth="1"/>
     <col min="7457" max="7460" width="4" style="11" customWidth="1"/>
     <col min="7461" max="7680" width="9" style="11"/>
-    <col min="7681" max="7712" width="4.1796875" style="11" customWidth="1"/>
+    <col min="7681" max="7712" width="4.1640625" style="11" customWidth="1"/>
     <col min="7713" max="7716" width="4" style="11" customWidth="1"/>
     <col min="7717" max="7936" width="9" style="11"/>
-    <col min="7937" max="7968" width="4.1796875" style="11" customWidth="1"/>
+    <col min="7937" max="7968" width="4.1640625" style="11" customWidth="1"/>
     <col min="7969" max="7972" width="4" style="11" customWidth="1"/>
     <col min="7973" max="8192" width="9" style="11"/>
-    <col min="8193" max="8224" width="4.1796875" style="11" customWidth="1"/>
+    <col min="8193" max="8224" width="4.1640625" style="11" customWidth="1"/>
     <col min="8225" max="8228" width="4" style="11" customWidth="1"/>
     <col min="8229" max="8448" width="9" style="11"/>
-    <col min="8449" max="8480" width="4.1796875" style="11" customWidth="1"/>
+    <col min="8449" max="8480" width="4.1640625" style="11" customWidth="1"/>
     <col min="8481" max="8484" width="4" style="11" customWidth="1"/>
     <col min="8485" max="8704" width="9" style="11"/>
-    <col min="8705" max="8736" width="4.1796875" style="11" customWidth="1"/>
+    <col min="8705" max="8736" width="4.1640625" style="11" customWidth="1"/>
     <col min="8737" max="8740" width="4" style="11" customWidth="1"/>
     <col min="8741" max="8960" width="9" style="11"/>
-    <col min="8961" max="8992" width="4.1796875" style="11" customWidth="1"/>
+    <col min="8961" max="8992" width="4.1640625" style="11" customWidth="1"/>
     <col min="8993" max="8996" width="4" style="11" customWidth="1"/>
     <col min="8997" max="9216" width="9" style="11"/>
-    <col min="9217" max="9248" width="4.1796875" style="11" customWidth="1"/>
+    <col min="9217" max="9248" width="4.1640625" style="11" customWidth="1"/>
     <col min="9249" max="9252" width="4" style="11" customWidth="1"/>
     <col min="9253" max="9472" width="9" style="11"/>
-    <col min="9473" max="9504" width="4.1796875" style="11" customWidth="1"/>
+    <col min="9473" max="9504" width="4.1640625" style="11" customWidth="1"/>
     <col min="9505" max="9508" width="4" style="11" customWidth="1"/>
     <col min="9509" max="9728" width="9" style="11"/>
-    <col min="9729" max="9760" width="4.1796875" style="11" customWidth="1"/>
+    <col min="9729" max="9760" width="4.1640625" style="11" customWidth="1"/>
     <col min="9761" max="9764" width="4" style="11" customWidth="1"/>
     <col min="9765" max="9984" width="9" style="11"/>
-    <col min="9985" max="10016" width="4.1796875" style="11" customWidth="1"/>
+    <col min="9985" max="10016" width="4.1640625" style="11" customWidth="1"/>
     <col min="10017" max="10020" width="4" style="11" customWidth="1"/>
     <col min="10021" max="10240" width="9" style="11"/>
-    <col min="10241" max="10272" width="4.1796875" style="11" customWidth="1"/>
+    <col min="10241" max="10272" width="4.1640625" style="11" customWidth="1"/>
     <col min="10273" max="10276" width="4" style="11" customWidth="1"/>
     <col min="10277" max="10496" width="9" style="11"/>
-    <col min="10497" max="10528" width="4.1796875" style="11" customWidth="1"/>
+    <col min="10497" max="10528" width="4.1640625" style="11" customWidth="1"/>
     <col min="10529" max="10532" width="4" style="11" customWidth="1"/>
     <col min="10533" max="10752" width="9" style="11"/>
-    <col min="10753" max="10784" width="4.1796875" style="11" customWidth="1"/>
+    <col min="10753" max="10784" width="4.1640625" style="11" customWidth="1"/>
     <col min="10785" max="10788" width="4" style="11" customWidth="1"/>
     <col min="10789" max="11008" width="9" style="11"/>
-    <col min="11009" max="11040" width="4.1796875" style="11" customWidth="1"/>
+    <col min="11009" max="11040" width="4.1640625" style="11" customWidth="1"/>
     <col min="11041" max="11044" width="4" style="11" customWidth="1"/>
     <col min="11045" max="11264" width="9" style="11"/>
-    <col min="11265" max="11296" width="4.1796875" style="11" customWidth="1"/>
+    <col min="11265" max="11296" width="4.1640625" style="11" customWidth="1"/>
     <col min="11297" max="11300" width="4" style="11" customWidth="1"/>
     <col min="11301" max="11520" width="9" style="11"/>
-    <col min="11521" max="11552" width="4.1796875" style="11" customWidth="1"/>
+    <col min="11521" max="11552" width="4.1640625" style="11" customWidth="1"/>
     <col min="11553" max="11556" width="4" style="11" customWidth="1"/>
     <col min="11557" max="11776" width="9" style="11"/>
-    <col min="11777" max="11808" width="4.1796875" style="11" customWidth="1"/>
+    <col min="11777" max="11808" width="4.1640625" style="11" customWidth="1"/>
     <col min="11809" max="11812" width="4" style="11" customWidth="1"/>
     <col min="11813" max="12032" width="9" style="11"/>
-    <col min="12033" max="12064" width="4.1796875" style="11" customWidth="1"/>
+    <col min="12033" max="12064" width="4.1640625" style="11" customWidth="1"/>
     <col min="12065" max="12068" width="4" style="11" customWidth="1"/>
     <col min="12069" max="12288" width="9" style="11"/>
-    <col min="12289" max="12320" width="4.1796875" style="11" customWidth="1"/>
+    <col min="12289" max="12320" width="4.1640625" style="11" customWidth="1"/>
     <col min="12321" max="12324" width="4" style="11" customWidth="1"/>
     <col min="12325" max="12544" width="9" style="11"/>
-    <col min="12545" max="12576" width="4.1796875" style="11" customWidth="1"/>
+    <col min="12545" max="12576" width="4.1640625" style="11" customWidth="1"/>
     <col min="12577" max="12580" width="4" style="11" customWidth="1"/>
     <col min="12581" max="12800" width="9" style="11"/>
-    <col min="12801" max="12832" width="4.1796875" style="11" customWidth="1"/>
+    <col min="12801" max="12832" width="4.1640625" style="11" customWidth="1"/>
     <col min="12833" max="12836" width="4" style="11" customWidth="1"/>
     <col min="12837" max="13056" width="9" style="11"/>
-    <col min="13057" max="13088" width="4.1796875" style="11" customWidth="1"/>
+    <col min="13057" max="13088" width="4.1640625" style="11" customWidth="1"/>
     <col min="13089" max="13092" width="4" style="11" customWidth="1"/>
     <col min="13093" max="13312" width="9" style="11"/>
-    <col min="13313" max="13344" width="4.1796875" style="11" customWidth="1"/>
+    <col min="13313" max="13344" width="4.1640625" style="11" customWidth="1"/>
     <col min="13345" max="13348" width="4" style="11" customWidth="1"/>
     <col min="13349" max="13568" width="9" style="11"/>
-    <col min="13569" max="13600" width="4.1796875" style="11" customWidth="1"/>
+    <col min="13569" max="13600" width="4.1640625" style="11" customWidth="1"/>
     <col min="13601" max="13604" width="4" style="11" customWidth="1"/>
     <col min="13605" max="13824" width="9" style="11"/>
-    <col min="13825" max="13856" width="4.1796875" style="11" customWidth="1"/>
+    <col min="13825" max="13856" width="4.1640625" style="11" customWidth="1"/>
     <col min="13857" max="13860" width="4" style="11" customWidth="1"/>
     <col min="13861" max="14080" width="9" style="11"/>
-    <col min="14081" max="14112" width="4.1796875" style="11" customWidth="1"/>
+    <col min="14081" max="14112" width="4.1640625" style="11" customWidth="1"/>
     <col min="14113" max="14116" width="4" style="11" customWidth="1"/>
     <col min="14117" max="14336" width="9" style="11"/>
-    <col min="14337" max="14368" width="4.1796875" style="11" customWidth="1"/>
+    <col min="14337" max="14368" width="4.1640625" style="11" customWidth="1"/>
     <col min="14369" max="14372" width="4" style="11" customWidth="1"/>
     <col min="14373" max="14592" width="9" style="11"/>
-    <col min="14593" max="14624" width="4.1796875" style="11" customWidth="1"/>
+    <col min="14593" max="14624" width="4.1640625" style="11" customWidth="1"/>
     <col min="14625" max="14628" width="4" style="11" customWidth="1"/>
     <col min="14629" max="14848" width="9" style="11"/>
-    <col min="14849" max="14880" width="4.1796875" style="11" customWidth="1"/>
+    <col min="14849" max="14880" width="4.1640625" style="11" customWidth="1"/>
     <col min="14881" max="14884" width="4" style="11" customWidth="1"/>
     <col min="14885" max="15104" width="9" style="11"/>
-    <col min="15105" max="15136" width="4.1796875" style="11" customWidth="1"/>
+    <col min="15105" max="15136" width="4.1640625" style="11" customWidth="1"/>
     <col min="15137" max="15140" width="4" style="11" customWidth="1"/>
     <col min="15141" max="15360" width="9" style="11"/>
-    <col min="15361" max="15392" width="4.1796875" style="11" customWidth="1"/>
+    <col min="15361" max="15392" width="4.1640625" style="11" customWidth="1"/>
     <col min="15393" max="15396" width="4" style="11" customWidth="1"/>
     <col min="15397" max="15616" width="9" style="11"/>
-    <col min="15617" max="15648" width="4.1796875" style="11" customWidth="1"/>
+    <col min="15617" max="15648" width="4.1640625" style="11" customWidth="1"/>
     <col min="15649" max="15652" width="4" style="11" customWidth="1"/>
     <col min="15653" max="15872" width="9" style="11"/>
-    <col min="15873" max="15904" width="4.1796875" style="11" customWidth="1"/>
+    <col min="15873" max="15904" width="4.1640625" style="11" customWidth="1"/>
     <col min="15905" max="15908" width="4" style="11" customWidth="1"/>
     <col min="15909" max="16128" width="9" style="11"/>
-    <col min="16129" max="16160" width="4.1796875" style="11" customWidth="1"/>
+    <col min="16129" max="16160" width="4.1640625" style="11" customWidth="1"/>
     <col min="16161" max="16164" width="4" style="11" customWidth="1"/>
     <col min="16165" max="16384" width="9" style="11"/>
   </cols>
@@ -3412,19 +3494,21 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="144" t="s">
+      <c r="U3" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="145"/>
-      <c r="W3" s="146"/>
-      <c r="X3" s="147"/>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="147"/>
-      <c r="AC3" s="147"/>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="145"/>
+      <c r="V3" s="130"/>
+      <c r="W3" s="160">
+        <v>45060</v>
+      </c>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="130"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -3536,20 +3620,20 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="129" t="s">
+      <c r="F7" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="131"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="147"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -3567,86 +3651,86 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="138" t="s">
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="139"/>
-      <c r="Q8" s="140"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="155"/>
+      <c r="Q8" s="156"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="128" t="s">
+      <c r="W8" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="128"/>
-      <c r="Y8" s="128"/>
-      <c r="Z8" s="128" t="s">
+      <c r="X8" s="144"/>
+      <c r="Y8" s="144"/>
+      <c r="Z8" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="128"/>
-      <c r="AB8" s="128"/>
-      <c r="AC8" s="128" t="s">
+      <c r="AA8" s="144"/>
+      <c r="AB8" s="144"/>
+      <c r="AC8" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="128"/>
-      <c r="AE8" s="128"/>
+      <c r="AD8" s="144"/>
+      <c r="AE8" s="144"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="143"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="158"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="159"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="157" t="s">
+      <c r="W9" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="149"/>
-      <c r="Y9" s="150"/>
-      <c r="Z9" s="157" t="s">
+      <c r="X9" s="162"/>
+      <c r="Y9" s="163"/>
+      <c r="Z9" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="AA9" s="149"/>
-      <c r="AB9" s="150"/>
-      <c r="AC9" s="148" t="s">
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="163"/>
+      <c r="AC9" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="AD9" s="149"/>
-      <c r="AE9" s="150"/>
+      <c r="AD9" s="162"/>
+      <c r="AE9" s="163"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -3672,15 +3756,15 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="151"/>
-      <c r="X10" s="152"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="151"/>
-      <c r="AA10" s="152"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="151"/>
-      <c r="AD10" s="152"/>
-      <c r="AE10" s="153"/>
+      <c r="W10" s="164"/>
+      <c r="X10" s="165"/>
+      <c r="Y10" s="166"/>
+      <c r="Z10" s="164"/>
+      <c r="AA10" s="165"/>
+      <c r="AB10" s="166"/>
+      <c r="AC10" s="164"/>
+      <c r="AD10" s="165"/>
+      <c r="AE10" s="166"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -3706,15 +3790,15 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="151"/>
-      <c r="X11" s="152"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="151"/>
-      <c r="AA11" s="152"/>
-      <c r="AB11" s="153"/>
-      <c r="AC11" s="151"/>
-      <c r="AD11" s="152"/>
-      <c r="AE11" s="153"/>
+      <c r="W11" s="164"/>
+      <c r="X11" s="165"/>
+      <c r="Y11" s="166"/>
+      <c r="Z11" s="164"/>
+      <c r="AA11" s="165"/>
+      <c r="AB11" s="166"/>
+      <c r="AC11" s="164"/>
+      <c r="AD11" s="165"/>
+      <c r="AE11" s="166"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -3740,15 +3824,15 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="154"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="156"/>
-      <c r="Z12" s="154"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="156"/>
-      <c r="AC12" s="154"/>
-      <c r="AD12" s="155"/>
-      <c r="AE12" s="156"/>
+      <c r="W12" s="167"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="169"/>
+      <c r="Z12" s="167"/>
+      <c r="AA12" s="168"/>
+      <c r="AB12" s="169"/>
+      <c r="AC12" s="167"/>
+      <c r="AD12" s="168"/>
+      <c r="AE12" s="169"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -3843,106 +3927,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="158" t="s">
+      <c r="B16" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="158"/>
-      <c r="R16" s="158"/>
-      <c r="S16" s="158"/>
-      <c r="T16" s="158"/>
-      <c r="U16" s="158"/>
-      <c r="V16" s="158"/>
-      <c r="W16" s="158"/>
-      <c r="X16" s="158"/>
-      <c r="Y16" s="158"/>
-      <c r="Z16" s="158"/>
-      <c r="AA16" s="158"/>
-      <c r="AB16" s="158"/>
-      <c r="AC16" s="158"/>
-      <c r="AD16" s="158"/>
-      <c r="AE16" s="158"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="143"/>
+      <c r="P16" s="143"/>
+      <c r="Q16" s="143"/>
+      <c r="R16" s="143"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="143"/>
+      <c r="W16" s="143"/>
+      <c r="X16" s="143"/>
+      <c r="Y16" s="143"/>
+      <c r="Z16" s="143"/>
+      <c r="AA16" s="143"/>
+      <c r="AB16" s="143"/>
+      <c r="AC16" s="143"/>
+      <c r="AD16" s="143"/>
+      <c r="AE16" s="143"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="158"/>
-      <c r="O17" s="158"/>
-      <c r="P17" s="158"/>
-      <c r="Q17" s="158"/>
-      <c r="R17" s="158"/>
-      <c r="S17" s="158"/>
-      <c r="T17" s="158"/>
-      <c r="U17" s="158"/>
-      <c r="V17" s="158"/>
-      <c r="W17" s="158"/>
-      <c r="X17" s="158"/>
-      <c r="Y17" s="158"/>
-      <c r="Z17" s="158"/>
-      <c r="AA17" s="158"/>
-      <c r="AB17" s="158"/>
-      <c r="AC17" s="158"/>
-      <c r="AD17" s="158"/>
-      <c r="AE17" s="158"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="143"/>
+      <c r="T17" s="143"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="143"/>
+      <c r="W17" s="143"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="143"/>
+      <c r="Z17" s="143"/>
+      <c r="AA17" s="143"/>
+      <c r="AB17" s="143"/>
+      <c r="AC17" s="143"/>
+      <c r="AD17" s="143"/>
+      <c r="AE17" s="143"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="158"/>
-      <c r="P18" s="158"/>
-      <c r="Q18" s="158"/>
-      <c r="R18" s="158"/>
-      <c r="S18" s="158"/>
-      <c r="T18" s="158"/>
-      <c r="U18" s="158"/>
-      <c r="V18" s="158"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="158"/>
-      <c r="Z18" s="158"/>
-      <c r="AA18" s="158"/>
-      <c r="AB18" s="158"/>
-      <c r="AC18" s="158"/>
-      <c r="AD18" s="158"/>
-      <c r="AE18" s="158"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="143"/>
+      <c r="R18" s="143"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="143"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="143"/>
+      <c r="W18" s="143"/>
+      <c r="X18" s="143"/>
+      <c r="Y18" s="143"/>
+      <c r="Z18" s="143"/>
+      <c r="AA18" s="143"/>
+      <c r="AB18" s="143"/>
+      <c r="AC18" s="143"/>
+      <c r="AD18" s="143"/>
+      <c r="AE18" s="143"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4081,390 +4165,390 @@
     </row>
     <row r="23" spans="1:32" s="39" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="144" t="s">
+      <c r="B23" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="144" t="s">
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="144" t="s">
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="147"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="147"/>
-      <c r="O23" s="147"/>
-      <c r="P23" s="147"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="147"/>
-      <c r="S23" s="147"/>
-      <c r="T23" s="147"/>
-      <c r="U23" s="147"/>
-      <c r="V23" s="147"/>
-      <c r="W23" s="147"/>
-      <c r="X23" s="147"/>
-      <c r="Y23" s="147"/>
-      <c r="Z23" s="147"/>
-      <c r="AA23" s="147"/>
-      <c r="AB23" s="145"/>
-      <c r="AC23" s="144" t="s">
+      <c r="K23" s="129"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="129"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="129"/>
+      <c r="V23" s="129"/>
+      <c r="W23" s="129"/>
+      <c r="X23" s="129"/>
+      <c r="Y23" s="129"/>
+      <c r="Z23" s="129"/>
+      <c r="AA23" s="129"/>
+      <c r="AB23" s="130"/>
+      <c r="AC23" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="147"/>
-      <c r="AE23" s="145"/>
+      <c r="AD23" s="129"/>
+      <c r="AE23" s="130"/>
       <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="159">
+      <c r="B24" s="137">
         <v>1</v>
       </c>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="144" t="s">
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="147"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="147"/>
-      <c r="O24" s="147"/>
-      <c r="P24" s="147"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="147"/>
-      <c r="S24" s="147"/>
-      <c r="T24" s="147"/>
-      <c r="U24" s="147"/>
-      <c r="V24" s="147"/>
-      <c r="W24" s="147"/>
-      <c r="X24" s="147"/>
-      <c r="Y24" s="147"/>
-      <c r="Z24" s="147"/>
-      <c r="AA24" s="147"/>
-      <c r="AB24" s="145"/>
-      <c r="AC24" s="165" t="s">
+      <c r="K24" s="129"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="129"/>
+      <c r="Q24" s="129"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
+      <c r="U24" s="129"/>
+      <c r="V24" s="129"/>
+      <c r="W24" s="129"/>
+      <c r="X24" s="129"/>
+      <c r="Y24" s="129"/>
+      <c r="Z24" s="129"/>
+      <c r="AA24" s="129"/>
+      <c r="AB24" s="130"/>
+      <c r="AC24" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="AD24" s="166"/>
-      <c r="AE24" s="167"/>
+      <c r="AD24" s="141"/>
+      <c r="AE24" s="142"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="168"/>
-      <c r="K25" s="169"/>
-      <c r="L25" s="169"/>
-      <c r="M25" s="169"/>
-      <c r="N25" s="169"/>
-      <c r="O25" s="169"/>
-      <c r="P25" s="169"/>
-      <c r="Q25" s="169"/>
-      <c r="R25" s="169"/>
-      <c r="S25" s="169"/>
-      <c r="T25" s="169"/>
-      <c r="U25" s="169"/>
-      <c r="V25" s="169"/>
-      <c r="W25" s="169"/>
-      <c r="X25" s="169"/>
-      <c r="Y25" s="169"/>
-      <c r="Z25" s="169"/>
-      <c r="AA25" s="169"/>
-      <c r="AB25" s="170"/>
-      <c r="AC25" s="144"/>
-      <c r="AD25" s="147"/>
-      <c r="AE25" s="145"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="135"/>
+      <c r="Q25" s="135"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="136"/>
+      <c r="AC25" s="128"/>
+      <c r="AD25" s="129"/>
+      <c r="AE25" s="130"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="169"/>
-      <c r="L26" s="169"/>
-      <c r="M26" s="169"/>
-      <c r="N26" s="169"/>
-      <c r="O26" s="169"/>
-      <c r="P26" s="169"/>
-      <c r="Q26" s="169"/>
-      <c r="R26" s="169"/>
-      <c r="S26" s="169"/>
-      <c r="T26" s="169"/>
-      <c r="U26" s="169"/>
-      <c r="V26" s="169"/>
-      <c r="W26" s="169"/>
-      <c r="X26" s="169"/>
-      <c r="Y26" s="169"/>
-      <c r="Z26" s="169"/>
-      <c r="AA26" s="169"/>
-      <c r="AB26" s="170"/>
-      <c r="AC26" s="144"/>
-      <c r="AD26" s="147"/>
-      <c r="AE26" s="145"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="135"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="136"/>
+      <c r="AC26" s="128"/>
+      <c r="AD26" s="129"/>
+      <c r="AE26" s="130"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="169"/>
-      <c r="L27" s="169"/>
-      <c r="M27" s="169"/>
-      <c r="N27" s="169"/>
-      <c r="O27" s="169"/>
-      <c r="P27" s="169"/>
-      <c r="Q27" s="169"/>
-      <c r="R27" s="169"/>
-      <c r="S27" s="169"/>
-      <c r="T27" s="169"/>
-      <c r="U27" s="169"/>
-      <c r="V27" s="169"/>
-      <c r="W27" s="169"/>
-      <c r="X27" s="169"/>
-      <c r="Y27" s="169"/>
-      <c r="Z27" s="169"/>
-      <c r="AA27" s="169"/>
-      <c r="AB27" s="170"/>
-      <c r="AC27" s="144"/>
-      <c r="AD27" s="147"/>
-      <c r="AE27" s="145"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="135"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="136"/>
+      <c r="AC27" s="128"/>
+      <c r="AD27" s="129"/>
+      <c r="AE27" s="130"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="169"/>
-      <c r="L28" s="169"/>
-      <c r="M28" s="169"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="169"/>
-      <c r="P28" s="169"/>
-      <c r="Q28" s="169"/>
-      <c r="R28" s="169"/>
-      <c r="S28" s="169"/>
-      <c r="T28" s="169"/>
-      <c r="U28" s="169"/>
-      <c r="V28" s="169"/>
-      <c r="W28" s="169"/>
-      <c r="X28" s="169"/>
-      <c r="Y28" s="169"/>
-      <c r="Z28" s="169"/>
-      <c r="AA28" s="169"/>
-      <c r="AB28" s="170"/>
-      <c r="AC28" s="144"/>
-      <c r="AD28" s="147"/>
-      <c r="AE28" s="145"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="135"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="136"/>
+      <c r="AC28" s="128"/>
+      <c r="AD28" s="129"/>
+      <c r="AE28" s="130"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="169"/>
-      <c r="L29" s="169"/>
-      <c r="M29" s="169"/>
-      <c r="N29" s="169"/>
-      <c r="O29" s="169"/>
-      <c r="P29" s="169"/>
-      <c r="Q29" s="169"/>
-      <c r="R29" s="169"/>
-      <c r="S29" s="169"/>
-      <c r="T29" s="169"/>
-      <c r="U29" s="169"/>
-      <c r="V29" s="169"/>
-      <c r="W29" s="169"/>
-      <c r="X29" s="169"/>
-      <c r="Y29" s="169"/>
-      <c r="Z29" s="169"/>
-      <c r="AA29" s="169"/>
-      <c r="AB29" s="170"/>
-      <c r="AC29" s="144"/>
-      <c r="AD29" s="147"/>
-      <c r="AE29" s="145"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="135"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="135"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="136"/>
+      <c r="AC29" s="128"/>
+      <c r="AD29" s="129"/>
+      <c r="AE29" s="130"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="168"/>
-      <c r="K30" s="169"/>
-      <c r="L30" s="169"/>
-      <c r="M30" s="169"/>
-      <c r="N30" s="169"/>
-      <c r="O30" s="169"/>
-      <c r="P30" s="169"/>
-      <c r="Q30" s="169"/>
-      <c r="R30" s="169"/>
-      <c r="S30" s="169"/>
-      <c r="T30" s="169"/>
-      <c r="U30" s="169"/>
-      <c r="V30" s="169"/>
-      <c r="W30" s="169"/>
-      <c r="X30" s="169"/>
-      <c r="Y30" s="169"/>
-      <c r="Z30" s="169"/>
-      <c r="AA30" s="169"/>
-      <c r="AB30" s="170"/>
-      <c r="AC30" s="144"/>
-      <c r="AD30" s="147"/>
-      <c r="AE30" s="145"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
+      <c r="N30" s="135"/>
+      <c r="O30" s="135"/>
+      <c r="P30" s="135"/>
+      <c r="Q30" s="135"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="135"/>
+      <c r="AA30" s="135"/>
+      <c r="AB30" s="136"/>
+      <c r="AC30" s="128"/>
+      <c r="AD30" s="129"/>
+      <c r="AE30" s="130"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="168"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="169"/>
-      <c r="M31" s="169"/>
-      <c r="N31" s="169"/>
-      <c r="O31" s="169"/>
-      <c r="P31" s="169"/>
-      <c r="Q31" s="169"/>
-      <c r="R31" s="169"/>
-      <c r="S31" s="169"/>
-      <c r="T31" s="169"/>
-      <c r="U31" s="169"/>
-      <c r="V31" s="169"/>
-      <c r="W31" s="169"/>
-      <c r="X31" s="169"/>
-      <c r="Y31" s="169"/>
-      <c r="Z31" s="169"/>
-      <c r="AA31" s="169"/>
-      <c r="AB31" s="170"/>
-      <c r="AC31" s="144"/>
-      <c r="AD31" s="147"/>
-      <c r="AE31" s="145"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="135"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="136"/>
+      <c r="AC31" s="128"/>
+      <c r="AD31" s="129"/>
+      <c r="AE31" s="130"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="168"/>
-      <c r="K32" s="169"/>
-      <c r="L32" s="169"/>
-      <c r="M32" s="169"/>
-      <c r="N32" s="169"/>
-      <c r="O32" s="169"/>
-      <c r="P32" s="169"/>
-      <c r="Q32" s="169"/>
-      <c r="R32" s="169"/>
-      <c r="S32" s="169"/>
-      <c r="T32" s="169"/>
-      <c r="U32" s="169"/>
-      <c r="V32" s="169"/>
-      <c r="W32" s="169"/>
-      <c r="X32" s="169"/>
-      <c r="Y32" s="169"/>
-      <c r="Z32" s="169"/>
-      <c r="AA32" s="169"/>
-      <c r="AB32" s="170"/>
-      <c r="AC32" s="144"/>
-      <c r="AD32" s="147"/>
-      <c r="AE32" s="145"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="135"/>
+      <c r="O32" s="135"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="135"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="135"/>
+      <c r="AA32" s="135"/>
+      <c r="AB32" s="136"/>
+      <c r="AC32" s="128"/>
+      <c r="AD32" s="129"/>
+      <c r="AE32" s="130"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="163"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="168"/>
-      <c r="K33" s="169"/>
-      <c r="L33" s="169"/>
-      <c r="M33" s="169"/>
-      <c r="N33" s="169"/>
-      <c r="O33" s="169"/>
-      <c r="P33" s="169"/>
-      <c r="Q33" s="169"/>
-      <c r="R33" s="169"/>
-      <c r="S33" s="169"/>
-      <c r="T33" s="169"/>
-      <c r="U33" s="169"/>
-      <c r="V33" s="169"/>
-      <c r="W33" s="169"/>
-      <c r="X33" s="169"/>
-      <c r="Y33" s="169"/>
-      <c r="Z33" s="169"/>
-      <c r="AA33" s="169"/>
-      <c r="AB33" s="170"/>
-      <c r="AC33" s="144"/>
-      <c r="AD33" s="147"/>
-      <c r="AE33" s="145"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="134"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="135"/>
+      <c r="O33" s="135"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="135"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="136"/>
+      <c r="AC33" s="128"/>
+      <c r="AD33" s="129"/>
+      <c r="AE33" s="130"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4502,51 +4586,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -4558,6 +4597,51 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -4581,22 +4665,22 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="106" t="s">
         <v>19</v>
       </c>
@@ -4607,10 +4691,10 @@
       <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="172"/>
+      <c r="B2" s="178"/>
       <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
@@ -4621,10 +4705,10 @@
       <c r="F2" s="91"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="172"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="30" t="s">
         <v>23</v>
       </c>
@@ -4635,10 +4719,10 @@
       <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="177" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="172"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="30" t="s">
         <v>26</v>
       </c>
@@ -4649,10 +4733,10 @@
       <c r="F4" s="91"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="172"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="30"/>
       <c r="D5" s="31"/>
       <c r="E5" s="32" t="s">
@@ -4661,10 +4745,10 @@
       <c r="F5" s="91"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="171" t="s">
+      <c r="A6" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="172"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="30" t="s">
         <v>30</v>
       </c>
@@ -4705,10 +4789,10 @@
       <c r="D9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="177" t="s">
+      <c r="E9" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="176"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="59">
@@ -4721,12 +4805,12 @@
         <v>39</v>
       </c>
       <c r="D10" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="171" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="174"/>
+      <c r="F10" s="172"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="59">
@@ -4739,84 +4823,84 @@
         <v>41</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="173" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="174"/>
+        <v>42</v>
+      </c>
+      <c r="E11" s="171" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="172"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="59">
         <v>3</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="173" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="174"/>
+        <v>137</v>
+      </c>
+      <c r="E12" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="172"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="59">
         <v>4</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="173" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="174"/>
+        <v>138</v>
+      </c>
+      <c r="E13" s="171" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="172"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="59"/>
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="174"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="172"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="176"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="174"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="176"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="174"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="176"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="174"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -5054,6 +5138,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -5063,11 +5152,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5089,22 +5173,22 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
-    <col min="8" max="8" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -5142,17 +5226,21 @@
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="41"/>
+      <c r="F3" s="41" t="s">
+        <v>156</v>
+      </c>
       <c r="G3" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="93"/>
+      <c r="H3" s="92">
+        <v>45060</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
       <c r="A4" s="40" t="s">
@@ -5160,7 +5248,7 @@
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="41"/>
@@ -5182,17 +5270,17 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="207" t="s">
+      <c r="C6" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="209"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="183"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
@@ -5200,57 +5288,57 @@
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="124" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="207" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="209"/>
+      <c r="C8" s="181" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="183"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="46"/>
-      <c r="C9" s="207"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="208"/>
-      <c r="F9" s="208"/>
-      <c r="G9" s="208"/>
-      <c r="H9" s="209"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="183"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="193" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="210"/>
+      <c r="C10" s="184" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="185"/>
       <c r="E10" s="48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -5258,21 +5346,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="211" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="212"/>
+      <c r="C11" s="186" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="187"/>
       <c r="E11" s="63" t="s">
         <v>103</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -5280,17 +5368,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="203" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="204"/>
+        <v>90</v>
+      </c>
+      <c r="C12" s="179" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="180"/>
       <c r="E12" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="63" t="s">
         <v>102</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>101</v>
       </c>
       <c r="G12" s="69"/>
       <c r="H12" s="70"/>
@@ -5300,17 +5388,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="203" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="204"/>
+        <v>91</v>
+      </c>
+      <c r="C13" s="179" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="180"/>
       <c r="E13" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="63" t="s">
         <v>102</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>101</v>
       </c>
       <c r="G13" s="69"/>
       <c r="H13" s="70"/>
@@ -5320,17 +5408,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="203" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="204"/>
+        <v>92</v>
+      </c>
+      <c r="C14" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="180"/>
       <c r="E14" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="63" t="s">
         <v>102</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>101</v>
       </c>
       <c r="G14" s="74"/>
       <c r="H14" s="75"/>
@@ -5340,17 +5428,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="203" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="204"/>
+        <v>93</v>
+      </c>
+      <c r="C15" s="179" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="180"/>
       <c r="E15" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="63" t="s">
         <v>102</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>101</v>
       </c>
       <c r="G15" s="74"/>
       <c r="H15" s="75"/>
@@ -5360,17 +5448,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="203" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="204"/>
+        <v>94</v>
+      </c>
+      <c r="C16" s="179" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="180"/>
       <c r="E16" s="68" t="s">
         <v>104</v>
       </c>
       <c r="F16" s="63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G16" s="74"/>
       <c r="H16" s="75"/>
@@ -5380,18 +5468,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="203" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="204"/>
+        <v>95</v>
+      </c>
+      <c r="C17" s="179" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="180"/>
       <c r="E17" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="63" t="s">
-        <v>101</v>
-      </c>
+      <c r="F17" s="63"/>
       <c r="G17" s="74"/>
       <c r="H17" s="75"/>
     </row>
@@ -5400,8 +5486,8 @@
         <v>8</v>
       </c>
       <c r="B18" s="72"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="204"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -5410,8 +5496,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="204"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -5420,8 +5506,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="204"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="180"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -5430,8 +5516,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="204"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="180"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -5440,8 +5526,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="204"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="180"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -5450,8 +5536,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="180"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -5460,8 +5546,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="204"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="180"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -5470,8 +5556,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="204"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="180"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -5480,8 +5566,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="204"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="180"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -5490,8 +5576,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="204"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="180"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -5500,8 +5586,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="203"/>
-      <c r="D28" s="204"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="180"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -5510,8 +5596,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="204"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="180"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -5520,8 +5606,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="184"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="194"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -5539,7 +5625,7 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="52"/>
@@ -5551,71 +5637,71 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="190" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="192"/>
+        <v>56</v>
+      </c>
+      <c r="B33" s="195" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="196"/>
       <c r="D33" s="54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="56"/>
       <c r="G33" s="57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H33" s="58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="205"/>
-      <c r="C34" s="206"/>
-      <c r="D34" s="195"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="197"/>
+      <c r="B34" s="197"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="201"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="198"/>
-      <c r="C35" s="199"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="181"/>
+      <c r="B35" s="188"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="192"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="198"/>
-      <c r="C36" s="199"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="181"/>
+      <c r="B36" s="188"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="192"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="198"/>
-      <c r="C37" s="199"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="181"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="190"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="192"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="200"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="184"/>
+      <c r="B38" s="202"/>
+      <c r="C38" s="203"/>
+      <c r="D38" s="193"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="194"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -5631,7 +5717,7 @@
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="52"/>
@@ -5643,72 +5729,72 @@
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="190" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="191"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="G41" s="202"/>
+      <c r="C41" s="195" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="205"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="195" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="206"/>
       <c r="H41" s="58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="195"/>
-      <c r="D42" s="196"/>
-      <c r="E42" s="197"/>
-      <c r="F42" s="195"/>
-      <c r="G42" s="197"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="200"/>
+      <c r="E42" s="201"/>
+      <c r="F42" s="199"/>
+      <c r="G42" s="201"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="181"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="192"/>
+      <c r="F43" s="190"/>
+      <c r="G43" s="192"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="181"/>
+      <c r="C44" s="190"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="192"/>
+      <c r="F44" s="190"/>
+      <c r="G44" s="192"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="181"/>
+      <c r="C45" s="190"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="192"/>
+      <c r="F45" s="190"/>
+      <c r="G45" s="192"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="186"/>
+      <c r="C46" s="193"/>
+      <c r="D46" s="204"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="207"/>
+      <c r="G46" s="208"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -5723,7 +5809,7 @@
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B48" s="46"/>
       <c r="C48" s="52"/>
@@ -5735,94 +5821,104 @@
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="190" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="191"/>
-      <c r="E49" s="192"/>
-      <c r="F49" s="193" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49" s="194"/>
+        <v>68</v>
+      </c>
+      <c r="C49" s="195" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="205"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="184" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="209"/>
       <c r="H49" s="49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="187"/>
-      <c r="D50" s="188"/>
-      <c r="E50" s="189"/>
-      <c r="F50" s="187"/>
-      <c r="G50" s="189"/>
+      <c r="C50" s="210"/>
+      <c r="D50" s="211"/>
+      <c r="E50" s="212"/>
+      <c r="F50" s="210"/>
+      <c r="G50" s="212"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="181"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="181"/>
+      <c r="C51" s="190"/>
+      <c r="D51" s="191"/>
+      <c r="E51" s="192"/>
+      <c r="F51" s="190"/>
+      <c r="G51" s="192"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="180"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="179"/>
-      <c r="G52" s="181"/>
+      <c r="C52" s="190"/>
+      <c r="D52" s="191"/>
+      <c r="E52" s="192"/>
+      <c r="F52" s="190"/>
+      <c r="G52" s="192"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="180"/>
-      <c r="E53" s="181"/>
-      <c r="F53" s="179"/>
-      <c r="G53" s="181"/>
+      <c r="C53" s="190"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="192"/>
+      <c r="F53" s="190"/>
+      <c r="G53" s="192"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="185"/>
-      <c r="G54" s="186"/>
+      <c r="C54" s="193"/>
+      <c r="D54" s="204"/>
+      <c r="E54" s="194"/>
+      <c r="F54" s="207"/>
+      <c r="G54" s="208"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -5836,751 +5932,6 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382C0956-6143-4B3F-8E67-2AE75D3B01F2}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H54"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
-    <col min="8" max="8" width="21.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="14">
-      <c r="A1" s="109" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="92">
-        <v>45060</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="93"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="93"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="41"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="120"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="207" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="209"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="207" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="209"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="193" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="210"/>
-      <c r="E10" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="61">
-        <v>1</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="211" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="212"/>
-      <c r="E11" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="66">
-        <v>2</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="203" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="204"/>
-      <c r="E12" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="66">
-        <v>3</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="203" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="204"/>
-      <c r="E13" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="71"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="204"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="71"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A25" s="71"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="203"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A29" s="71"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="75"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="80"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="190" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="192"/>
-      <c r="D33" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A34" s="61"/>
-      <c r="B34" s="205"/>
-      <c r="C34" s="206"/>
-      <c r="D34" s="195"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="197"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="65"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A35" s="66"/>
-      <c r="B35" s="198"/>
-      <c r="C35" s="199"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="70"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A36" s="66"/>
-      <c r="B36" s="198"/>
-      <c r="C36" s="199"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="181"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="70"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A37" s="66"/>
-      <c r="B37" s="198"/>
-      <c r="C37" s="199"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="181"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="70"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="76"/>
-      <c r="B38" s="200"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="184"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="80"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="190" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="191"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="190" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="202"/>
-      <c r="H41" s="58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="94">
-        <v>1</v>
-      </c>
-      <c r="B42" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="187"/>
-      <c r="D42" s="188"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="187" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="189"/>
-      <c r="H42" s="96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A43" s="125">
-        <v>2</v>
-      </c>
-      <c r="B43" s="126" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="213"/>
-      <c r="D43" s="214"/>
-      <c r="E43" s="215"/>
-      <c r="F43" s="213" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="215"/>
-      <c r="H43" s="127" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="84"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="181"/>
-      <c r="H44" s="86"/>
-    </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A45" s="84"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="181"/>
-      <c r="H45" s="86"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="87"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="186"/>
-      <c r="H46" s="89"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-    </row>
-    <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="190" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="191"/>
-      <c r="E49" s="192"/>
-      <c r="F49" s="193" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49" s="194"/>
-      <c r="H49" s="49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A50" s="94"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="187"/>
-      <c r="D50" s="188"/>
-      <c r="E50" s="189"/>
-      <c r="F50" s="187"/>
-      <c r="G50" s="189"/>
-      <c r="H50" s="96"/>
-    </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="84"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="181"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="181"/>
-      <c r="H51" s="86"/>
-    </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A52" s="84"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="180"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="179"/>
-      <c r="G52" s="181"/>
-      <c r="H52" s="86"/>
-    </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A53" s="84"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="180"/>
-      <c r="E53" s="181"/>
-      <c r="F53" s="179"/>
-      <c r="G53" s="181"/>
-      <c r="H53" s="86"/>
-    </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="87"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="185"/>
-      <c r="G54" s="186"/>
-      <c r="H54" s="89"/>
-    </row>
-  </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -6593,6 +5944,1536 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382C0956-6143-4B3F-8E67-2AE75D3B01F2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="111"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="92">
+        <v>45060</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="92">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="93"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="120"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="181" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="183"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="181" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="183"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A9" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="184" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="185"/>
+      <c r="E10" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="61">
+        <v>1</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="186" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="187"/>
+      <c r="E11" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="61">
+        <v>1</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="186" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="187"/>
+      <c r="E12" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="66">
+        <v>2</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="179" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="180"/>
+      <c r="E13" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="66">
+        <v>3</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="179" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="180"/>
+      <c r="E14" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="180"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A31" s="76"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="193"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="80"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A33" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A34" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="195" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="196"/>
+      <c r="D34" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="55"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="61"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="201"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="65"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="66"/>
+      <c r="B36" s="188"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="192"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="70"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A37" s="66"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="190"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="192"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="70"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A38" s="66"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="70"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A39" s="76"/>
+      <c r="B39" s="202"/>
+      <c r="C39" s="203"/>
+      <c r="D39" s="193"/>
+      <c r="E39" s="204"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="80"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A41" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="46"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A42" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="195" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="205"/>
+      <c r="E42" s="196"/>
+      <c r="F42" s="195" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="206"/>
+      <c r="H42" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="94">
+        <v>1</v>
+      </c>
+      <c r="B43" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="210"/>
+      <c r="D43" s="211"/>
+      <c r="E43" s="212"/>
+      <c r="F43" s="210" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="212"/>
+      <c r="H43" s="96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="125">
+        <v>2</v>
+      </c>
+      <c r="B44" s="126" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="213"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="213" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="215"/>
+      <c r="H44" s="127" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="84"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="190"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="192"/>
+      <c r="F45" s="190"/>
+      <c r="G45" s="192"/>
+      <c r="H45" s="86"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A46" s="84"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="192"/>
+      <c r="F46" s="190"/>
+      <c r="G46" s="192"/>
+      <c r="H46" s="86"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A47" s="87"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="193"/>
+      <c r="D47" s="204"/>
+      <c r="E47" s="194"/>
+      <c r="F47" s="207"/>
+      <c r="G47" s="208"/>
+      <c r="H47" s="89"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A49" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="46"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A50" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="195" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="205"/>
+      <c r="E50" s="196"/>
+      <c r="F50" s="184" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="209"/>
+      <c r="H50" s="49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A51" s="94"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="210"/>
+      <c r="D51" s="211"/>
+      <c r="E51" s="212"/>
+      <c r="F51" s="210"/>
+      <c r="G51" s="212"/>
+      <c r="H51" s="96"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A52" s="84"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="190"/>
+      <c r="D52" s="191"/>
+      <c r="E52" s="192"/>
+      <c r="F52" s="190"/>
+      <c r="G52" s="192"/>
+      <c r="H52" s="86"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A53" s="84"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="190"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="192"/>
+      <c r="F53" s="190"/>
+      <c r="G53" s="192"/>
+      <c r="H53" s="86"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A54" s="84"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="192"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="192"/>
+      <c r="H54" s="86"/>
+    </row>
+    <row r="55" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A55" s="87"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="193"/>
+      <c r="D55" s="204"/>
+      <c r="E55" s="194"/>
+      <c r="F55" s="207"/>
+      <c r="G55" s="208"/>
+      <c r="H55" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CFDFA1-F1E9-4BAD-B767-B6BD9D82725A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="111"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="92">
+        <v>45059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="92">
+        <v>45060</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="93"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="181" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="183"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="181" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="183"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="181" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="183"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A9" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="184" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="185"/>
+      <c r="E10" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="61">
+        <v>1</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="186" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="187"/>
+      <c r="E11" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="66">
+        <v>2</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="179" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="180"/>
+      <c r="E12" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="66">
+        <v>3</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="179" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="180"/>
+      <c r="E13" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="80"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A32" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A33" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="195" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="196"/>
+      <c r="D33" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="61"/>
+      <c r="B34" s="197"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="66"/>
+      <c r="B35" s="188"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="192"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="70"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="66"/>
+      <c r="B36" s="188"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="192"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="70"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A37" s="66"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="190"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="192"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="70"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A38" s="76"/>
+      <c r="B38" s="202"/>
+      <c r="C38" s="203"/>
+      <c r="D38" s="193"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="194"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A40" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A41" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="195" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="205"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="195" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="206"/>
+      <c r="H41" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="81"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="200"/>
+      <c r="E42" s="201"/>
+      <c r="F42" s="199"/>
+      <c r="G42" s="201"/>
+      <c r="H42" s="83"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="84"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="192"/>
+      <c r="F43" s="190"/>
+      <c r="G43" s="192"/>
+      <c r="H43" s="86"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="84"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="190"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="192"/>
+      <c r="F44" s="190"/>
+      <c r="G44" s="192"/>
+      <c r="H44" s="86"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="84"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="190"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="192"/>
+      <c r="F45" s="190"/>
+      <c r="G45" s="192"/>
+      <c r="H45" s="86"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A46" s="87"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="193"/>
+      <c r="D46" s="204"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="207"/>
+      <c r="G46" s="208"/>
+      <c r="H46" s="89"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A48" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="46"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A49" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="195" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="205"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="184" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="209"/>
+      <c r="H49" s="49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A50" s="94"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="210"/>
+      <c r="D50" s="211"/>
+      <c r="E50" s="212"/>
+      <c r="F50" s="210"/>
+      <c r="G50" s="212"/>
+      <c r="H50" s="96"/>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A51" s="84"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="190"/>
+      <c r="D51" s="191"/>
+      <c r="E51" s="192"/>
+      <c r="F51" s="190"/>
+      <c r="G51" s="192"/>
+      <c r="H51" s="86"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A52" s="84"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="190"/>
+      <c r="D52" s="191"/>
+      <c r="E52" s="192"/>
+      <c r="F52" s="190"/>
+      <c r="G52" s="192"/>
+      <c r="H52" s="86"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A53" s="84"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="190"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="192"/>
+      <c r="F53" s="190"/>
+      <c r="G53" s="192"/>
+      <c r="H53" s="86"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A54" s="87"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="193"/>
+      <c r="D54" s="204"/>
+      <c r="E54" s="194"/>
+      <c r="F54" s="207"/>
+      <c r="G54" s="208"/>
+      <c r="H54" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -6606,732 +7487,6 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CFDFA1-F1E9-4BAD-B767-B6BD9D82725A}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
-    <col min="8" max="8" width="21.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="14">
-      <c r="A1" s="109" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="92">
-        <v>45060</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="93"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="93"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="41"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="207" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="209"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="207" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="209"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="207" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="209"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="193" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="210"/>
-      <c r="E10" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="61">
-        <v>1</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="211" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="212"/>
-      <c r="E11" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="66">
-        <v>2</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="203" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="204"/>
-      <c r="E12" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="66">
-        <v>3</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="203" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="204"/>
-      <c r="E13" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="71"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="204"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="71"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A25" s="71"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="203"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A29" s="71"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="75"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="80"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="190" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="192"/>
-      <c r="D33" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A34" s="61"/>
-      <c r="B34" s="205"/>
-      <c r="C34" s="206"/>
-      <c r="D34" s="195"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="197"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="65"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A35" s="66"/>
-      <c r="B35" s="198"/>
-      <c r="C35" s="199"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="70"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A36" s="66"/>
-      <c r="B36" s="198"/>
-      <c r="C36" s="199"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="181"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="70"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A37" s="66"/>
-      <c r="B37" s="198"/>
-      <c r="C37" s="199"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="181"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="70"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="76"/>
-      <c r="B38" s="200"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="184"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="80"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="190" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="191"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="190" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="202"/>
-      <c r="H41" s="58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="81"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="195"/>
-      <c r="D42" s="196"/>
-      <c r="E42" s="197"/>
-      <c r="F42" s="195"/>
-      <c r="G42" s="197"/>
-      <c r="H42" s="83"/>
-    </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A43" s="84"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="181"/>
-      <c r="H43" s="86"/>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="84"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="181"/>
-      <c r="H44" s="86"/>
-    </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A45" s="84"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="181"/>
-      <c r="H45" s="86"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="87"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="186"/>
-      <c r="H46" s="89"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-    </row>
-    <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="190" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="191"/>
-      <c r="E49" s="192"/>
-      <c r="F49" s="193" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49" s="194"/>
-      <c r="H49" s="49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A50" s="94"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="187"/>
-      <c r="D50" s="188"/>
-      <c r="E50" s="189"/>
-      <c r="F50" s="187"/>
-      <c r="G50" s="189"/>
-      <c r="H50" s="96"/>
-    </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="84"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="181"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="181"/>
-      <c r="H51" s="86"/>
-    </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A52" s="84"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="180"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="179"/>
-      <c r="G52" s="181"/>
-      <c r="H52" s="86"/>
-    </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A53" s="84"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="180"/>
-      <c r="E53" s="181"/>
-      <c r="F53" s="179"/>
-      <c r="G53" s="181"/>
-      <c r="H53" s="86"/>
-    </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="87"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="185"/>
-      <c r="G54" s="186"/>
-      <c r="H54" s="89"/>
-    </row>
-  </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -7344,47 +7499,12 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7399,23 +7519,23 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
-    <col min="8" max="8" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -7453,17 +7573,21 @@
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="41"/>
+      <c r="F3" s="41" t="s">
+        <v>158</v>
+      </c>
       <c r="G3" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="93"/>
+      <c r="H3" s="92">
+        <v>45061</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
       <c r="A4" s="40" t="s">
@@ -7493,49 +7617,49 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="207" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="209"/>
+      <c r="C6" s="181" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="183"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="207" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="209"/>
+      <c r="C7" s="181" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="183"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="207" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="209"/>
+      <c r="C8" s="181" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="183"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -7547,26 +7671,26 @@
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="193" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="210"/>
+      <c r="C10" s="184" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="185"/>
       <c r="E10" s="48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -7574,21 +7698,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="211" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="212"/>
+      <c r="C11" s="186" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="187"/>
       <c r="E11" s="63" t="s">
         <v>103</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -7598,15 +7722,15 @@
       <c r="B12" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="203" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="204"/>
+      <c r="C12" s="179" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="180"/>
       <c r="E12" s="68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G12" s="69"/>
       <c r="H12" s="70"/>
@@ -7618,15 +7742,15 @@
       <c r="B13" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="203" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="204"/>
+      <c r="C13" s="179" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="180"/>
       <c r="E13" s="68" t="s">
         <v>103</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G13" s="69"/>
       <c r="H13" s="70"/>
@@ -7638,16 +7762,14 @@
       <c r="B14" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="203" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="204"/>
+      <c r="C14" s="179" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="180"/>
       <c r="E14" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="63" t="s">
-        <v>101</v>
-      </c>
+      <c r="F14" s="63"/>
       <c r="G14" s="74"/>
       <c r="H14" s="75"/>
     </row>
@@ -7658,24 +7780,22 @@
       <c r="B15" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="203" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="204"/>
+      <c r="C15" s="179" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="180"/>
       <c r="E15" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="63" t="s">
-        <v>101</v>
-      </c>
+      <c r="F15" s="63"/>
       <c r="G15" s="74"/>
       <c r="H15" s="75"/>
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="204"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="180"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -7684,8 +7804,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="204"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="180"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -7694,8 +7814,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="204"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -7704,8 +7824,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="204"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -7714,8 +7834,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="204"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="180"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -7724,8 +7844,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="204"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="180"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -7734,8 +7854,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="204"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="180"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -7744,8 +7864,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="180"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -7754,8 +7874,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="204"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="180"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -7764,8 +7884,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="204"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="180"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -7774,8 +7894,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="204"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="180"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -7784,8 +7904,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="204"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="180"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -7794,8 +7914,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="203"/>
-      <c r="D28" s="204"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="180"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -7804,8 +7924,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="204"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="180"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -7814,8 +7934,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="184"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="194"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -7833,7 +7953,7 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="52"/>
@@ -7845,71 +7965,71 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="190" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="192"/>
+        <v>56</v>
+      </c>
+      <c r="B33" s="195" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="196"/>
       <c r="D33" s="54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="56"/>
       <c r="G33" s="57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H33" s="58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="205"/>
-      <c r="C34" s="206"/>
-      <c r="D34" s="195"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="197"/>
+      <c r="B34" s="197"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="201"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="198"/>
-      <c r="C35" s="199"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="181"/>
+      <c r="B35" s="188"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="192"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="198"/>
-      <c r="C36" s="199"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="181"/>
+      <c r="B36" s="188"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="192"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="198"/>
-      <c r="C37" s="199"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="181"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="190"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="192"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="200"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="184"/>
+      <c r="B38" s="202"/>
+      <c r="C38" s="203"/>
+      <c r="D38" s="193"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="194"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -7925,7 +8045,7 @@
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="52"/>
@@ -7937,72 +8057,72 @@
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="190" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="191"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="G41" s="202"/>
+      <c r="C41" s="195" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="205"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="195" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="206"/>
       <c r="H41" s="58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="195"/>
-      <c r="D42" s="196"/>
-      <c r="E42" s="197"/>
-      <c r="F42" s="195"/>
-      <c r="G42" s="197"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="200"/>
+      <c r="E42" s="201"/>
+      <c r="F42" s="199"/>
+      <c r="G42" s="201"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="181"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="192"/>
+      <c r="F43" s="190"/>
+      <c r="G43" s="192"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="181"/>
+      <c r="C44" s="190"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="192"/>
+      <c r="F44" s="190"/>
+      <c r="G44" s="192"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="181"/>
+      <c r="C45" s="190"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="192"/>
+      <c r="F45" s="190"/>
+      <c r="G45" s="192"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="186"/>
+      <c r="C46" s="193"/>
+      <c r="D46" s="204"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="207"/>
+      <c r="G46" s="208"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8017,7 +8137,7 @@
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B48" s="46"/>
       <c r="C48" s="52"/>
@@ -8029,87 +8149,108 @@
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="190" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="191"/>
-      <c r="E49" s="192"/>
-      <c r="F49" s="193" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49" s="194"/>
+        <v>68</v>
+      </c>
+      <c r="C49" s="195" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="205"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="184" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="209"/>
       <c r="H49" s="49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="187"/>
-      <c r="D50" s="188"/>
-      <c r="E50" s="189"/>
-      <c r="F50" s="187"/>
-      <c r="G50" s="189"/>
+      <c r="C50" s="210"/>
+      <c r="D50" s="211"/>
+      <c r="E50" s="212"/>
+      <c r="F50" s="210"/>
+      <c r="G50" s="212"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="181"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="181"/>
+      <c r="C51" s="190"/>
+      <c r="D51" s="191"/>
+      <c r="E51" s="192"/>
+      <c r="F51" s="190"/>
+      <c r="G51" s="192"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="180"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="179"/>
-      <c r="G52" s="181"/>
+      <c r="C52" s="190"/>
+      <c r="D52" s="191"/>
+      <c r="E52" s="192"/>
+      <c r="F52" s="190"/>
+      <c r="G52" s="192"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="180"/>
-      <c r="E53" s="181"/>
-      <c r="F53" s="179"/>
-      <c r="G53" s="181"/>
+      <c r="C53" s="190"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="192"/>
+      <c r="F53" s="190"/>
+      <c r="G53" s="192"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="185"/>
-      <c r="G54" s="186"/>
+      <c r="C54" s="193"/>
+      <c r="D54" s="204"/>
+      <c r="E54" s="194"/>
+      <c r="F54" s="207"/>
+      <c r="G54" s="208"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="F54:G54"/>
@@ -8126,38 +8267,17 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8178,19 +8298,19 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView topLeftCell="B6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:F17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="12" width="10.1796875" customWidth="1"/>
+    <col min="3" max="12" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -8209,14 +8329,14 @@
       <c r="A2" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="218" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="225"/>
       <c r="D2" s="225"/>
       <c r="E2" s="225"/>
       <c r="F2" s="225"/>
-      <c r="G2" s="220"/>
+      <c r="G2" s="217"/>
       <c r="H2" s="32" t="s">
         <v>21</v>
       </c>
@@ -8227,23 +8347,23 @@
       <c r="K2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="219">
+      <c r="L2" s="216">
         <v>45061</v>
       </c>
-      <c r="M2" s="220"/>
+      <c r="M2" s="217"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1">
       <c r="A3" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="218" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="225"/>
       <c r="D3" s="225"/>
       <c r="E3" s="225"/>
       <c r="F3" s="225"/>
-      <c r="G3" s="220"/>
+      <c r="G3" s="217"/>
       <c r="H3" s="32" t="s">
         <v>28</v>
       </c>
@@ -8252,8 +8372,8 @@
       <c r="K3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="221"/>
-      <c r="M3" s="220"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="217"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1">
       <c r="A4" s="115" t="s">
@@ -8261,7 +8381,7 @@
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="226" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D4" s="226"/>
       <c r="E4" s="226"/>
@@ -8273,15 +8393,15 @@
       <c r="K4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="221"/>
-      <c r="M4" s="220"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="217"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1">
       <c r="A5" s="118" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="228" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="226"/>
       <c r="D5" s="226"/>
@@ -8297,10 +8417,10 @@
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1">
       <c r="A6" s="119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="228" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="226"/>
       <c r="D6" s="226"/>
@@ -8321,14 +8441,14 @@
     <row r="8" spans="1:13" ht="21.75" customHeight="1">
       <c r="A8" s="97"/>
       <c r="F8" s="98"/>
-      <c r="G8" s="222" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="223"/>
-      <c r="I8" s="223"/>
-      <c r="J8" s="223"/>
-      <c r="K8" s="223"/>
-      <c r="L8" s="224"/>
+      <c r="G8" s="219" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="220"/>
+      <c r="I8" s="220"/>
+      <c r="J8" s="220"/>
+      <c r="K8" s="220"/>
+      <c r="L8" s="221"/>
       <c r="M8" s="98"/>
     </row>
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
@@ -8345,10 +8465,10 @@
         <v>40</v>
       </c>
       <c r="I9" s="102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J9" s="102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="102"/>
@@ -8357,25 +8477,25 @@
     <row r="10" spans="1:13" ht="22.5" customHeight="1">
       <c r="A10" s="97"/>
       <c r="B10" s="229" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="216" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="222" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="218"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="224"/>
       <c r="G10" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H10" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I10" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J10" s="102" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K10" s="102"/>
       <c r="L10" s="102"/>
@@ -8384,23 +8504,23 @@
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="97"/>
       <c r="B11" s="230"/>
-      <c r="C11" s="216" t="s">
+      <c r="C11" s="222" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="217"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="218"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="224"/>
       <c r="G11" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="102" t="s">
         <v>129</v>
-      </c>
-      <c r="H11" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="I11" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="102" t="s">
-        <v>130</v>
       </c>
       <c r="K11" s="102"/>
       <c r="L11" s="102"/>
@@ -8409,23 +8529,23 @@
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="97"/>
       <c r="B12" s="230"/>
-      <c r="C12" s="216" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="217"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="218"/>
+      <c r="C12" s="222" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="223"/>
+      <c r="E12" s="223"/>
+      <c r="F12" s="224"/>
       <c r="G12" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H12" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I12" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J12" s="102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K12" s="102"/>
       <c r="L12" s="102"/>
@@ -8434,23 +8554,23 @@
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="97"/>
       <c r="B13" s="230"/>
-      <c r="C13" s="216" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="217"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="218"/>
+      <c r="C13" s="222" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="223"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="224"/>
       <c r="G13" s="102" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H13" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I13" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J13" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K13" s="102"/>
       <c r="L13" s="102"/>
@@ -8459,23 +8579,23 @@
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="97"/>
       <c r="B14" s="230"/>
-      <c r="C14" s="216" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="217"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="218"/>
+      <c r="C14" s="222" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="223"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="224"/>
       <c r="G14" s="102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H14" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I14" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J14" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K14" s="102"/>
       <c r="L14" s="102"/>
@@ -8484,23 +8604,23 @@
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="97"/>
       <c r="B15" s="230"/>
-      <c r="C15" s="216" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="218"/>
+      <c r="C15" s="222" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="223"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="224"/>
       <c r="G15" s="102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H15" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I15" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J15" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K15" s="102"/>
       <c r="L15" s="102"/>
@@ -8509,10 +8629,10 @@
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="97"/>
       <c r="B16" s="230"/>
-      <c r="C16" s="216"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="218"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="223"/>
+      <c r="E16" s="223"/>
+      <c r="F16" s="224"/>
       <c r="G16" s="102"/>
       <c r="H16" s="102"/>
       <c r="I16" s="102"/>
@@ -8524,10 +8644,10 @@
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="97"/>
       <c r="B17" s="230"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="218"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="223"/>
+      <c r="E17" s="223"/>
+      <c r="F17" s="224"/>
       <c r="G17" s="102"/>
       <c r="H17" s="102"/>
       <c r="I17" s="102"/>
@@ -8539,10 +8659,10 @@
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="97"/>
       <c r="B18" s="230"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="218"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="224"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
       <c r="I18" s="102"/>
@@ -8554,10 +8674,10 @@
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="97"/>
       <c r="B19" s="230"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="218"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="223"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="224"/>
       <c r="G19" s="102"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
@@ -8569,10 +8689,10 @@
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="97"/>
       <c r="B20" s="230"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="217"/>
-      <c r="F20" s="218"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="223"/>
+      <c r="F20" s="224"/>
       <c r="G20" s="102"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
@@ -8584,10 +8704,10 @@
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="97"/>
       <c r="B21" s="230"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="217"/>
-      <c r="F21" s="218"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="223"/>
+      <c r="E21" s="223"/>
+      <c r="F21" s="224"/>
       <c r="G21" s="102"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
@@ -8599,10 +8719,10 @@
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="97"/>
       <c r="B22" s="230"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="217"/>
-      <c r="E22" s="217"/>
-      <c r="F22" s="218"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="223"/>
+      <c r="E22" s="223"/>
+      <c r="F22" s="224"/>
       <c r="G22" s="102"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
@@ -8614,10 +8734,10 @@
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="97"/>
       <c r="B23" s="230"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="217"/>
-      <c r="F23" s="218"/>
+      <c r="C23" s="222"/>
+      <c r="D23" s="223"/>
+      <c r="E23" s="223"/>
+      <c r="F23" s="224"/>
       <c r="G23" s="102"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
@@ -8629,10 +8749,10 @@
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="97"/>
       <c r="B24" s="230"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="217"/>
-      <c r="E24" s="217"/>
-      <c r="F24" s="218"/>
+      <c r="C24" s="222"/>
+      <c r="D24" s="223"/>
+      <c r="E24" s="223"/>
+      <c r="F24" s="224"/>
       <c r="G24" s="102"/>
       <c r="H24" s="102"/>
       <c r="I24" s="102"/>
@@ -8644,10 +8764,10 @@
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="97"/>
       <c r="B25" s="230"/>
-      <c r="C25" s="216"/>
-      <c r="D25" s="217"/>
-      <c r="E25" s="217"/>
-      <c r="F25" s="218"/>
+      <c r="C25" s="222"/>
+      <c r="D25" s="223"/>
+      <c r="E25" s="223"/>
+      <c r="F25" s="224"/>
       <c r="G25" s="102"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
@@ -8659,10 +8779,10 @@
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="97"/>
       <c r="B26" s="230"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="217"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="218"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="223"/>
+      <c r="E26" s="223"/>
+      <c r="F26" s="224"/>
       <c r="G26" s="102"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
@@ -8674,10 +8794,10 @@
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="97"/>
       <c r="B27" s="230"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="217"/>
-      <c r="E27" s="217"/>
-      <c r="F27" s="218"/>
+      <c r="C27" s="222"/>
+      <c r="D27" s="223"/>
+      <c r="E27" s="223"/>
+      <c r="F27" s="224"/>
       <c r="G27" s="102"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
@@ -8689,10 +8809,10 @@
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="97"/>
       <c r="B28" s="230"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="217"/>
-      <c r="E28" s="217"/>
-      <c r="F28" s="218"/>
+      <c r="C28" s="222"/>
+      <c r="D28" s="223"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="224"/>
       <c r="G28" s="102"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
@@ -8704,10 +8824,10 @@
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="97"/>
       <c r="B29" s="230"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="217"/>
-      <c r="E29" s="217"/>
-      <c r="F29" s="218"/>
+      <c r="C29" s="222"/>
+      <c r="D29" s="223"/>
+      <c r="E29" s="223"/>
+      <c r="F29" s="224"/>
       <c r="G29" s="102"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
@@ -8719,10 +8839,10 @@
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="97"/>
       <c r="B30" s="230"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="217"/>
-      <c r="E30" s="217"/>
-      <c r="F30" s="218"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="223"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="224"/>
       <c r="G30" s="102"/>
       <c r="H30" s="102"/>
       <c r="I30" s="102"/>
@@ -8734,10 +8854,10 @@
     <row r="31" spans="1:13" ht="23.25" customHeight="1">
       <c r="A31" s="97"/>
       <c r="B31" s="230"/>
-      <c r="C31" s="216"/>
-      <c r="D31" s="217"/>
-      <c r="E31" s="217"/>
-      <c r="F31" s="218"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="223"/>
+      <c r="E31" s="223"/>
+      <c r="F31" s="224"/>
       <c r="G31" s="102"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
@@ -8749,10 +8869,10 @@
     <row r="32" spans="1:13" ht="23.25" customHeight="1">
       <c r="A32" s="97"/>
       <c r="B32" s="230"/>
-      <c r="C32" s="216"/>
-      <c r="D32" s="217"/>
-      <c r="E32" s="217"/>
-      <c r="F32" s="218"/>
+      <c r="C32" s="222"/>
+      <c r="D32" s="223"/>
+      <c r="E32" s="223"/>
+      <c r="F32" s="224"/>
       <c r="G32" s="102"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
@@ -8764,10 +8884,10 @@
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="97"/>
       <c r="B33" s="231"/>
-      <c r="C33" s="216"/>
-      <c r="D33" s="217"/>
-      <c r="E33" s="217"/>
-      <c r="F33" s="218"/>
+      <c r="C33" s="222"/>
+      <c r="D33" s="223"/>
+      <c r="E33" s="223"/>
+      <c r="F33" s="224"/>
       <c r="G33" s="102"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
@@ -8797,6 +8917,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
@@ -8813,24 +8951,6 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8839,6 +8959,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E0A7EB1C84FE4E48B42E395C0170D4D9" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9386bc045b67cafa3351525efa2003fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="540e6531-8795-4248-80ce-25efd73518ad" xmlns:ns3="d4884cc8-da59-4935-9350-efc2119afb64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7588742304aade531307f5737b871ff4" ns2:_="" ns3:_="">
     <xsd:import namespace="540e6531-8795-4248-80ce-25efd73518ad"/>
@@ -9027,15 +9156,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9048,6 +9168,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A122AB63-FCCF-47AE-BB8B-E30B0667C4FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFB1EC35-BB46-46C0-8CE0-C8D244B27AA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9066,27 +9194,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A122AB63-FCCF-47AE-BB8B-E30B0667C4FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{670F2671-A5CC-40C5-9AA5-7CEAEBE0993C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
     <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/企画書・設計書/データベース設計書 .xlsx
+++ b/企画書・設計書/データベース設計書 .xlsx
@@ -1,38 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26508"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asojukustudent.sharepoint.com/sites/SD3D_abcc23227/Shared Documents/【Time3】PL酒見/02_DB設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="13_ncr:1_{993D5F97-D6EF-42A0-B163-B33B4EA5E908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{463BBDAF-C1DC-4FF7-A1AD-A8EEFD768053}"/>
+  <xr:revisionPtr revIDLastSave="668" documentId="13_ncr:1_{993D5F97-D6EF-42A0-B163-B33B4EA5E908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B084A4C6-BBA3-48DA-AA30-6E73477CDF94}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20160" windowHeight="17840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
     <sheet name="E-Rモデル　　エンティティ一覧" sheetId="11" r:id="rId2"/>
-    <sheet name="予定" sheetId="24" r:id="rId3"/>
-    <sheet name="カレンダー" sheetId="25" r:id="rId4"/>
-    <sheet name="祝日" sheetId="26" r:id="rId5"/>
-    <sheet name="アカウント" sheetId="13" r:id="rId6"/>
-    <sheet name="CRUD図 " sheetId="18" r:id="rId7"/>
+    <sheet name="所属" sheetId="27" r:id="rId3"/>
+    <sheet name="予定" sheetId="24" r:id="rId4"/>
+    <sheet name="グループ" sheetId="25" r:id="rId5"/>
+    <sheet name="祝日" sheetId="26" r:id="rId6"/>
+    <sheet name="アカウント" sheetId="13" r:id="rId7"/>
+    <sheet name="CRUD図 " sheetId="18" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'CRUD図 '!$A$1:$M$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'CRUD図 '!$A$1:$M$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-Rモデル　　エンティティ一覧'!$A$1:$F$74</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">アカウント!$A$1:$H$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">カレンダー!$A$1:$H$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">祝日!$A$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">アカウント!$A$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">グループ!$A$1:$H$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">祝日!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">予定!$A$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">予定!$A$1:$H$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">所属!$A$1:$H$56</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -60,9 +61,9 @@
   <commentList>
     <comment ref="H17" authorId="0" shapeId="0" xr:uid="{4673EF27-2373-4416-B876-E9BF33FABC20}">
       <text>
-        <t>[スレッド化されたコメント]
-使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
-コメント:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     A_I(オートインクリメント)</t>
       </text>
     </comment>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="169">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -383,6 +384,12 @@
     <t>schedule</t>
   </si>
   <si>
+    <t>イベント</t>
+  </si>
+  <si>
+    <t>予定管理</t>
+  </si>
+  <si>
     <t>カレンダー</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -393,6 +400,9 @@
   <si>
     <t>イベント</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予定統合管理</t>
   </si>
   <si>
     <t>祝日</t>
@@ -405,12 +415,30 @@
     <t>holiday</t>
   </si>
   <si>
+    <t>マスター</t>
+  </si>
+  <si>
+    <t>祝日情報</t>
+  </si>
+  <si>
     <t>アカウント</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>account</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー情報</t>
+  </si>
+  <si>
+    <t>所属テーブル</t>
+  </si>
+  <si>
+    <t>affiliation</t>
+  </si>
+  <si>
+    <t>ユーザのグループ所属情報</t>
   </si>
   <si>
     <t>E-Rモデル図</t>
@@ -425,6 +453,13 @@
   </si>
   <si>
     <t>システム設計</t>
+  </si>
+  <si>
+    <t>瓜田</t>
+    <rPh sb="0" eb="2">
+      <t>ウリタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>データモデル設計書</t>
@@ -440,8 +475,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>schedule</t>
-    <phoneticPr fontId="2"/>
+    <t>所属</t>
   </si>
   <si>
     <t>概要</t>
@@ -451,7 +485,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>予定に関する情報</t>
+    <t>ユーザの所属情報に関する情報</t>
   </si>
   <si>
     <t>属性情報</t>
@@ -482,6 +516,33 @@
     <t>備考</t>
   </si>
   <si>
+    <t>所属ID</t>
+  </si>
+  <si>
+    <t>affiliation_id</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>AI,PK</t>
+  </si>
+  <si>
+    <t>アカウントID</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
+    <t>グループID</t>
+  </si>
+  <si>
+    <t>group_id</t>
+  </si>
+  <si>
     <t>インデックス情報</t>
   </si>
   <si>
@@ -495,6 +556,7 @@
   </si>
   <si>
     <t>リレーションシップ情報(FK側)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>動詞句</t>
@@ -506,6 +568,12 @@
     <t>参照先カラムリスト</t>
   </si>
   <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
     <t>リレーションシップ情報(PK側)</t>
   </si>
   <si>
@@ -515,18 +583,240 @@
     <t>参照元カラムリスト</t>
   </si>
   <si>
-    <t>カレンダーを表示する</t>
-    <rPh sb="6" eb="8">
+    <t>WANG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>schedule</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予定に関する情報</t>
+  </si>
+  <si>
+    <t>予定ID</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>schedule_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PK A_I</t>
+  </si>
+  <si>
+    <t>グループID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>開始日</t>
+    <rPh sb="0" eb="3">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>startday</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開始時間</t>
+    <rPh sb="0" eb="4">
+      <t>カイシジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>starttime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>終了日</t>
+    <rPh sb="0" eb="3">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>endday</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>終了時間</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>endtime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(191)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>瓜田圭佑</t>
+  </si>
+  <si>
+    <t>酒見・中村</t>
+    <rPh sb="3" eb="5">
+      <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループを表示する</t>
+    <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>group</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PK A_I</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あいことば</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>group_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リレーションシップ情報(FK側)</t>
+  </si>
+  <si>
+    <t>藤井</t>
+    <rPh sb="0" eb="2">
+      <t>フジイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>holiday</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>祝日に関する情報</t>
+  </si>
+  <si>
+    <t>祝日ID</t>
+    <rPh sb="0" eb="2">
+      <t>シュクジツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>holiday_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>国民の休日</t>
+    <rPh sb="0" eb="2">
+      <t>コクミn</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キュウジテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>holiday_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒズケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中村・酒見</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サケミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>アカウントに関する情報</t>
@@ -539,9 +829,43 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>アカウントID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>account_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mailaddress</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>CRUD図</t>
     <rPh sb="4" eb="5">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設計書</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -556,242 +880,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エンティティ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>機
-能</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
+    <t>TimeThreeのシステムCRUD図</t>
+    <rPh sb="18" eb="19">
+      <t>ズ</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>ノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>予定ID</t>
-    <rPh sb="0" eb="2">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>schedule_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>年月日</t>
-    <rPh sb="0" eb="3">
-      <t>ネンガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>祝日ID</t>
-    <rPh sb="0" eb="2">
-      <t>シュクジツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>holiday_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウントID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>account_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リレーションシップ情報(FK側)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開始日</t>
-    <rPh sb="0" eb="3">
-      <t>カイシビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開始時間</t>
-    <rPh sb="0" eb="4">
-      <t>カイシジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>終了日</t>
-    <rPh sb="0" eb="3">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>終了時間</t>
-    <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メモ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>startday</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>starttime</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>endday</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>endtime</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>memo</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NN</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CHAR(8)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(191)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>国民の休日</t>
-    <rPh sb="0" eb="2">
-      <t>コクミn</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キュウジテゥ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日付</t>
-    <rPh sb="0" eb="2">
-      <t>ヒズケ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>mailaddress</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>groupID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>あいことば</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>中村</t>
-    <rPh sb="0" eb="2">
-      <t>ナカムラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>予定ID</t>
-  </si>
-  <si>
-    <t>祝日ID</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>瓜田圭佑</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>schedule_id</t>
-  </si>
-  <si>
-    <t>holiday_id</t>
-  </si>
-  <si>
-    <t>NUMBER(8)</t>
-  </si>
-  <si>
-    <t>新規登録機能</t>
-    <rPh sb="0" eb="4">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>予定作成機能（カレンダー）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -811,95 +903,44 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TimeThreeのシステムCRUD図</t>
-    <rPh sb="18" eb="19">
-      <t>ズ</t>
+    <t>エンティティ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機
+能</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>設計書</t>
-    <rPh sb="0" eb="2">
-      <t>セッケイ</t>
+    <t>ログイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規登録機能</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショ</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>C・U</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>CHAR(20)</t>
-  </si>
-  <si>
-    <t>PK A_I</t>
-  </si>
-  <si>
-    <t>マスター</t>
-  </si>
-  <si>
-    <t>イベント</t>
-  </si>
-  <si>
-    <t>予定管理</t>
-  </si>
-  <si>
-    <t>祝日情報</t>
-  </si>
-  <si>
-    <t>ユーザー情報</t>
-  </si>
-  <si>
-    <t>予定統合管理</t>
-  </si>
-  <si>
-    <t>予定確認機能（カレンダー）</t>
-  </si>
-  <si>
-    <t>予定削除機能（カレンダー）</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>holiday_name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>mail</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>group_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>word</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カレンダーID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>calendar_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PK A_I</t>
+    <t>C</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -913,45 +954,24 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>WANG</t>
+    <t>C・U</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>藤井</t>
-    <rPh sb="0" eb="2">
-      <t>フジイ</t>
-    </rPh>
+    <t>予定作成機能（カレンダー）</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>中村・酒見</t>
-    <rPh sb="0" eb="1">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サケミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>酒見・中村</t>
-    <rPh sb="3" eb="5">
-      <t>ナカムラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NUMBER(8)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NUMBER(9)</t>
-  </si>
-  <si>
-    <t>NUMBER(10)</t>
-  </si>
-  <si>
-    <t>NUMBER(11)</t>
+    <t>予定確認機能（カレンダー）</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>予定削除機能（カレンダー）</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1166,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1159,8 +1179,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="58">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -1895,6 +1921,236 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1960,7 +2216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2319,6 +2575,36 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2472,12 +2758,105 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2487,8 +2866,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2499,88 +2896,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2634,13 +2974,13 @@
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="ハイパーリンク" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
@@ -2648,15 +2988,15 @@
     <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1_詳細設計書テンプレート" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="標準_システム管理" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="標準_種別マスタ" xfId="5" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="23" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2675,23 +3015,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>27609</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>69022</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1470716</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>84397</xdr:rowOff>
+      <xdr:colOff>1838325</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C283544A-03A7-9098-07A9-DD15E526F546}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{408B7CE5-F36C-D701-FE26-5326A43D0082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2707,8 +3047,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="379620" y="6522555"/>
-          <a:ext cx="7772400" cy="4294722"/>
+          <a:off x="0" y="6257925"/>
+          <a:ext cx="9124950" cy="5124450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2727,9 +3067,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2767,9 +3107,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2802,26 +3142,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2854,26 +3177,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3064,200 +3370,200 @@
       <selection activeCell="Z9" sqref="Z9:AB12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="11" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="17" customWidth="1"/>
-    <col min="7" max="32" width="4.1640625" style="11" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="11" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="17" customWidth="1"/>
+    <col min="7" max="32" width="4.125" style="11" customWidth="1"/>
     <col min="33" max="36" width="4" style="11" customWidth="1"/>
     <col min="37" max="256" width="9" style="11"/>
-    <col min="257" max="288" width="4.1640625" style="11" customWidth="1"/>
+    <col min="257" max="288" width="4.125" style="11" customWidth="1"/>
     <col min="289" max="292" width="4" style="11" customWidth="1"/>
     <col min="293" max="512" width="9" style="11"/>
-    <col min="513" max="544" width="4.1640625" style="11" customWidth="1"/>
+    <col min="513" max="544" width="4.125" style="11" customWidth="1"/>
     <col min="545" max="548" width="4" style="11" customWidth="1"/>
     <col min="549" max="768" width="9" style="11"/>
-    <col min="769" max="800" width="4.1640625" style="11" customWidth="1"/>
+    <col min="769" max="800" width="4.125" style="11" customWidth="1"/>
     <col min="801" max="804" width="4" style="11" customWidth="1"/>
     <col min="805" max="1024" width="9" style="11"/>
-    <col min="1025" max="1056" width="4.1640625" style="11" customWidth="1"/>
+    <col min="1025" max="1056" width="4.125" style="11" customWidth="1"/>
     <col min="1057" max="1060" width="4" style="11" customWidth="1"/>
     <col min="1061" max="1280" width="9" style="11"/>
-    <col min="1281" max="1312" width="4.1640625" style="11" customWidth="1"/>
+    <col min="1281" max="1312" width="4.125" style="11" customWidth="1"/>
     <col min="1313" max="1316" width="4" style="11" customWidth="1"/>
     <col min="1317" max="1536" width="9" style="11"/>
-    <col min="1537" max="1568" width="4.1640625" style="11" customWidth="1"/>
+    <col min="1537" max="1568" width="4.125" style="11" customWidth="1"/>
     <col min="1569" max="1572" width="4" style="11" customWidth="1"/>
     <col min="1573" max="1792" width="9" style="11"/>
-    <col min="1793" max="1824" width="4.1640625" style="11" customWidth="1"/>
+    <col min="1793" max="1824" width="4.125" style="11" customWidth="1"/>
     <col min="1825" max="1828" width="4" style="11" customWidth="1"/>
     <col min="1829" max="2048" width="9" style="11"/>
-    <col min="2049" max="2080" width="4.1640625" style="11" customWidth="1"/>
+    <col min="2049" max="2080" width="4.125" style="11" customWidth="1"/>
     <col min="2081" max="2084" width="4" style="11" customWidth="1"/>
     <col min="2085" max="2304" width="9" style="11"/>
-    <col min="2305" max="2336" width="4.1640625" style="11" customWidth="1"/>
+    <col min="2305" max="2336" width="4.125" style="11" customWidth="1"/>
     <col min="2337" max="2340" width="4" style="11" customWidth="1"/>
     <col min="2341" max="2560" width="9" style="11"/>
-    <col min="2561" max="2592" width="4.1640625" style="11" customWidth="1"/>
+    <col min="2561" max="2592" width="4.125" style="11" customWidth="1"/>
     <col min="2593" max="2596" width="4" style="11" customWidth="1"/>
     <col min="2597" max="2816" width="9" style="11"/>
-    <col min="2817" max="2848" width="4.1640625" style="11" customWidth="1"/>
+    <col min="2817" max="2848" width="4.125" style="11" customWidth="1"/>
     <col min="2849" max="2852" width="4" style="11" customWidth="1"/>
     <col min="2853" max="3072" width="9" style="11"/>
-    <col min="3073" max="3104" width="4.1640625" style="11" customWidth="1"/>
+    <col min="3073" max="3104" width="4.125" style="11" customWidth="1"/>
     <col min="3105" max="3108" width="4" style="11" customWidth="1"/>
     <col min="3109" max="3328" width="9" style="11"/>
-    <col min="3329" max="3360" width="4.1640625" style="11" customWidth="1"/>
+    <col min="3329" max="3360" width="4.125" style="11" customWidth="1"/>
     <col min="3361" max="3364" width="4" style="11" customWidth="1"/>
     <col min="3365" max="3584" width="9" style="11"/>
-    <col min="3585" max="3616" width="4.1640625" style="11" customWidth="1"/>
+    <col min="3585" max="3616" width="4.125" style="11" customWidth="1"/>
     <col min="3617" max="3620" width="4" style="11" customWidth="1"/>
     <col min="3621" max="3840" width="9" style="11"/>
-    <col min="3841" max="3872" width="4.1640625" style="11" customWidth="1"/>
+    <col min="3841" max="3872" width="4.125" style="11" customWidth="1"/>
     <col min="3873" max="3876" width="4" style="11" customWidth="1"/>
     <col min="3877" max="4096" width="9" style="11"/>
-    <col min="4097" max="4128" width="4.1640625" style="11" customWidth="1"/>
+    <col min="4097" max="4128" width="4.125" style="11" customWidth="1"/>
     <col min="4129" max="4132" width="4" style="11" customWidth="1"/>
     <col min="4133" max="4352" width="9" style="11"/>
-    <col min="4353" max="4384" width="4.1640625" style="11" customWidth="1"/>
+    <col min="4353" max="4384" width="4.125" style="11" customWidth="1"/>
     <col min="4385" max="4388" width="4" style="11" customWidth="1"/>
     <col min="4389" max="4608" width="9" style="11"/>
-    <col min="4609" max="4640" width="4.1640625" style="11" customWidth="1"/>
+    <col min="4609" max="4640" width="4.125" style="11" customWidth="1"/>
     <col min="4641" max="4644" width="4" style="11" customWidth="1"/>
     <col min="4645" max="4864" width="9" style="11"/>
-    <col min="4865" max="4896" width="4.1640625" style="11" customWidth="1"/>
+    <col min="4865" max="4896" width="4.125" style="11" customWidth="1"/>
     <col min="4897" max="4900" width="4" style="11" customWidth="1"/>
     <col min="4901" max="5120" width="9" style="11"/>
-    <col min="5121" max="5152" width="4.1640625" style="11" customWidth="1"/>
+    <col min="5121" max="5152" width="4.125" style="11" customWidth="1"/>
     <col min="5153" max="5156" width="4" style="11" customWidth="1"/>
     <col min="5157" max="5376" width="9" style="11"/>
-    <col min="5377" max="5408" width="4.1640625" style="11" customWidth="1"/>
+    <col min="5377" max="5408" width="4.125" style="11" customWidth="1"/>
     <col min="5409" max="5412" width="4" style="11" customWidth="1"/>
     <col min="5413" max="5632" width="9" style="11"/>
-    <col min="5633" max="5664" width="4.1640625" style="11" customWidth="1"/>
+    <col min="5633" max="5664" width="4.125" style="11" customWidth="1"/>
     <col min="5665" max="5668" width="4" style="11" customWidth="1"/>
     <col min="5669" max="5888" width="9" style="11"/>
-    <col min="5889" max="5920" width="4.1640625" style="11" customWidth="1"/>
+    <col min="5889" max="5920" width="4.125" style="11" customWidth="1"/>
     <col min="5921" max="5924" width="4" style="11" customWidth="1"/>
     <col min="5925" max="6144" width="9" style="11"/>
-    <col min="6145" max="6176" width="4.1640625" style="11" customWidth="1"/>
+    <col min="6145" max="6176" width="4.125" style="11" customWidth="1"/>
     <col min="6177" max="6180" width="4" style="11" customWidth="1"/>
     <col min="6181" max="6400" width="9" style="11"/>
-    <col min="6401" max="6432" width="4.1640625" style="11" customWidth="1"/>
+    <col min="6401" max="6432" width="4.125" style="11" customWidth="1"/>
     <col min="6433" max="6436" width="4" style="11" customWidth="1"/>
     <col min="6437" max="6656" width="9" style="11"/>
-    <col min="6657" max="6688" width="4.1640625" style="11" customWidth="1"/>
+    <col min="6657" max="6688" width="4.125" style="11" customWidth="1"/>
     <col min="6689" max="6692" width="4" style="11" customWidth="1"/>
     <col min="6693" max="6912" width="9" style="11"/>
-    <col min="6913" max="6944" width="4.1640625" style="11" customWidth="1"/>
+    <col min="6913" max="6944" width="4.125" style="11" customWidth="1"/>
     <col min="6945" max="6948" width="4" style="11" customWidth="1"/>
     <col min="6949" max="7168" width="9" style="11"/>
-    <col min="7169" max="7200" width="4.1640625" style="11" customWidth="1"/>
+    <col min="7169" max="7200" width="4.125" style="11" customWidth="1"/>
     <col min="7201" max="7204" width="4" style="11" customWidth="1"/>
     <col min="7205" max="7424" width="9" style="11"/>
-    <col min="7425" max="7456" width="4.1640625" style="11" customWidth="1"/>
+    <col min="7425" max="7456" width="4.125" style="11" customWidth="1"/>
     <col min="7457" max="7460" width="4" style="11" customWidth="1"/>
     <col min="7461" max="7680" width="9" style="11"/>
-    <col min="7681" max="7712" width="4.1640625" style="11" customWidth="1"/>
+    <col min="7681" max="7712" width="4.125" style="11" customWidth="1"/>
     <col min="7713" max="7716" width="4" style="11" customWidth="1"/>
     <col min="7717" max="7936" width="9" style="11"/>
-    <col min="7937" max="7968" width="4.1640625" style="11" customWidth="1"/>
+    <col min="7937" max="7968" width="4.125" style="11" customWidth="1"/>
     <col min="7969" max="7972" width="4" style="11" customWidth="1"/>
     <col min="7973" max="8192" width="9" style="11"/>
-    <col min="8193" max="8224" width="4.1640625" style="11" customWidth="1"/>
+    <col min="8193" max="8224" width="4.125" style="11" customWidth="1"/>
     <col min="8225" max="8228" width="4" style="11" customWidth="1"/>
     <col min="8229" max="8448" width="9" style="11"/>
-    <col min="8449" max="8480" width="4.1640625" style="11" customWidth="1"/>
+    <col min="8449" max="8480" width="4.125" style="11" customWidth="1"/>
     <col min="8481" max="8484" width="4" style="11" customWidth="1"/>
     <col min="8485" max="8704" width="9" style="11"/>
-    <col min="8705" max="8736" width="4.1640625" style="11" customWidth="1"/>
+    <col min="8705" max="8736" width="4.125" style="11" customWidth="1"/>
     <col min="8737" max="8740" width="4" style="11" customWidth="1"/>
     <col min="8741" max="8960" width="9" style="11"/>
-    <col min="8961" max="8992" width="4.1640625" style="11" customWidth="1"/>
+    <col min="8961" max="8992" width="4.125" style="11" customWidth="1"/>
     <col min="8993" max="8996" width="4" style="11" customWidth="1"/>
     <col min="8997" max="9216" width="9" style="11"/>
-    <col min="9217" max="9248" width="4.1640625" style="11" customWidth="1"/>
+    <col min="9217" max="9248" width="4.125" style="11" customWidth="1"/>
     <col min="9249" max="9252" width="4" style="11" customWidth="1"/>
     <col min="9253" max="9472" width="9" style="11"/>
-    <col min="9473" max="9504" width="4.1640625" style="11" customWidth="1"/>
+    <col min="9473" max="9504" width="4.125" style="11" customWidth="1"/>
     <col min="9505" max="9508" width="4" style="11" customWidth="1"/>
     <col min="9509" max="9728" width="9" style="11"/>
-    <col min="9729" max="9760" width="4.1640625" style="11" customWidth="1"/>
+    <col min="9729" max="9760" width="4.125" style="11" customWidth="1"/>
     <col min="9761" max="9764" width="4" style="11" customWidth="1"/>
     <col min="9765" max="9984" width="9" style="11"/>
-    <col min="9985" max="10016" width="4.1640625" style="11" customWidth="1"/>
+    <col min="9985" max="10016" width="4.125" style="11" customWidth="1"/>
     <col min="10017" max="10020" width="4" style="11" customWidth="1"/>
     <col min="10021" max="10240" width="9" style="11"/>
-    <col min="10241" max="10272" width="4.1640625" style="11" customWidth="1"/>
+    <col min="10241" max="10272" width="4.125" style="11" customWidth="1"/>
     <col min="10273" max="10276" width="4" style="11" customWidth="1"/>
     <col min="10277" max="10496" width="9" style="11"/>
-    <col min="10497" max="10528" width="4.1640625" style="11" customWidth="1"/>
+    <col min="10497" max="10528" width="4.125" style="11" customWidth="1"/>
     <col min="10529" max="10532" width="4" style="11" customWidth="1"/>
     <col min="10533" max="10752" width="9" style="11"/>
-    <col min="10753" max="10784" width="4.1640625" style="11" customWidth="1"/>
+    <col min="10753" max="10784" width="4.125" style="11" customWidth="1"/>
     <col min="10785" max="10788" width="4" style="11" customWidth="1"/>
     <col min="10789" max="11008" width="9" style="11"/>
-    <col min="11009" max="11040" width="4.1640625" style="11" customWidth="1"/>
+    <col min="11009" max="11040" width="4.125" style="11" customWidth="1"/>
     <col min="11041" max="11044" width="4" style="11" customWidth="1"/>
     <col min="11045" max="11264" width="9" style="11"/>
-    <col min="11265" max="11296" width="4.1640625" style="11" customWidth="1"/>
+    <col min="11265" max="11296" width="4.125" style="11" customWidth="1"/>
     <col min="11297" max="11300" width="4" style="11" customWidth="1"/>
     <col min="11301" max="11520" width="9" style="11"/>
-    <col min="11521" max="11552" width="4.1640625" style="11" customWidth="1"/>
+    <col min="11521" max="11552" width="4.125" style="11" customWidth="1"/>
     <col min="11553" max="11556" width="4" style="11" customWidth="1"/>
     <col min="11557" max="11776" width="9" style="11"/>
-    <col min="11777" max="11808" width="4.1640625" style="11" customWidth="1"/>
+    <col min="11777" max="11808" width="4.125" style="11" customWidth="1"/>
     <col min="11809" max="11812" width="4" style="11" customWidth="1"/>
     <col min="11813" max="12032" width="9" style="11"/>
-    <col min="12033" max="12064" width="4.1640625" style="11" customWidth="1"/>
+    <col min="12033" max="12064" width="4.125" style="11" customWidth="1"/>
     <col min="12065" max="12068" width="4" style="11" customWidth="1"/>
     <col min="12069" max="12288" width="9" style="11"/>
-    <col min="12289" max="12320" width="4.1640625" style="11" customWidth="1"/>
+    <col min="12289" max="12320" width="4.125" style="11" customWidth="1"/>
     <col min="12321" max="12324" width="4" style="11" customWidth="1"/>
     <col min="12325" max="12544" width="9" style="11"/>
-    <col min="12545" max="12576" width="4.1640625" style="11" customWidth="1"/>
+    <col min="12545" max="12576" width="4.125" style="11" customWidth="1"/>
     <col min="12577" max="12580" width="4" style="11" customWidth="1"/>
     <col min="12581" max="12800" width="9" style="11"/>
-    <col min="12801" max="12832" width="4.1640625" style="11" customWidth="1"/>
+    <col min="12801" max="12832" width="4.125" style="11" customWidth="1"/>
     <col min="12833" max="12836" width="4" style="11" customWidth="1"/>
     <col min="12837" max="13056" width="9" style="11"/>
-    <col min="13057" max="13088" width="4.1640625" style="11" customWidth="1"/>
+    <col min="13057" max="13088" width="4.125" style="11" customWidth="1"/>
     <col min="13089" max="13092" width="4" style="11" customWidth="1"/>
     <col min="13093" max="13312" width="9" style="11"/>
-    <col min="13313" max="13344" width="4.1640625" style="11" customWidth="1"/>
+    <col min="13313" max="13344" width="4.125" style="11" customWidth="1"/>
     <col min="13345" max="13348" width="4" style="11" customWidth="1"/>
     <col min="13349" max="13568" width="9" style="11"/>
-    <col min="13569" max="13600" width="4.1640625" style="11" customWidth="1"/>
+    <col min="13569" max="13600" width="4.125" style="11" customWidth="1"/>
     <col min="13601" max="13604" width="4" style="11" customWidth="1"/>
     <col min="13605" max="13824" width="9" style="11"/>
-    <col min="13825" max="13856" width="4.1640625" style="11" customWidth="1"/>
+    <col min="13825" max="13856" width="4.125" style="11" customWidth="1"/>
     <col min="13857" max="13860" width="4" style="11" customWidth="1"/>
     <col min="13861" max="14080" width="9" style="11"/>
-    <col min="14081" max="14112" width="4.1640625" style="11" customWidth="1"/>
+    <col min="14081" max="14112" width="4.125" style="11" customWidth="1"/>
     <col min="14113" max="14116" width="4" style="11" customWidth="1"/>
     <col min="14117" max="14336" width="9" style="11"/>
-    <col min="14337" max="14368" width="4.1640625" style="11" customWidth="1"/>
+    <col min="14337" max="14368" width="4.125" style="11" customWidth="1"/>
     <col min="14369" max="14372" width="4" style="11" customWidth="1"/>
     <col min="14373" max="14592" width="9" style="11"/>
-    <col min="14593" max="14624" width="4.1640625" style="11" customWidth="1"/>
+    <col min="14593" max="14624" width="4.125" style="11" customWidth="1"/>
     <col min="14625" max="14628" width="4" style="11" customWidth="1"/>
     <col min="14629" max="14848" width="9" style="11"/>
-    <col min="14849" max="14880" width="4.1640625" style="11" customWidth="1"/>
+    <col min="14849" max="14880" width="4.125" style="11" customWidth="1"/>
     <col min="14881" max="14884" width="4" style="11" customWidth="1"/>
     <col min="14885" max="15104" width="9" style="11"/>
-    <col min="15105" max="15136" width="4.1640625" style="11" customWidth="1"/>
+    <col min="15105" max="15136" width="4.125" style="11" customWidth="1"/>
     <col min="15137" max="15140" width="4" style="11" customWidth="1"/>
     <col min="15141" max="15360" width="9" style="11"/>
-    <col min="15361" max="15392" width="4.1640625" style="11" customWidth="1"/>
+    <col min="15361" max="15392" width="4.125" style="11" customWidth="1"/>
     <col min="15393" max="15396" width="4" style="11" customWidth="1"/>
     <col min="15397" max="15616" width="9" style="11"/>
-    <col min="15617" max="15648" width="4.1640625" style="11" customWidth="1"/>
+    <col min="15617" max="15648" width="4.125" style="11" customWidth="1"/>
     <col min="15649" max="15652" width="4" style="11" customWidth="1"/>
     <col min="15653" max="15872" width="9" style="11"/>
-    <col min="15873" max="15904" width="4.1640625" style="11" customWidth="1"/>
+    <col min="15873" max="15904" width="4.125" style="11" customWidth="1"/>
     <col min="15905" max="15908" width="4" style="11" customWidth="1"/>
     <col min="15909" max="16128" width="9" style="11"/>
-    <col min="16129" max="16160" width="4.1640625" style="11" customWidth="1"/>
+    <col min="16129" max="16160" width="4.125" style="11" customWidth="1"/>
     <col min="16161" max="16164" width="4" style="11" customWidth="1"/>
     <col min="16165" max="16384" width="9" style="11"/>
   </cols>
@@ -3494,21 +3800,21 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="128" t="s">
+      <c r="U3" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="130"/>
-      <c r="W3" s="160">
+      <c r="V3" s="140"/>
+      <c r="W3" s="170">
         <v>45060</v>
       </c>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="130"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="139"/>
+      <c r="AD3" s="139"/>
+      <c r="AE3" s="140"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -3620,20 +3926,20 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="145" t="s">
+      <c r="F7" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="147"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="157"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -3651,86 +3957,86 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="154" t="s">
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="156"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="165"/>
+      <c r="Q8" s="166"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="144" t="s">
+      <c r="W8" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="144"/>
-      <c r="Z8" s="144" t="s">
+      <c r="X8" s="154"/>
+      <c r="Y8" s="154"/>
+      <c r="Z8" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="144"/>
-      <c r="AB8" s="144"/>
-      <c r="AC8" s="144" t="s">
+      <c r="AA8" s="154"/>
+      <c r="AB8" s="154"/>
+      <c r="AC8" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="144"/>
-      <c r="AE8" s="144"/>
+      <c r="AD8" s="154"/>
+      <c r="AE8" s="154"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="159"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="168"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="168"/>
+      <c r="Q9" s="169"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="170" t="s">
+      <c r="W9" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="162"/>
-      <c r="Y9" s="163"/>
-      <c r="Z9" s="170" t="s">
+      <c r="X9" s="172"/>
+      <c r="Y9" s="173"/>
+      <c r="Z9" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="AA9" s="162"/>
-      <c r="AB9" s="163"/>
-      <c r="AC9" s="161" t="s">
+      <c r="AA9" s="172"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="AD9" s="162"/>
-      <c r="AE9" s="163"/>
+      <c r="AD9" s="172"/>
+      <c r="AE9" s="173"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -3756,15 +4062,15 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="165"/>
-      <c r="Y10" s="166"/>
-      <c r="Z10" s="164"/>
-      <c r="AA10" s="165"/>
-      <c r="AB10" s="166"/>
-      <c r="AC10" s="164"/>
-      <c r="AD10" s="165"/>
-      <c r="AE10" s="166"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="175"/>
+      <c r="Y10" s="176"/>
+      <c r="Z10" s="174"/>
+      <c r="AA10" s="175"/>
+      <c r="AB10" s="176"/>
+      <c r="AC10" s="174"/>
+      <c r="AD10" s="175"/>
+      <c r="AE10" s="176"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -3790,15 +4096,15 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="164"/>
-      <c r="X11" s="165"/>
-      <c r="Y11" s="166"/>
-      <c r="Z11" s="164"/>
-      <c r="AA11" s="165"/>
-      <c r="AB11" s="166"/>
-      <c r="AC11" s="164"/>
-      <c r="AD11" s="165"/>
-      <c r="AE11" s="166"/>
+      <c r="W11" s="174"/>
+      <c r="X11" s="175"/>
+      <c r="Y11" s="176"/>
+      <c r="Z11" s="174"/>
+      <c r="AA11" s="175"/>
+      <c r="AB11" s="176"/>
+      <c r="AC11" s="174"/>
+      <c r="AD11" s="175"/>
+      <c r="AE11" s="176"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -3824,15 +4130,15 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="167"/>
-      <c r="X12" s="168"/>
-      <c r="Y12" s="169"/>
-      <c r="Z12" s="167"/>
-      <c r="AA12" s="168"/>
-      <c r="AB12" s="169"/>
-      <c r="AC12" s="167"/>
-      <c r="AD12" s="168"/>
-      <c r="AE12" s="169"/>
+      <c r="W12" s="177"/>
+      <c r="X12" s="178"/>
+      <c r="Y12" s="179"/>
+      <c r="Z12" s="177"/>
+      <c r="AA12" s="178"/>
+      <c r="AB12" s="179"/>
+      <c r="AC12" s="177"/>
+      <c r="AD12" s="178"/>
+      <c r="AE12" s="179"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -3927,106 +4233,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="143"/>
-      <c r="N16" s="143"/>
-      <c r="O16" s="143"/>
-      <c r="P16" s="143"/>
-      <c r="Q16" s="143"/>
-      <c r="R16" s="143"/>
-      <c r="S16" s="143"/>
-      <c r="T16" s="143"/>
-      <c r="U16" s="143"/>
-      <c r="V16" s="143"/>
-      <c r="W16" s="143"/>
-      <c r="X16" s="143"/>
-      <c r="Y16" s="143"/>
-      <c r="Z16" s="143"/>
-      <c r="AA16" s="143"/>
-      <c r="AB16" s="143"/>
-      <c r="AC16" s="143"/>
-      <c r="AD16" s="143"/>
-      <c r="AE16" s="143"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="153"/>
+      <c r="T16" s="153"/>
+      <c r="U16" s="153"/>
+      <c r="V16" s="153"/>
+      <c r="W16" s="153"/>
+      <c r="X16" s="153"/>
+      <c r="Y16" s="153"/>
+      <c r="Z16" s="153"/>
+      <c r="AA16" s="153"/>
+      <c r="AB16" s="153"/>
+      <c r="AC16" s="153"/>
+      <c r="AD16" s="153"/>
+      <c r="AE16" s="153"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="143"/>
-      <c r="O17" s="143"/>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="143"/>
-      <c r="S17" s="143"/>
-      <c r="T17" s="143"/>
-      <c r="U17" s="143"/>
-      <c r="V17" s="143"/>
-      <c r="W17" s="143"/>
-      <c r="X17" s="143"/>
-      <c r="Y17" s="143"/>
-      <c r="Z17" s="143"/>
-      <c r="AA17" s="143"/>
-      <c r="AB17" s="143"/>
-      <c r="AC17" s="143"/>
-      <c r="AD17" s="143"/>
-      <c r="AE17" s="143"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="153"/>
+      <c r="S17" s="153"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="153"/>
+      <c r="V17" s="153"/>
+      <c r="W17" s="153"/>
+      <c r="X17" s="153"/>
+      <c r="Y17" s="153"/>
+      <c r="Z17" s="153"/>
+      <c r="AA17" s="153"/>
+      <c r="AB17" s="153"/>
+      <c r="AC17" s="153"/>
+      <c r="AD17" s="153"/>
+      <c r="AE17" s="153"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="143"/>
-      <c r="R18" s="143"/>
-      <c r="S18" s="143"/>
-      <c r="T18" s="143"/>
-      <c r="U18" s="143"/>
-      <c r="V18" s="143"/>
-      <c r="W18" s="143"/>
-      <c r="X18" s="143"/>
-      <c r="Y18" s="143"/>
-      <c r="Z18" s="143"/>
-      <c r="AA18" s="143"/>
-      <c r="AB18" s="143"/>
-      <c r="AC18" s="143"/>
-      <c r="AD18" s="143"/>
-      <c r="AE18" s="143"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="153"/>
+      <c r="U18" s="153"/>
+      <c r="V18" s="153"/>
+      <c r="W18" s="153"/>
+      <c r="X18" s="153"/>
+      <c r="Y18" s="153"/>
+      <c r="Z18" s="153"/>
+      <c r="AA18" s="153"/>
+      <c r="AB18" s="153"/>
+      <c r="AC18" s="153"/>
+      <c r="AD18" s="153"/>
+      <c r="AE18" s="153"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4165,390 +4471,390 @@
     </row>
     <row r="23" spans="1:32" s="39" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="128" t="s">
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="128" t="s">
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="129"/>
-      <c r="R23" s="129"/>
-      <c r="S23" s="129"/>
-      <c r="T23" s="129"/>
-      <c r="U23" s="129"/>
-      <c r="V23" s="129"/>
-      <c r="W23" s="129"/>
-      <c r="X23" s="129"/>
-      <c r="Y23" s="129"/>
-      <c r="Z23" s="129"/>
-      <c r="AA23" s="129"/>
-      <c r="AB23" s="130"/>
-      <c r="AC23" s="128" t="s">
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="139"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="139"/>
+      <c r="AA23" s="139"/>
+      <c r="AB23" s="140"/>
+      <c r="AC23" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="129"/>
-      <c r="AE23" s="130"/>
+      <c r="AD23" s="139"/>
+      <c r="AE23" s="140"/>
       <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="137">
+      <c r="B24" s="147">
         <v>1</v>
       </c>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="128" t="s">
+      <c r="C24" s="148"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="129"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="129"/>
-      <c r="Q24" s="129"/>
-      <c r="R24" s="129"/>
-      <c r="S24" s="129"/>
-      <c r="T24" s="129"/>
-      <c r="U24" s="129"/>
-      <c r="V24" s="129"/>
-      <c r="W24" s="129"/>
-      <c r="X24" s="129"/>
-      <c r="Y24" s="129"/>
-      <c r="Z24" s="129"/>
-      <c r="AA24" s="129"/>
-      <c r="AB24" s="130"/>
-      <c r="AC24" s="140" t="s">
+      <c r="K24" s="139"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="139"/>
+      <c r="N24" s="139"/>
+      <c r="O24" s="139"/>
+      <c r="P24" s="139"/>
+      <c r="Q24" s="139"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="139"/>
+      <c r="U24" s="139"/>
+      <c r="V24" s="139"/>
+      <c r="W24" s="139"/>
+      <c r="X24" s="139"/>
+      <c r="Y24" s="139"/>
+      <c r="Z24" s="139"/>
+      <c r="AA24" s="139"/>
+      <c r="AB24" s="140"/>
+      <c r="AC24" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="AD24" s="141"/>
-      <c r="AE24" s="142"/>
+      <c r="AD24" s="151"/>
+      <c r="AE24" s="152"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
-      <c r="P25" s="135"/>
-      <c r="Q25" s="135"/>
-      <c r="R25" s="135"/>
-      <c r="S25" s="135"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="135"/>
-      <c r="W25" s="135"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="135"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="136"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="129"/>
-      <c r="AE25" s="130"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="145"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="145"/>
+      <c r="S25" s="145"/>
+      <c r="T25" s="145"/>
+      <c r="U25" s="145"/>
+      <c r="V25" s="145"/>
+      <c r="W25" s="145"/>
+      <c r="X25" s="145"/>
+      <c r="Y25" s="145"/>
+      <c r="Z25" s="145"/>
+      <c r="AA25" s="145"/>
+      <c r="AB25" s="146"/>
+      <c r="AC25" s="138"/>
+      <c r="AD25" s="139"/>
+      <c r="AE25" s="140"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="135"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="135"/>
-      <c r="AB26" s="136"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="129"/>
-      <c r="AE26" s="130"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="145"/>
+      <c r="O26" s="145"/>
+      <c r="P26" s="145"/>
+      <c r="Q26" s="145"/>
+      <c r="R26" s="145"/>
+      <c r="S26" s="145"/>
+      <c r="T26" s="145"/>
+      <c r="U26" s="145"/>
+      <c r="V26" s="145"/>
+      <c r="W26" s="145"/>
+      <c r="X26" s="145"/>
+      <c r="Y26" s="145"/>
+      <c r="Z26" s="145"/>
+      <c r="AA26" s="145"/>
+      <c r="AB26" s="146"/>
+      <c r="AC26" s="138"/>
+      <c r="AD26" s="139"/>
+      <c r="AE26" s="140"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="135"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="135"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="135"/>
-      <c r="W27" s="135"/>
-      <c r="X27" s="135"/>
-      <c r="Y27" s="135"/>
-      <c r="Z27" s="135"/>
-      <c r="AA27" s="135"/>
-      <c r="AB27" s="136"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="129"/>
-      <c r="AE27" s="130"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="145"/>
+      <c r="M27" s="145"/>
+      <c r="N27" s="145"/>
+      <c r="O27" s="145"/>
+      <c r="P27" s="145"/>
+      <c r="Q27" s="145"/>
+      <c r="R27" s="145"/>
+      <c r="S27" s="145"/>
+      <c r="T27" s="145"/>
+      <c r="U27" s="145"/>
+      <c r="V27" s="145"/>
+      <c r="W27" s="145"/>
+      <c r="X27" s="145"/>
+      <c r="Y27" s="145"/>
+      <c r="Z27" s="145"/>
+      <c r="AA27" s="145"/>
+      <c r="AB27" s="146"/>
+      <c r="AC27" s="138"/>
+      <c r="AD27" s="139"/>
+      <c r="AE27" s="140"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="135"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="135"/>
-      <c r="AB28" s="136"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="129"/>
-      <c r="AE28" s="130"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="145"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="145"/>
+      <c r="T28" s="145"/>
+      <c r="U28" s="145"/>
+      <c r="V28" s="145"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="145"/>
+      <c r="Y28" s="145"/>
+      <c r="Z28" s="145"/>
+      <c r="AA28" s="145"/>
+      <c r="AB28" s="146"/>
+      <c r="AC28" s="138"/>
+      <c r="AD28" s="139"/>
+      <c r="AE28" s="140"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="135"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="135"/>
-      <c r="W29" s="135"/>
-      <c r="X29" s="135"/>
-      <c r="Y29" s="135"/>
-      <c r="Z29" s="135"/>
-      <c r="AA29" s="135"/>
-      <c r="AB29" s="136"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="129"/>
-      <c r="AE29" s="130"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="145"/>
+      <c r="Q29" s="145"/>
+      <c r="R29" s="145"/>
+      <c r="S29" s="145"/>
+      <c r="T29" s="145"/>
+      <c r="U29" s="145"/>
+      <c r="V29" s="145"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="145"/>
+      <c r="Y29" s="145"/>
+      <c r="Z29" s="145"/>
+      <c r="AA29" s="145"/>
+      <c r="AB29" s="146"/>
+      <c r="AC29" s="138"/>
+      <c r="AD29" s="139"/>
+      <c r="AE29" s="140"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="135"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
-      <c r="N30" s="135"/>
-      <c r="O30" s="135"/>
-      <c r="P30" s="135"/>
-      <c r="Q30" s="135"/>
-      <c r="R30" s="135"/>
-      <c r="S30" s="135"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="135"/>
-      <c r="V30" s="135"/>
-      <c r="W30" s="135"/>
-      <c r="X30" s="135"/>
-      <c r="Y30" s="135"/>
-      <c r="Z30" s="135"/>
-      <c r="AA30" s="135"/>
-      <c r="AB30" s="136"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="129"/>
-      <c r="AE30" s="130"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="145"/>
+      <c r="M30" s="145"/>
+      <c r="N30" s="145"/>
+      <c r="O30" s="145"/>
+      <c r="P30" s="145"/>
+      <c r="Q30" s="145"/>
+      <c r="R30" s="145"/>
+      <c r="S30" s="145"/>
+      <c r="T30" s="145"/>
+      <c r="U30" s="145"/>
+      <c r="V30" s="145"/>
+      <c r="W30" s="145"/>
+      <c r="X30" s="145"/>
+      <c r="Y30" s="145"/>
+      <c r="Z30" s="145"/>
+      <c r="AA30" s="145"/>
+      <c r="AB30" s="146"/>
+      <c r="AC30" s="138"/>
+      <c r="AD30" s="139"/>
+      <c r="AE30" s="140"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
-      <c r="N31" s="135"/>
-      <c r="O31" s="135"/>
-      <c r="P31" s="135"/>
-      <c r="Q31" s="135"/>
-      <c r="R31" s="135"/>
-      <c r="S31" s="135"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="135"/>
-      <c r="V31" s="135"/>
-      <c r="W31" s="135"/>
-      <c r="X31" s="135"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="135"/>
-      <c r="AA31" s="135"/>
-      <c r="AB31" s="136"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="129"/>
-      <c r="AE31" s="130"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="145"/>
+      <c r="M31" s="145"/>
+      <c r="N31" s="145"/>
+      <c r="O31" s="145"/>
+      <c r="P31" s="145"/>
+      <c r="Q31" s="145"/>
+      <c r="R31" s="145"/>
+      <c r="S31" s="145"/>
+      <c r="T31" s="145"/>
+      <c r="U31" s="145"/>
+      <c r="V31" s="145"/>
+      <c r="W31" s="145"/>
+      <c r="X31" s="145"/>
+      <c r="Y31" s="145"/>
+      <c r="Z31" s="145"/>
+      <c r="AA31" s="145"/>
+      <c r="AB31" s="146"/>
+      <c r="AC31" s="138"/>
+      <c r="AD31" s="139"/>
+      <c r="AE31" s="140"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
-      <c r="N32" s="135"/>
-      <c r="O32" s="135"/>
-      <c r="P32" s="135"/>
-      <c r="Q32" s="135"/>
-      <c r="R32" s="135"/>
-      <c r="S32" s="135"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="135"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="135"/>
-      <c r="AA32" s="135"/>
-      <c r="AB32" s="136"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="129"/>
-      <c r="AE32" s="130"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+      <c r="P32" s="145"/>
+      <c r="Q32" s="145"/>
+      <c r="R32" s="145"/>
+      <c r="S32" s="145"/>
+      <c r="T32" s="145"/>
+      <c r="U32" s="145"/>
+      <c r="V32" s="145"/>
+      <c r="W32" s="145"/>
+      <c r="X32" s="145"/>
+      <c r="Y32" s="145"/>
+      <c r="Z32" s="145"/>
+      <c r="AA32" s="145"/>
+      <c r="AB32" s="146"/>
+      <c r="AC32" s="138"/>
+      <c r="AD32" s="139"/>
+      <c r="AE32" s="140"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="135"/>
-      <c r="N33" s="135"/>
-      <c r="O33" s="135"/>
-      <c r="P33" s="135"/>
-      <c r="Q33" s="135"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="135"/>
-      <c r="T33" s="135"/>
-      <c r="U33" s="135"/>
-      <c r="V33" s="135"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="135"/>
-      <c r="Y33" s="135"/>
-      <c r="Z33" s="135"/>
-      <c r="AA33" s="135"/>
-      <c r="AB33" s="136"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="129"/>
-      <c r="AE33" s="130"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="145"/>
+      <c r="O33" s="145"/>
+      <c r="P33" s="145"/>
+      <c r="Q33" s="145"/>
+      <c r="R33" s="145"/>
+      <c r="S33" s="145"/>
+      <c r="T33" s="145"/>
+      <c r="U33" s="145"/>
+      <c r="V33" s="145"/>
+      <c r="W33" s="145"/>
+      <c r="X33" s="145"/>
+      <c r="Y33" s="145"/>
+      <c r="Z33" s="145"/>
+      <c r="AA33" s="145"/>
+      <c r="AB33" s="146"/>
+      <c r="AC33" s="138"/>
+      <c r="AD33" s="139"/>
+      <c r="AE33" s="140"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4665,22 +4971,22 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A3" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="14.1">
       <c r="A1" s="106" t="s">
         <v>19</v>
       </c>
@@ -4691,10 +4997,10 @@
       <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="178"/>
+      <c r="B2" s="188"/>
       <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
@@ -4705,10 +5011,10 @@
       <c r="F2" s="91"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="178"/>
+      <c r="B3" s="188"/>
       <c r="C3" s="30" t="s">
         <v>23</v>
       </c>
@@ -4719,10 +5025,10 @@
       <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="178"/>
+      <c r="B4" s="188"/>
       <c r="C4" s="30" t="s">
         <v>26</v>
       </c>
@@ -4733,10 +5039,10 @@
       <c r="F4" s="91"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="178"/>
+      <c r="B5" s="188"/>
       <c r="C5" s="30"/>
       <c r="D5" s="31"/>
       <c r="E5" s="32" t="s">
@@ -4745,10 +5051,10 @@
       <c r="F5" s="91"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="177" t="s">
+      <c r="A6" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="178"/>
+      <c r="B6" s="188"/>
       <c r="C6" s="30" t="s">
         <v>30</v>
       </c>
@@ -4789,10 +5095,10 @@
       <c r="D9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="175" t="s">
+      <c r="E9" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="176"/>
+      <c r="F9" s="186"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="59">
@@ -4805,102 +5111,112 @@
         <v>39</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="171" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="172"/>
+        <v>40</v>
+      </c>
+      <c r="E10" s="181" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="182"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="59">
         <v>2</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="171" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="172"/>
+        <v>44</v>
+      </c>
+      <c r="E11" s="181" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="182"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="59">
         <v>3</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="171" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="172"/>
+        <v>48</v>
+      </c>
+      <c r="E12" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="182"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="59">
         <v>4</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="171" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="172"/>
+        <v>40</v>
+      </c>
+      <c r="E13" s="181" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="182"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="172"/>
+      <c r="A14" s="59">
+        <v>5</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="181" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="182"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="174"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="184"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="174"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="184"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="174"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="184"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="29" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -5166,29 +5482,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2505882-294A-4BC0-8144-6818E7477797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5714C856-E474-4BCF-9C14-3D931642A96B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="14.25">
       <c r="A1" s="109" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -5226,20 +5542,20 @@
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="122" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="43" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="92">
-        <v>45060</v>
+        <v>45064</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
@@ -5248,7 +5564,7 @@
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="121" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="41"/>
@@ -5270,244 +5586,209 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="181" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="183"/>
+      <c r="C6" s="222" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="124" t="s">
-        <v>52</v>
-      </c>
+      <c r="C7" s="229" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="231"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="181" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="183"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="C8" s="222" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="224"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B9" s="46"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="183"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="223"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="224"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="184" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="185"/>
+        <v>66</v>
+      </c>
+      <c r="B10" s="129" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="226"/>
       <c r="E10" s="48" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
       <c r="A11" s="61">
         <v>1</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="186" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="187"/>
-      <c r="E11" s="63" t="s">
-        <v>103</v>
+      <c r="B11" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="227" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="228"/>
+      <c r="E11" s="128" t="s">
+        <v>75</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="65" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="66">
+      <c r="A12" s="61">
         <v>2</v>
       </c>
-      <c r="B12" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="179" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="180"/>
-      <c r="E12" s="68" t="s">
-        <v>160</v>
+      <c r="B12" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="220" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="221"/>
+      <c r="E12" s="63" t="s">
+        <v>75</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
+        <v>76</v>
+      </c>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="66">
+      <c r="A13" s="61">
         <v>3</v>
       </c>
-      <c r="B13" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="179" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="180"/>
-      <c r="E13" s="68" t="s">
-        <v>161</v>
+      <c r="B13" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="213" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="214"/>
+      <c r="E13" s="63" t="s">
+        <v>75</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+        <v>76</v>
+      </c>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="71">
-        <v>4</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="180"/>
-      <c r="E14" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="71">
-        <v>5</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="179" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="180"/>
-      <c r="E15" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="71">
-        <v>6</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="179" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="180"/>
-      <c r="E16" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>102</v>
-      </c>
+      <c r="A16" s="61"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="74"/>
       <c r="H16" s="75"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="71">
-        <v>7</v>
-      </c>
-      <c r="B17" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="179" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="68" t="s">
-        <v>105</v>
-      </c>
+      <c r="A17" s="61"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="63"/>
       <c r="G17" s="74"/>
       <c r="H17" s="75"/>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="71">
-        <v>8</v>
-      </c>
+      <c r="A18" s="61"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="74"/>
       <c r="H18" s="75"/>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="71"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="74"/>
       <c r="H19" s="75"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="71"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="180"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="214"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -5515,9 +5796,8 @@
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="180"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="214"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -5526,8 +5806,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="180"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="214"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -5536,8 +5816,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="180"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="214"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -5546,8 +5826,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="180"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="214"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -5556,8 +5836,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="180"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="214"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -5566,8 +5846,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="180"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="214"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -5576,8 +5856,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="180"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="214"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -5586,8 +5866,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="180"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="214"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -5596,342 +5876,344 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="180"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="214"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
       <c r="H29" s="75"/>
     </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="194"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="80"/>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="214"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="195" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="196"/>
-      <c r="D33" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="57" t="s">
+      <c r="A31" s="71"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="75"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A32" s="76"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="80"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A34" s="61"/>
-      <c r="B34" s="197"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="201"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="65"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A35" s="66"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="192"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="70"/>
+      <c r="B35" s="197" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="199"/>
+      <c r="D35" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="58" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A36" s="66"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="191"/>
-      <c r="F36" s="192"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="70"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="215"/>
+      <c r="C36" s="216"/>
+      <c r="D36" s="217"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="219"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="65"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="190"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="192"/>
+      <c r="B37" s="209"/>
+      <c r="C37" s="210"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="191"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="76"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="193"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="194"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="80"/>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A38" s="66"/>
+      <c r="B38" s="209"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="190"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="70"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="46" t="s">
+      <c r="A39" s="66"/>
+      <c r="B39" s="209"/>
+      <c r="C39" s="210"/>
+      <c r="D39" s="189"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="70"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A40" s="76"/>
+      <c r="B40" s="211"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="193"/>
+      <c r="F40" s="194"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="80"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="46"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="197" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="198"/>
+      <c r="E43" s="199"/>
+      <c r="F43" s="197" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="205"/>
+      <c r="H43" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="195" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="205"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="195" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="206"/>
-      <c r="H41" s="58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="81"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="199"/>
-      <c r="D42" s="200"/>
-      <c r="E42" s="201"/>
-      <c r="F42" s="199"/>
-      <c r="G42" s="201"/>
-      <c r="H42" s="83"/>
-    </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A43" s="84"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="190"/>
-      <c r="G43" s="192"/>
-      <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="84"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="191"/>
-      <c r="E44" s="192"/>
-      <c r="F44" s="190"/>
-      <c r="G44" s="192"/>
-      <c r="H44" s="86"/>
+      <c r="A44" s="94">
+        <v>1</v>
+      </c>
+      <c r="B44" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="202"/>
+      <c r="D44" s="203"/>
+      <c r="E44" s="204"/>
+      <c r="F44" s="202" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="204"/>
+      <c r="H44" s="96" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A45" s="84"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="192"/>
-      <c r="F45" s="190"/>
-      <c r="G45" s="192"/>
-      <c r="H45" s="86"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="87"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="204"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="207"/>
-      <c r="G46" s="208"/>
-      <c r="H46" s="89"/>
+      <c r="A45" s="125">
+        <v>2</v>
+      </c>
+      <c r="B45" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="206"/>
+      <c r="D45" s="207"/>
+      <c r="E45" s="208"/>
+      <c r="F45" s="206" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="208"/>
+      <c r="H45" s="127" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A46" s="84"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="189"/>
+      <c r="D46" s="190"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="189"/>
+      <c r="G46" s="191"/>
+      <c r="H46" s="86"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-    </row>
-    <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="195" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="205"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="184" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" s="209"/>
-      <c r="H49" s="49" t="s">
-        <v>73</v>
-      </c>
+      <c r="A47" s="84"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="189"/>
+      <c r="D47" s="190"/>
+      <c r="E47" s="191"/>
+      <c r="F47" s="189"/>
+      <c r="G47" s="191"/>
+      <c r="H47" s="86"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A48" s="87"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="192"/>
+      <c r="D48" s="193"/>
+      <c r="E48" s="194"/>
+      <c r="F48" s="195"/>
+      <c r="G48" s="196"/>
+      <c r="H48" s="89"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A50" s="94"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="210"/>
-      <c r="D50" s="211"/>
-      <c r="E50" s="212"/>
-      <c r="F50" s="210"/>
-      <c r="G50" s="212"/>
-      <c r="H50" s="96"/>
+      <c r="A50" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="46"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="84"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="190"/>
-      <c r="D51" s="191"/>
-      <c r="E51" s="192"/>
-      <c r="F51" s="190"/>
-      <c r="G51" s="192"/>
-      <c r="H51" s="86"/>
+      <c r="A51" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="197" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="198"/>
+      <c r="E51" s="199"/>
+      <c r="F51" s="200" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="201"/>
+      <c r="H51" s="49" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A52" s="84"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="190"/>
-      <c r="D52" s="191"/>
-      <c r="E52" s="192"/>
-      <c r="F52" s="190"/>
-      <c r="G52" s="192"/>
-      <c r="H52" s="86"/>
+      <c r="A52" s="94"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="202"/>
+      <c r="D52" s="203"/>
+      <c r="E52" s="204"/>
+      <c r="F52" s="202"/>
+      <c r="G52" s="204"/>
+      <c r="H52" s="96"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="190"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="192"/>
-      <c r="F53" s="190"/>
-      <c r="G53" s="192"/>
+      <c r="C53" s="189"/>
+      <c r="D53" s="190"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="189"/>
+      <c r="G53" s="191"/>
       <c r="H53" s="86"/>
     </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="87"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="193"/>
-      <c r="D54" s="204"/>
-      <c r="E54" s="194"/>
-      <c r="F54" s="207"/>
-      <c r="G54" s="208"/>
-      <c r="H54" s="89"/>
+    <row r="54" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A54" s="84"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="189"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="191"/>
+      <c r="F54" s="189"/>
+      <c r="G54" s="191"/>
+      <c r="H54" s="86"/>
+    </row>
+    <row r="55" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A55" s="84"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="189"/>
+      <c r="D55" s="190"/>
+      <c r="E55" s="191"/>
+      <c r="F55" s="189"/>
+      <c r="G55" s="191"/>
+      <c r="H55" s="86"/>
+    </row>
+    <row r="56" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A56" s="87"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="192"/>
+      <c r="D56" s="193"/>
+      <c r="E56" s="194"/>
+      <c r="F56" s="195"/>
+      <c r="G56" s="196"/>
+      <c r="H56" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
+  <mergeCells count="62">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -5944,12 +6226,870 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:G56"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2505882-294A-4BC0-8144-6818E7477797}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47:G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.1">
+      <c r="A1" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="111"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="92">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="122" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="92">
+        <v>45060</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="121" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="93"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="222" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="224"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="131"/>
+      <c r="C7" s="124" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="222" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="224"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A9" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="223"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="224"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="232"/>
+      <c r="E10" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="61">
+        <v>1</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="233" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="234"/>
+      <c r="E11" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="61">
+        <v>2</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="213" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="214"/>
+      <c r="E12" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="61">
+        <v>3</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="213" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="214"/>
+      <c r="E13" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="61">
+        <v>4</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="213" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="214"/>
+      <c r="E14" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="61">
+        <v>5</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="213" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="214"/>
+      <c r="E15" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="61">
+        <v>6</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="213" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="214"/>
+      <c r="E16" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="61">
+        <v>7</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="213" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="214"/>
+      <c r="E17" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="61">
+        <v>8</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="213" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="214"/>
+      <c r="E18" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="63"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="61"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="71"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="214"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="76"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="80"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A33" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="197" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="199"/>
+      <c r="D34" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="55"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="61"/>
+      <c r="B35" s="215"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="217"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="219"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="65"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="66"/>
+      <c r="B36" s="209"/>
+      <c r="C36" s="210"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="191"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="70"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A37" s="66"/>
+      <c r="B37" s="209"/>
+      <c r="C37" s="210"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="191"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="70"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A38" s="66"/>
+      <c r="B38" s="209"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="190"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="70"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="76"/>
+      <c r="B39" s="211"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="193"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="80"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A41" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="46"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="197" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="198"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="197" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="205"/>
+      <c r="H42" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="94">
+        <v>1</v>
+      </c>
+      <c r="B43" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="202"/>
+      <c r="D43" s="203"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="202" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="204"/>
+      <c r="H43" s="96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="84"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="189"/>
+      <c r="D44" s="190"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="189"/>
+      <c r="G44" s="191"/>
+      <c r="H44" s="86"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="84"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="189"/>
+      <c r="D45" s="190"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="189"/>
+      <c r="G45" s="191"/>
+      <c r="H45" s="86"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A46" s="84"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="189"/>
+      <c r="D46" s="190"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="189"/>
+      <c r="G46" s="191"/>
+      <c r="H46" s="86"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="87"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="192"/>
+      <c r="D47" s="193"/>
+      <c r="E47" s="194"/>
+      <c r="F47" s="195"/>
+      <c r="G47" s="196"/>
+      <c r="H47" s="89"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A49" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="46"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A50" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="197" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="200" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" s="201"/>
+      <c r="H50" s="49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A51" s="94"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="202"/>
+      <c r="D51" s="203"/>
+      <c r="E51" s="204"/>
+      <c r="F51" s="202"/>
+      <c r="G51" s="204"/>
+      <c r="H51" s="96"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A52" s="84"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="189"/>
+      <c r="D52" s="190"/>
+      <c r="E52" s="191"/>
+      <c r="F52" s="189"/>
+      <c r="G52" s="191"/>
+      <c r="H52" s="86"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A53" s="84"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="189"/>
+      <c r="D53" s="190"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="189"/>
+      <c r="G53" s="191"/>
+      <c r="H53" s="86"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A54" s="84"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="189"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="191"/>
+      <c r="F54" s="189"/>
+      <c r="G54" s="191"/>
+      <c r="H54" s="86"/>
+    </row>
+    <row r="55" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A55" s="87"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="192"/>
+      <c r="D55" s="193"/>
+      <c r="E55" s="194"/>
+      <c r="F55" s="195"/>
+      <c r="G55" s="196"/>
+      <c r="H55" s="89"/>
+    </row>
+    <row r="56" spans="1:8" ht="20.25" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5957,30 +7097,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382C0956-6143-4B3F-8E67-2AE75D3B01F2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H52" sqref="A52:H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.95"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="14.1">
       <c r="A1" s="109" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -6003,7 +7143,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>24</v>
@@ -6018,14 +7158,14 @@
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="42" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="43" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>31</v>
@@ -6062,11 +7202,11 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="42" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
@@ -6079,32 +7219,32 @@
         <v>35</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="181" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="183"/>
+      <c r="C7" s="222" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="224"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="181" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="183"/>
+      <c r="C8" s="222" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -6116,26 +7256,26 @@
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="184" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="185"/>
+        <v>67</v>
+      </c>
+      <c r="C10" s="200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="232"/>
       <c r="E10" s="48" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -6143,92 +7283,78 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="186" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="187"/>
+        <v>102</v>
+      </c>
+      <c r="C11" s="235" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="236"/>
       <c r="E11" s="63" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="65" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
       <c r="A12" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="186" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="187"/>
-      <c r="E12" s="63" t="s">
-        <v>118</v>
+        <v>126</v>
+      </c>
+      <c r="C12" s="220" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="221"/>
+      <c r="E12" s="68" t="s">
+        <v>117</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="G12" s="64"/>
       <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="179" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="180"/>
+        <v>128</v>
+      </c>
+      <c r="C13" s="213" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="214"/>
       <c r="E13" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="68" t="s">
         <v>117</v>
       </c>
+      <c r="F13" s="63" t="s">
+        <v>100</v>
+      </c>
       <c r="G13" s="69"/>
-      <c r="H13" s="70" t="s">
-        <v>119</v>
-      </c>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="66">
-        <v>3</v>
-      </c>
-      <c r="B14" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="179" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="180"/>
-      <c r="E14" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="68" t="s">
-        <v>117</v>
-      </c>
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="69"/>
-      <c r="H14" s="70" t="s">
-        <v>119</v>
-      </c>
+      <c r="H14" s="70"/>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="180"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="214"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -6237,8 +7363,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="180"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="214"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -6247,8 +7373,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="180"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="214"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -6257,8 +7383,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="180"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="214"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -6267,8 +7393,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="180"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="214"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -6277,8 +7403,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="180"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="214"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -6287,8 +7413,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="180"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="214"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -6297,8 +7423,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="180"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="214"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -6307,8 +7433,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="180"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="214"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -6317,8 +7443,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="180"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="214"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -6327,8 +7453,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="180"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="214"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -6337,8 +7463,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="180"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="214"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -6347,8 +7473,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="180"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="214"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -6357,8 +7483,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="180"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="214"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -6367,8 +7493,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="180"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="214"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -6377,8 +7503,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="71"/>
       <c r="B30" s="72"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="180"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="214"/>
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
       <c r="G30" s="74"/>
@@ -6387,7 +7513,7 @@
     <row r="31" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A31" s="76"/>
       <c r="B31" s="77"/>
-      <c r="C31" s="193"/>
+      <c r="C31" s="192"/>
       <c r="D31" s="194"/>
       <c r="E31" s="78"/>
       <c r="F31" s="78"/>
@@ -6406,7 +7532,7 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="46" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B33" s="46"/>
       <c r="C33" s="52"/>
@@ -6418,70 +7544,70 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="195" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="196"/>
+        <v>66</v>
+      </c>
+      <c r="B34" s="197" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="199"/>
       <c r="D34" s="54" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E34" s="55"/>
       <c r="F34" s="56"/>
       <c r="G34" s="57" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H34" s="58" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="61"/>
-      <c r="B35" s="197"/>
-      <c r="C35" s="198"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="200"/>
-      <c r="F35" s="201"/>
+      <c r="B35" s="215"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="217"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="219"/>
       <c r="G35" s="64"/>
       <c r="H35" s="65"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="191"/>
-      <c r="F36" s="192"/>
+      <c r="B36" s="209"/>
+      <c r="C36" s="210"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="191"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="190"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="192"/>
+      <c r="B37" s="209"/>
+      <c r="C37" s="210"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="191"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="66"/>
-      <c r="B38" s="188"/>
-      <c r="C38" s="189"/>
-      <c r="D38" s="190"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="192"/>
+      <c r="B38" s="209"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="190"/>
+      <c r="F38" s="191"/>
       <c r="G38" s="69"/>
       <c r="H38" s="70"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="76"/>
-      <c r="B39" s="202"/>
-      <c r="C39" s="203"/>
-      <c r="D39" s="193"/>
-      <c r="E39" s="204"/>
+      <c r="B39" s="211"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="193"/>
       <c r="F39" s="194"/>
       <c r="G39" s="79"/>
       <c r="H39" s="80"/>
@@ -6498,7 +7624,7 @@
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="46" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B41" s="46"/>
       <c r="C41" s="52"/>
@@ -6510,88 +7636,72 @@
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="53" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="195" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="205"/>
-      <c r="E42" s="196"/>
-      <c r="F42" s="195" t="s">
-        <v>69</v>
-      </c>
-      <c r="G42" s="206"/>
+        <v>87</v>
+      </c>
+      <c r="C42" s="197" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="198"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="197" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="205"/>
       <c r="H42" s="58" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A43" s="94">
-        <v>1</v>
-      </c>
-      <c r="B43" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="210"/>
-      <c r="D43" s="211"/>
-      <c r="E43" s="212"/>
-      <c r="F43" s="210" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="212"/>
-      <c r="H43" s="96" t="s">
-        <v>122</v>
-      </c>
+      <c r="A43" s="94"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="202"/>
+      <c r="D43" s="203"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="202"/>
+      <c r="G43" s="204"/>
+      <c r="H43" s="96"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="125">
-        <v>2</v>
-      </c>
-      <c r="B44" s="126" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="213"/>
-      <c r="D44" s="214"/>
-      <c r="E44" s="215"/>
-      <c r="F44" s="213" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="215"/>
-      <c r="H44" s="127" t="s">
-        <v>123</v>
-      </c>
+      <c r="A44" s="125"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="206"/>
+      <c r="D44" s="207"/>
+      <c r="E44" s="208"/>
+      <c r="F44" s="206"/>
+      <c r="G44" s="208"/>
+      <c r="H44" s="127"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="192"/>
-      <c r="F45" s="190"/>
-      <c r="G45" s="192"/>
+      <c r="C45" s="189"/>
+      <c r="D45" s="190"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="189"/>
+      <c r="G45" s="191"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="84"/>
       <c r="B46" s="85"/>
-      <c r="C46" s="190"/>
-      <c r="D46" s="191"/>
-      <c r="E46" s="192"/>
-      <c r="F46" s="190"/>
-      <c r="G46" s="192"/>
+      <c r="C46" s="189"/>
+      <c r="D46" s="190"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="189"/>
+      <c r="G46" s="191"/>
       <c r="H46" s="86"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="87"/>
       <c r="B47" s="88"/>
-      <c r="C47" s="193"/>
-      <c r="D47" s="204"/>
+      <c r="C47" s="192"/>
+      <c r="D47" s="193"/>
       <c r="E47" s="194"/>
-      <c r="F47" s="207"/>
-      <c r="G47" s="208"/>
+      <c r="F47" s="195"/>
+      <c r="G47" s="196"/>
       <c r="H47" s="89"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -6606,7 +7716,7 @@
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="46" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B49" s="46"/>
       <c r="C49" s="52"/>
@@ -6618,72 +7728,88 @@
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="47" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B50" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="195" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="205"/>
-      <c r="E50" s="196"/>
-      <c r="F50" s="184" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" s="209"/>
+        <v>87</v>
+      </c>
+      <c r="C50" s="197" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="200" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" s="201"/>
       <c r="H50" s="49" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="94"/>
-      <c r="B51" s="95"/>
-      <c r="C51" s="210"/>
-      <c r="D51" s="211"/>
-      <c r="E51" s="212"/>
-      <c r="F51" s="210"/>
-      <c r="G51" s="212"/>
-      <c r="H51" s="96"/>
+      <c r="A51" s="94">
+        <v>1</v>
+      </c>
+      <c r="B51" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="202" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="203"/>
+      <c r="E51" s="204"/>
+      <c r="F51" s="202"/>
+      <c r="G51" s="204"/>
+      <c r="H51" s="96" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A52" s="84"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="190"/>
-      <c r="D52" s="191"/>
-      <c r="E52" s="192"/>
-      <c r="F52" s="190"/>
-      <c r="G52" s="192"/>
-      <c r="H52" s="86"/>
+      <c r="A52" s="125">
+        <v>2</v>
+      </c>
+      <c r="B52" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="206" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="207"/>
+      <c r="E52" s="208"/>
+      <c r="F52" s="206"/>
+      <c r="G52" s="208"/>
+      <c r="H52" s="127" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="190"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="192"/>
-      <c r="F53" s="190"/>
-      <c r="G53" s="192"/>
+      <c r="C53" s="189"/>
+      <c r="D53" s="190"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="189"/>
+      <c r="G53" s="191"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="84"/>
       <c r="B54" s="85"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="192"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="192"/>
+      <c r="C54" s="189"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="191"/>
+      <c r="F54" s="189"/>
+      <c r="G54" s="191"/>
       <c r="H54" s="86"/>
     </row>
     <row r="55" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="87"/>
       <c r="B55" s="88"/>
-      <c r="C55" s="193"/>
-      <c r="D55" s="204"/>
+      <c r="C55" s="192"/>
+      <c r="D55" s="193"/>
       <c r="E55" s="194"/>
-      <c r="F55" s="207"/>
-      <c r="G55" s="208"/>
+      <c r="F55" s="195"/>
+      <c r="G55" s="196"/>
       <c r="H55" s="89"/>
     </row>
   </sheetData>
@@ -6755,30 +7881,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CFDFA1-F1E9-4BAD-B767-B6BD9D82725A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.95"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="14.1">
       <c r="A1" s="109" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -6816,14 +7942,14 @@
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="42" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="43" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>31</v>
@@ -6860,49 +7986,49 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="181" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="183"/>
+      <c r="C6" s="222" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="181" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="183"/>
+      <c r="C7" s="222" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="224"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="181" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="183"/>
+      <c r="C8" s="222" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -6914,26 +8040,26 @@
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="184" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="185"/>
+        <v>67</v>
+      </c>
+      <c r="C10" s="200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="232"/>
       <c r="E10" s="48" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -6941,21 +8067,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="186" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="187"/>
+        <v>134</v>
+      </c>
+      <c r="C11" s="233" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="234"/>
       <c r="E11" s="63" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="65" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -6963,17 +8089,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="179" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="180"/>
+        <v>136</v>
+      </c>
+      <c r="C12" s="213" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="214"/>
       <c r="E12" s="68" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G12" s="69"/>
       <c r="H12" s="70"/>
@@ -6983,17 +8109,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="179" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="180"/>
+        <v>139</v>
+      </c>
+      <c r="C13" s="213" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="214"/>
       <c r="E13" s="68" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G13" s="69"/>
       <c r="H13" s="70"/>
@@ -7001,8 +8127,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="180"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="214"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -7011,8 +8137,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="180"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="214"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -7021,8 +8147,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="180"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="214"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -7031,8 +8157,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="180"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="214"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -7041,8 +8167,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="180"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="214"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -7051,8 +8177,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="180"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="214"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -7061,8 +8187,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="180"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="214"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -7071,8 +8197,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="180"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="214"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -7081,8 +8207,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="180"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="214"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -7091,8 +8217,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="180"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="214"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -7101,8 +8227,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="180"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="214"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -7111,8 +8237,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="180"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="214"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -7121,8 +8247,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="180"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="214"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -7131,8 +8257,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="180"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="214"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -7141,8 +8267,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="180"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="214"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -7151,8 +8277,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="180"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="214"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -7161,7 +8287,7 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="193"/>
+      <c r="C30" s="192"/>
       <c r="D30" s="194"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
@@ -7180,7 +8306,7 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="46" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="52"/>
@@ -7192,70 +8318,70 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="195" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="196"/>
+        <v>66</v>
+      </c>
+      <c r="B33" s="197" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="199"/>
       <c r="D33" s="54" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="56"/>
       <c r="G33" s="57" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H33" s="58" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="197"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="201"/>
+      <c r="B34" s="215"/>
+      <c r="C34" s="216"/>
+      <c r="D34" s="217"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="219"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="192"/>
+      <c r="B35" s="209"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="191"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="191"/>
-      <c r="F36" s="192"/>
+      <c r="B36" s="209"/>
+      <c r="C36" s="210"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="191"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="190"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="192"/>
+      <c r="B37" s="209"/>
+      <c r="C37" s="210"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="191"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="193"/>
-      <c r="E38" s="204"/>
+      <c r="B38" s="211"/>
+      <c r="C38" s="212"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="193"/>
       <c r="F38" s="194"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
@@ -7272,7 +8398,7 @@
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="46" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="52"/>
@@ -7284,72 +8410,72 @@
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="53" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="195" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="205"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="195" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="206"/>
+        <v>87</v>
+      </c>
+      <c r="C41" s="197" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="198"/>
+      <c r="E41" s="199"/>
+      <c r="F41" s="197" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="205"/>
       <c r="H41" s="58" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="199"/>
-      <c r="D42" s="200"/>
-      <c r="E42" s="201"/>
-      <c r="F42" s="199"/>
-      <c r="G42" s="201"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="218"/>
+      <c r="E42" s="219"/>
+      <c r="F42" s="217"/>
+      <c r="G42" s="219"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="190"/>
-      <c r="G43" s="192"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="190"/>
+      <c r="E43" s="191"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="191"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="191"/>
-      <c r="E44" s="192"/>
-      <c r="F44" s="190"/>
-      <c r="G44" s="192"/>
+      <c r="C44" s="189"/>
+      <c r="D44" s="190"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="189"/>
+      <c r="G44" s="191"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="192"/>
-      <c r="F45" s="190"/>
-      <c r="G45" s="192"/>
+      <c r="C45" s="189"/>
+      <c r="D45" s="190"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="189"/>
+      <c r="G45" s="191"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="204"/>
+      <c r="C46" s="192"/>
+      <c r="D46" s="193"/>
       <c r="E46" s="194"/>
-      <c r="F46" s="207"/>
-      <c r="G46" s="208"/>
+      <c r="F46" s="195"/>
+      <c r="G46" s="196"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7364,7 +8490,7 @@
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="46" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B48" s="46"/>
       <c r="C48" s="52"/>
@@ -7376,72 +8502,72 @@
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="47" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="195" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="205"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="184" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" s="209"/>
+        <v>87</v>
+      </c>
+      <c r="C49" s="197" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="198"/>
+      <c r="E49" s="199"/>
+      <c r="F49" s="200" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="201"/>
       <c r="H49" s="49" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="210"/>
-      <c r="D50" s="211"/>
-      <c r="E50" s="212"/>
-      <c r="F50" s="210"/>
-      <c r="G50" s="212"/>
+      <c r="C50" s="202"/>
+      <c r="D50" s="203"/>
+      <c r="E50" s="204"/>
+      <c r="F50" s="202"/>
+      <c r="G50" s="204"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="190"/>
-      <c r="D51" s="191"/>
-      <c r="E51" s="192"/>
-      <c r="F51" s="190"/>
-      <c r="G51" s="192"/>
+      <c r="C51" s="189"/>
+      <c r="D51" s="190"/>
+      <c r="E51" s="191"/>
+      <c r="F51" s="189"/>
+      <c r="G51" s="191"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="190"/>
-      <c r="D52" s="191"/>
-      <c r="E52" s="192"/>
-      <c r="F52" s="190"/>
-      <c r="G52" s="192"/>
+      <c r="C52" s="189"/>
+      <c r="D52" s="190"/>
+      <c r="E52" s="191"/>
+      <c r="F52" s="189"/>
+      <c r="G52" s="191"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="190"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="192"/>
-      <c r="F53" s="190"/>
-      <c r="G53" s="192"/>
+      <c r="C53" s="189"/>
+      <c r="D53" s="190"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="189"/>
+      <c r="G53" s="191"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="193"/>
-      <c r="D54" s="204"/>
+      <c r="C54" s="192"/>
+      <c r="D54" s="193"/>
       <c r="E54" s="194"/>
-      <c r="F54" s="207"/>
-      <c r="G54" s="208"/>
+      <c r="F54" s="195"/>
+      <c r="G54" s="196"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
@@ -7512,30 +8638,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.95"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="14.1">
       <c r="A1" s="109" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -7558,7 +8684,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>24</v>
@@ -7573,14 +8699,14 @@
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="42" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="43" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>31</v>
@@ -7617,49 +8743,49 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="181" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="183"/>
+      <c r="C6" s="222" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="181" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="183"/>
+      <c r="C7" s="222" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="224"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="181" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="183"/>
+      <c r="C8" s="222" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -7671,26 +8797,26 @@
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="184" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="185"/>
+        <v>67</v>
+      </c>
+      <c r="C10" s="200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="232"/>
       <c r="E10" s="48" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -7698,21 +8824,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="186" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="187"/>
+        <v>144</v>
+      </c>
+      <c r="C11" s="233" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="234"/>
       <c r="E11" s="63" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="65" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -7720,17 +8846,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="179" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="180"/>
+        <v>146</v>
+      </c>
+      <c r="C12" s="213" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="214"/>
       <c r="E12" s="68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G12" s="69"/>
       <c r="H12" s="70"/>
@@ -7740,53 +8866,37 @@
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="179" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="213" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="180"/>
+      <c r="D13" s="214"/>
       <c r="E13" s="68" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G13" s="69"/>
       <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="71">
-        <v>4</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="179" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="180"/>
-      <c r="E14" s="73" t="s">
-        <v>103</v>
-      </c>
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="63"/>
       <c r="G14" s="74"/>
       <c r="H14" s="75"/>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="71">
-        <v>5</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="179" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="180"/>
-      <c r="E15" s="73" t="s">
-        <v>103</v>
-      </c>
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="63"/>
       <c r="G15" s="74"/>
       <c r="H15" s="75"/>
@@ -7794,8 +8904,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="180"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="214"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -7804,8 +8914,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="180"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="214"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -7814,8 +8924,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="180"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="214"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -7824,8 +8934,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="180"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="214"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -7834,8 +8944,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="180"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="214"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -7844,8 +8954,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="180"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="214"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -7854,8 +8964,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="180"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="214"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -7864,8 +8974,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="180"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="214"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -7874,8 +8984,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="180"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="214"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -7884,8 +8994,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="180"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="214"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -7894,8 +9004,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="180"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="214"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -7904,8 +9014,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="180"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="214"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -7914,8 +9024,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="180"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="214"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -7924,8 +9034,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="180"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="214"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -7934,7 +9044,7 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="193"/>
+      <c r="C30" s="192"/>
       <c r="D30" s="194"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
@@ -7953,7 +9063,7 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="46" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="52"/>
@@ -7965,70 +9075,70 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="195" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="196"/>
+        <v>66</v>
+      </c>
+      <c r="B33" s="197" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="199"/>
       <c r="D33" s="54" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="56"/>
       <c r="G33" s="57" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H33" s="58" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="197"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="201"/>
+      <c r="B34" s="215"/>
+      <c r="C34" s="216"/>
+      <c r="D34" s="217"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="219"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="188"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="192"/>
+      <c r="B35" s="209"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="191"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="191"/>
-      <c r="F36" s="192"/>
+      <c r="B36" s="209"/>
+      <c r="C36" s="210"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="191"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="190"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="192"/>
+      <c r="B37" s="209"/>
+      <c r="C37" s="210"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="191"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="193"/>
-      <c r="E38" s="204"/>
+      <c r="B38" s="211"/>
+      <c r="C38" s="212"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="193"/>
       <c r="F38" s="194"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
@@ -8045,7 +9155,7 @@
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="46" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="52"/>
@@ -8057,72 +9167,72 @@
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="53" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="195" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="205"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="195" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="206"/>
+        <v>87</v>
+      </c>
+      <c r="C41" s="197" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="198"/>
+      <c r="E41" s="199"/>
+      <c r="F41" s="197" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="205"/>
       <c r="H41" s="58" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="199"/>
-      <c r="D42" s="200"/>
-      <c r="E42" s="201"/>
-      <c r="F42" s="199"/>
-      <c r="G42" s="201"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="218"/>
+      <c r="E42" s="219"/>
+      <c r="F42" s="217"/>
+      <c r="G42" s="219"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="190"/>
-      <c r="G43" s="192"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="190"/>
+      <c r="E43" s="191"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="191"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="191"/>
-      <c r="E44" s="192"/>
-      <c r="F44" s="190"/>
-      <c r="G44" s="192"/>
+      <c r="C44" s="189"/>
+      <c r="D44" s="190"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="189"/>
+      <c r="G44" s="191"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="192"/>
-      <c r="F45" s="190"/>
-      <c r="G45" s="192"/>
+      <c r="C45" s="189"/>
+      <c r="D45" s="190"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="189"/>
+      <c r="G45" s="191"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="204"/>
+      <c r="C46" s="192"/>
+      <c r="D46" s="193"/>
       <c r="E46" s="194"/>
-      <c r="F46" s="207"/>
-      <c r="G46" s="208"/>
+      <c r="F46" s="195"/>
+      <c r="G46" s="196"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8135,9 +9245,9 @@
       <c r="G47" s="51"/>
       <c r="H47" s="51"/>
     </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+    <row r="48" spans="1:8" ht="20.25" customHeight="1">
       <c r="A48" s="46" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B48" s="46"/>
       <c r="C48" s="52"/>
@@ -8147,74 +9257,74 @@
       <c r="G48" s="52"/>
       <c r="H48" s="52"/>
     </row>
-    <row r="49" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="195" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="205"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="184" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" s="209"/>
-      <c r="H49" s="49" t="s">
-        <v>73</v>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A49" s="132" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="237" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="241"/>
+      <c r="E49" s="242"/>
+      <c r="F49" s="237" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="238"/>
+      <c r="H49" s="134" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A50" s="94"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="210"/>
-      <c r="D50" s="211"/>
-      <c r="E50" s="212"/>
-      <c r="F50" s="210"/>
-      <c r="G50" s="212"/>
-      <c r="H50" s="96"/>
+      <c r="A50" s="137"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="239"/>
+      <c r="D50" s="243"/>
+      <c r="E50" s="240"/>
+      <c r="F50" s="239"/>
+      <c r="G50" s="240"/>
+      <c r="H50" s="135"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="190"/>
-      <c r="D51" s="191"/>
-      <c r="E51" s="192"/>
-      <c r="F51" s="190"/>
-      <c r="G51" s="192"/>
+      <c r="C51" s="189"/>
+      <c r="D51" s="190"/>
+      <c r="E51" s="191"/>
+      <c r="F51" s="189"/>
+      <c r="G51" s="191"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="190"/>
-      <c r="D52" s="191"/>
-      <c r="E52" s="192"/>
-      <c r="F52" s="190"/>
-      <c r="G52" s="192"/>
+      <c r="C52" s="189"/>
+      <c r="D52" s="190"/>
+      <c r="E52" s="191"/>
+      <c r="F52" s="189"/>
+      <c r="G52" s="191"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="190"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="192"/>
-      <c r="F53" s="190"/>
-      <c r="G53" s="192"/>
+      <c r="C53" s="189"/>
+      <c r="D53" s="190"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="189"/>
+      <c r="G53" s="191"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="193"/>
-      <c r="D54" s="204"/>
+      <c r="C54" s="192"/>
+      <c r="D54" s="193"/>
       <c r="E54" s="194"/>
-      <c r="F54" s="207"/>
-      <c r="G54" s="208"/>
+      <c r="F54" s="195"/>
+      <c r="G54" s="196"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
@@ -8290,27 +9400,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.95"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="12" width="10.1640625" customWidth="1"/>
+    <col min="3" max="12" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -8329,41 +9439,41 @@
       <c r="A2" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="218" t="s">
+      <c r="B2" s="246" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="217"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="245"/>
       <c r="H2" s="32" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="116" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="J2" s="116"/>
       <c r="K2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="216">
+      <c r="L2" s="244">
         <v>45061</v>
       </c>
-      <c r="M2" s="217"/>
+      <c r="M2" s="245"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1">
       <c r="A3" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="246" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="217"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="245"/>
       <c r="H3" s="32" t="s">
         <v>28</v>
       </c>
@@ -8372,67 +9482,67 @@
       <c r="K3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="218"/>
-      <c r="M3" s="217"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="245"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1">
       <c r="A4" s="115" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="42"/>
-      <c r="C4" s="226" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="226"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
-      <c r="H4" s="226"/>
-      <c r="I4" s="226"/>
-      <c r="J4" s="227"/>
+      <c r="C4" s="254" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="255"/>
       <c r="K4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="218"/>
-      <c r="M4" s="217"/>
+      <c r="L4" s="246"/>
+      <c r="M4" s="245"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1">
       <c r="A5" s="118" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="228" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="226"/>
-      <c r="D5" s="226"/>
-      <c r="E5" s="226"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="226"/>
-      <c r="H5" s="226"/>
-      <c r="I5" s="226"/>
-      <c r="J5" s="226"/>
-      <c r="K5" s="226"/>
-      <c r="L5" s="226"/>
-      <c r="M5" s="227"/>
+        <v>152</v>
+      </c>
+      <c r="B5" s="256" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="254"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="254"/>
+      <c r="M5" s="255"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1">
       <c r="A6" s="119" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="228" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="226"/>
-      <c r="H6" s="226"/>
-      <c r="I6" s="226"/>
-      <c r="J6" s="226"/>
-      <c r="K6" s="226"/>
-      <c r="L6" s="226"/>
-      <c r="M6" s="227"/>
+        <v>63</v>
+      </c>
+      <c r="B6" s="256" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="254"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="254"/>
+      <c r="H6" s="254"/>
+      <c r="I6" s="254"/>
+      <c r="J6" s="254"/>
+      <c r="K6" s="254"/>
+      <c r="L6" s="254"/>
+      <c r="M6" s="255"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="97"/>
@@ -8441,14 +9551,14 @@
     <row r="8" spans="1:13" ht="21.75" customHeight="1">
       <c r="A8" s="97"/>
       <c r="F8" s="98"/>
-      <c r="G8" s="219" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="220"/>
-      <c r="I8" s="220"/>
-      <c r="J8" s="220"/>
-      <c r="K8" s="220"/>
-      <c r="L8" s="221"/>
+      <c r="G8" s="247" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="248"/>
+      <c r="I8" s="248"/>
+      <c r="J8" s="248"/>
+      <c r="K8" s="248"/>
+      <c r="L8" s="249"/>
       <c r="M8" s="98"/>
     </row>
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
@@ -8462,13 +9572,13 @@
         <v>38</v>
       </c>
       <c r="H9" s="102" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I9" s="102" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J9" s="102" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="102"/>
@@ -8476,26 +9586,26 @@
     </row>
     <row r="10" spans="1:13" ht="22.5" customHeight="1">
       <c r="A10" s="97"/>
-      <c r="B10" s="229" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="222" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="224"/>
+      <c r="B10" s="257" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="250" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="251"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="252"/>
       <c r="G10" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="H10" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I10" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="J10" s="102" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="K10" s="102"/>
       <c r="L10" s="102"/>
@@ -8503,24 +9613,24 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="97"/>
-      <c r="B11" s="230"/>
-      <c r="C11" s="222" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="224"/>
+      <c r="B11" s="258"/>
+      <c r="C11" s="250" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="251"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="252"/>
       <c r="G11" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="H11" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I11" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="J11" s="102" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="K11" s="102"/>
       <c r="L11" s="102"/>
@@ -8528,24 +9638,24 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="97"/>
-      <c r="B12" s="230"/>
-      <c r="C12" s="222" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="223"/>
-      <c r="E12" s="223"/>
-      <c r="F12" s="224"/>
+      <c r="B12" s="258"/>
+      <c r="C12" s="250" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="251"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="252"/>
       <c r="G12" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="H12" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I12" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="J12" s="102" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="K12" s="102"/>
       <c r="L12" s="102"/>
@@ -8553,24 +9663,24 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="97"/>
-      <c r="B13" s="230"/>
-      <c r="C13" s="222" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="223"/>
-      <c r="E13" s="223"/>
-      <c r="F13" s="224"/>
+      <c r="B13" s="258"/>
+      <c r="C13" s="250" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="251"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="252"/>
       <c r="G13" s="102" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="H13" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I13" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="J13" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="K13" s="102"/>
       <c r="L13" s="102"/>
@@ -8578,24 +9688,24 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="97"/>
-      <c r="B14" s="230"/>
-      <c r="C14" s="222" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="223"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="224"/>
+      <c r="B14" s="258"/>
+      <c r="C14" s="250" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="251"/>
+      <c r="E14" s="251"/>
+      <c r="F14" s="252"/>
       <c r="G14" s="102" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="H14" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I14" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="J14" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="K14" s="102"/>
       <c r="L14" s="102"/>
@@ -8603,24 +9713,24 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="97"/>
-      <c r="B15" s="230"/>
-      <c r="C15" s="222" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="223"/>
-      <c r="E15" s="223"/>
-      <c r="F15" s="224"/>
+      <c r="B15" s="258"/>
+      <c r="C15" s="250" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="251"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="252"/>
       <c r="G15" s="102" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="H15" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I15" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="J15" s="102" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="K15" s="102"/>
       <c r="L15" s="102"/>
@@ -8628,11 +9738,11 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="97"/>
-      <c r="B16" s="230"/>
-      <c r="C16" s="222"/>
-      <c r="D16" s="223"/>
-      <c r="E16" s="223"/>
-      <c r="F16" s="224"/>
+      <c r="B16" s="258"/>
+      <c r="C16" s="250"/>
+      <c r="D16" s="251"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="252"/>
       <c r="G16" s="102"/>
       <c r="H16" s="102"/>
       <c r="I16" s="102"/>
@@ -8643,11 +9753,11 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="97"/>
-      <c r="B17" s="230"/>
-      <c r="C17" s="222"/>
-      <c r="D17" s="223"/>
-      <c r="E17" s="223"/>
-      <c r="F17" s="224"/>
+      <c r="B17" s="258"/>
+      <c r="C17" s="250"/>
+      <c r="D17" s="251"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="252"/>
       <c r="G17" s="102"/>
       <c r="H17" s="102"/>
       <c r="I17" s="102"/>
@@ -8658,11 +9768,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="97"/>
-      <c r="B18" s="230"/>
-      <c r="C18" s="222"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="224"/>
+      <c r="B18" s="258"/>
+      <c r="C18" s="250"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="252"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
       <c r="I18" s="102"/>
@@ -8673,11 +9783,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="97"/>
-      <c r="B19" s="230"/>
-      <c r="C19" s="222"/>
-      <c r="D19" s="223"/>
-      <c r="E19" s="223"/>
-      <c r="F19" s="224"/>
+      <c r="B19" s="258"/>
+      <c r="C19" s="250"/>
+      <c r="D19" s="251"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="252"/>
       <c r="G19" s="102"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
@@ -8688,11 +9798,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="97"/>
-      <c r="B20" s="230"/>
-      <c r="C20" s="222"/>
-      <c r="D20" s="223"/>
-      <c r="E20" s="223"/>
-      <c r="F20" s="224"/>
+      <c r="B20" s="258"/>
+      <c r="C20" s="250"/>
+      <c r="D20" s="251"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="252"/>
       <c r="G20" s="102"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
@@ -8703,11 +9813,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="97"/>
-      <c r="B21" s="230"/>
-      <c r="C21" s="222"/>
-      <c r="D21" s="223"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="224"/>
+      <c r="B21" s="258"/>
+      <c r="C21" s="250"/>
+      <c r="D21" s="251"/>
+      <c r="E21" s="251"/>
+      <c r="F21" s="252"/>
       <c r="G21" s="102"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
@@ -8718,11 +9828,11 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="97"/>
-      <c r="B22" s="230"/>
-      <c r="C22" s="222"/>
-      <c r="D22" s="223"/>
-      <c r="E22" s="223"/>
-      <c r="F22" s="224"/>
+      <c r="B22" s="258"/>
+      <c r="C22" s="250"/>
+      <c r="D22" s="251"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="252"/>
       <c r="G22" s="102"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
@@ -8733,11 +9843,11 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="97"/>
-      <c r="B23" s="230"/>
-      <c r="C23" s="222"/>
-      <c r="D23" s="223"/>
-      <c r="E23" s="223"/>
-      <c r="F23" s="224"/>
+      <c r="B23" s="258"/>
+      <c r="C23" s="250"/>
+      <c r="D23" s="251"/>
+      <c r="E23" s="251"/>
+      <c r="F23" s="252"/>
       <c r="G23" s="102"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
@@ -8748,11 +9858,11 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="97"/>
-      <c r="B24" s="230"/>
-      <c r="C24" s="222"/>
-      <c r="D24" s="223"/>
-      <c r="E24" s="223"/>
-      <c r="F24" s="224"/>
+      <c r="B24" s="258"/>
+      <c r="C24" s="250"/>
+      <c r="D24" s="251"/>
+      <c r="E24" s="251"/>
+      <c r="F24" s="252"/>
       <c r="G24" s="102"/>
       <c r="H24" s="102"/>
       <c r="I24" s="102"/>
@@ -8763,11 +9873,11 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="97"/>
-      <c r="B25" s="230"/>
-      <c r="C25" s="222"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="223"/>
-      <c r="F25" s="224"/>
+      <c r="B25" s="258"/>
+      <c r="C25" s="250"/>
+      <c r="D25" s="251"/>
+      <c r="E25" s="251"/>
+      <c r="F25" s="252"/>
       <c r="G25" s="102"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
@@ -8778,11 +9888,11 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="97"/>
-      <c r="B26" s="230"/>
-      <c r="C26" s="222"/>
-      <c r="D26" s="223"/>
-      <c r="E26" s="223"/>
-      <c r="F26" s="224"/>
+      <c r="B26" s="258"/>
+      <c r="C26" s="250"/>
+      <c r="D26" s="251"/>
+      <c r="E26" s="251"/>
+      <c r="F26" s="252"/>
       <c r="G26" s="102"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
@@ -8793,11 +9903,11 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="97"/>
-      <c r="B27" s="230"/>
-      <c r="C27" s="222"/>
-      <c r="D27" s="223"/>
-      <c r="E27" s="223"/>
-      <c r="F27" s="224"/>
+      <c r="B27" s="258"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="251"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="252"/>
       <c r="G27" s="102"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
@@ -8808,11 +9918,11 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="97"/>
-      <c r="B28" s="230"/>
-      <c r="C28" s="222"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="224"/>
+      <c r="B28" s="258"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="251"/>
+      <c r="E28" s="251"/>
+      <c r="F28" s="252"/>
       <c r="G28" s="102"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
@@ -8823,11 +9933,11 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="97"/>
-      <c r="B29" s="230"/>
-      <c r="C29" s="222"/>
-      <c r="D29" s="223"/>
-      <c r="E29" s="223"/>
-      <c r="F29" s="224"/>
+      <c r="B29" s="258"/>
+      <c r="C29" s="250"/>
+      <c r="D29" s="251"/>
+      <c r="E29" s="251"/>
+      <c r="F29" s="252"/>
       <c r="G29" s="102"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
@@ -8838,11 +9948,11 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="97"/>
-      <c r="B30" s="230"/>
-      <c r="C30" s="222"/>
-      <c r="D30" s="223"/>
-      <c r="E30" s="223"/>
-      <c r="F30" s="224"/>
+      <c r="B30" s="258"/>
+      <c r="C30" s="250"/>
+      <c r="D30" s="251"/>
+      <c r="E30" s="251"/>
+      <c r="F30" s="252"/>
       <c r="G30" s="102"/>
       <c r="H30" s="102"/>
       <c r="I30" s="102"/>
@@ -8853,11 +9963,11 @@
     </row>
     <row r="31" spans="1:13" ht="23.25" customHeight="1">
       <c r="A31" s="97"/>
-      <c r="B31" s="230"/>
-      <c r="C31" s="222"/>
-      <c r="D31" s="223"/>
-      <c r="E31" s="223"/>
-      <c r="F31" s="224"/>
+      <c r="B31" s="258"/>
+      <c r="C31" s="250"/>
+      <c r="D31" s="251"/>
+      <c r="E31" s="251"/>
+      <c r="F31" s="252"/>
       <c r="G31" s="102"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
@@ -8868,11 +9978,11 @@
     </row>
     <row r="32" spans="1:13" ht="23.25" customHeight="1">
       <c r="A32" s="97"/>
-      <c r="B32" s="230"/>
-      <c r="C32" s="222"/>
-      <c r="D32" s="223"/>
-      <c r="E32" s="223"/>
-      <c r="F32" s="224"/>
+      <c r="B32" s="258"/>
+      <c r="C32" s="250"/>
+      <c r="D32" s="251"/>
+      <c r="E32" s="251"/>
+      <c r="F32" s="252"/>
       <c r="G32" s="102"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
@@ -8883,11 +9993,11 @@
     </row>
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="97"/>
-      <c r="B33" s="231"/>
-      <c r="C33" s="222"/>
-      <c r="D33" s="223"/>
-      <c r="E33" s="223"/>
-      <c r="F33" s="224"/>
+      <c r="B33" s="259"/>
+      <c r="C33" s="250"/>
+      <c r="D33" s="251"/>
+      <c r="E33" s="251"/>
+      <c r="F33" s="252"/>
       <c r="G33" s="102"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
@@ -8959,6 +10069,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8967,7 +10088,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E0A7EB1C84FE4E48B42E395C0170D4D9" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9386bc045b67cafa3351525efa2003fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="540e6531-8795-4248-80ce-25efd73518ad" xmlns:ns3="d4884cc8-da59-4935-9350-efc2119afb64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7588742304aade531307f5737b871ff4" ns2:_="" ns3:_="">
     <xsd:import namespace="540e6531-8795-4248-80ce-25efd73518ad"/>
@@ -9156,57 +10277,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A122AB63-FCCF-47AE-BB8B-E30B0667C4FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{670F2671-A5CC-40C5-9AA5-7CEAEBE0993C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFB1EC35-BB46-46C0-8CE0-C8D244B27AA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
-    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A122AB63-FCCF-47AE-BB8B-E30B0667C4FC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{670F2671-A5CC-40C5-9AA5-7CEAEBE0993C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
-    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFB1EC35-BB46-46C0-8CE0-C8D244B27AA4}"/>
 </file>